--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\CTOmodCustom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B0FCF-6A4C-4AC0-BE94-D56A3AAC44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD1FD1-89FF-4728-B18E-41CF807106C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>..</t>
   </si>
   <si>
-    <t>Needs a nerf imo, should not out compete all AP pistol rounds and some rifle rounds -wethan</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Hk416 (MASS)</t>
+  </si>
+  <si>
+    <t>Needs a nerf imo, should not out compete all AP pistol rounds and some rifle rounds -wethan2</t>
   </si>
 </sst>
 </file>
@@ -731,10 +731,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -743,21 +742,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,35 +760,17 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -866,13 +841,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -886,20 +854,29 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1071,6 +1048,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1079,6 +1064,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1129,16 +1122,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="B10:I21" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8C7ABBF-D256-4E65-A96F-CB8C79043F13}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="25"/>
     <tableColumn id="8" xr3:uid="{1B8F2AD9-79AF-4A58-B2C3-7503CA0BAC64}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1146,16 +1139,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="B22:I28" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{A0B3C6B1-1D75-44B4-9711-4F4A79B0FE38}" name="SG Spread"/>
-    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="17"/>
     <tableColumn id="8" xr3:uid="{AF6E3851-1CCB-488C-8934-795320B1A1F1}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1163,16 +1156,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B29:I40" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{D80CA1F1-6F5B-438C-AA3F-65F88997D35D}" name="ToArmorPre"/>
-    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{F0BC5AFB-6639-4CF1-9407-26249096B7E5}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1182,6 +1175,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="8">
   <autoFilter ref="A1:Z35" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z19">
+    <sortCondition ref="D1:D35"/>
+  </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{65C1FDAC-048C-4583-9579-8E5073FE8457}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7A2AB053-4178-42D6-930E-A6EE740AD050}" name="weight"/>
@@ -1215,7 +1211,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:Z14" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{5824021B-BC67-48E1-A206-55414C872ECA}" name="Name"/>
@@ -1240,8 +1236,8 @@
     <tableColumn id="20" xr3:uid="{62531363-BA92-4A8A-8AB6-B4087814EBB2}" name="snap shots"/>
     <tableColumn id="21" xr3:uid="{1C0B92DE-F808-4696-97D4-2E3861F73657}" name="auto shots"/>
     <tableColumn id="22" xr3:uid="{10804940-615D-4A24-A109-59207CE64CD5}" name="Caliber"/>
-    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="3"/>
     <tableColumn id="25" xr3:uid="{0D2C2452-A089-4C8F-9B64-2CF44E06A30B}" name="Mag sizes"/>
     <tableColumn id="26" xr3:uid="{3A0725D0-4815-4E95-A3DF-3F1773EA189E}" name="Notes:"/>
   </tableColumns>
@@ -1250,7 +1246,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}" name="Table11" displayName="Table11" ref="A1:AA30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}" name="Table11" displayName="Table11" ref="A1:AA30" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:AA30" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B4DFDA4E-6C13-49F9-B89D-E8F531E6A08A}" name="Name"/>
@@ -1585,7 +1581,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,10 +1598,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1631,7 +1627,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1652,15 +1648,15 @@
       <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1675,16 +1671,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
-        <v>97</v>
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>96</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -1698,15 +1690,15 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1721,15 +1713,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
@@ -1744,40 +1732,34 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>33</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>0.4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
@@ -1792,15 +1774,15 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
@@ -1816,45 +1798,45 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1873,406 +1855,386 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <v>35</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <v>0.3</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <v>6</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>36</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>0.3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="M12" s="18" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>36</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>0.3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
         <v>37</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>0.4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="M13" s="19" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="10">
         <v>37</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="10">
         <v>0.4</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="10">
         <v>6</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>33</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>33</v>
       </c>
-      <c r="O14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>6</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>43</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0.6</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="M15" s="19" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="10">
         <v>43</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="10">
         <v>0.6</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="10">
         <v>6</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>0.6</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="M16" s="18" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>45</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>0.6</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>49</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0.7</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="M17" s="19" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="10">
         <v>49</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="10">
         <v>0.7</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="10">
         <v>6</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>51</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>0.7</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="M18" s="18" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>51</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>0.7</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18">
         <v>6</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>61</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>0.8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="M19" s="19" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="10">
         <v>61</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="10">
         <v>0.8</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="10">
         <v>6</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>70</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="M20" s="18" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20">
         <v>70</v>
       </c>
-      <c r="O20" s="20">
-        <v>1</v>
-      </c>
-      <c r="P20" s="20">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>6</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>75</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="M21" s="24" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="18">
         <v>75</v>
       </c>
-      <c r="O21" s="25">
-        <v>1</v>
-      </c>
-      <c r="P21" s="25">
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
         <v>6</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2295,290 +2257,290 @@
         <v>1</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="13">
         <v>25</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="13">
         <v>10</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="13">
         <v>100</v>
       </c>
-      <c r="Q23" s="17">
-        <v>0</v>
-      </c>
-      <c r="R23" s="17">
-        <v>1</v>
-      </c>
-      <c r="S23" s="17">
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1</v>
+      </c>
+      <c r="S23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>45</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>0.7</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="18" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24">
         <v>45</v>
       </c>
-      <c r="O24" s="20">
-        <v>1</v>
-      </c>
-      <c r="P24" s="20" t="s">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24">
         <v>0.7</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24">
         <v>6</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="10">
         <v>10</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="10">
         <v>10</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="10">
         <v>100</v>
       </c>
-      <c r="Q25" s="23">
-        <v>0</v>
-      </c>
-      <c r="R25" s="23">
-        <v>1</v>
-      </c>
-      <c r="S25" s="23">
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>20</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="18" t="s">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26">
         <v>25</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26">
         <v>20</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="Q26" s="20">
-        <v>0</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>55</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>6</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="19" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="10">
         <v>55</v>
       </c>
-      <c r="O27" s="23">
-        <v>1</v>
-      </c>
-      <c r="P27" s="13" t="s">
+      <c r="O27" s="10">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" s="23">
-        <v>1</v>
-      </c>
-      <c r="R27" s="23">
+      <c r="Q27" s="10">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
         <v>6</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>20</v>
       </c>
       <c r="E28">
         <v>100</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="11">
         <v>10</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="11">
         <v>20</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="11">
         <v>100</v>
       </c>
-      <c r="Q28" s="22">
-        <v>0</v>
-      </c>
-      <c r="R28" s="22">
-        <v>1</v>
-      </c>
-      <c r="S28" s="22">
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="11">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2601,370 +2563,356 @@
       <c r="I30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="13">
         <v>50</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="13">
         <v>0.2</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="13">
         <v>3</v>
       </c>
-      <c r="Q30" s="17">
-        <v>1</v>
-      </c>
-      <c r="R30" s="17">
+      <c r="Q30" s="13">
+        <v>1</v>
+      </c>
+      <c r="R30" s="13">
         <v>3</v>
       </c>
-      <c r="S30" s="17"/>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>40</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>9</v>
       </c>
-      <c r="H31" s="2"/>
       <c r="I31" t="s">
         <v>45</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31">
         <v>40</v>
       </c>
-      <c r="O31" s="20">
-        <v>0</v>
-      </c>
-      <c r="P31" s="20">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>5</v>
       </c>
-      <c r="Q31" s="20">
-        <v>1</v>
-      </c>
-      <c r="R31" s="20">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
         <v>9</v>
       </c>
-      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>40</v>
       </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="I32" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="10">
         <v>40</v>
       </c>
-      <c r="O32" s="23">
-        <v>0</v>
-      </c>
-      <c r="P32" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="23">
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="10">
         <v>6</v>
       </c>
-      <c r="R32" s="23">
-        <v>1</v>
-      </c>
-      <c r="S32" s="23"/>
+      <c r="R32" s="10">
+        <v>1</v>
+      </c>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>60</v>
       </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
       <c r="I33" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N33">
         <v>60</v>
       </c>
-      <c r="O33" s="20">
-        <v>0</v>
-      </c>
-      <c r="P33" s="20">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>3</v>
       </c>
-      <c r="Q33" s="20">
-        <v>1</v>
-      </c>
-      <c r="R33" s="20">
-        <v>1</v>
-      </c>
-      <c r="S33" s="20"/>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>200</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="10">
         <v>200</v>
       </c>
-      <c r="O34" s="13">
-        <v>1</v>
-      </c>
-      <c r="P34" s="23">
+      <c r="O34" s="10">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
         <v>3</v>
       </c>
-      <c r="Q34" s="23">
-        <v>1</v>
-      </c>
-      <c r="R34" s="23">
+      <c r="Q34" s="10">
+        <v>1</v>
+      </c>
+      <c r="R34" s="10">
         <v>3</v>
       </c>
-      <c r="S34" s="23"/>
+      <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>100</v>
       </c>
       <c r="D35">
         <v>0.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35">
         <v>100</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35">
         <v>0.5</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35">
         <v>6</v>
       </c>
-      <c r="Q35" s="20">
-        <v>1</v>
-      </c>
-      <c r="R35" s="20">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>150</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="10">
         <v>150</v>
       </c>
-      <c r="O36" s="13">
-        <v>1</v>
-      </c>
-      <c r="P36" s="23">
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10">
         <v>3</v>
       </c>
-      <c r="Q36" s="23">
-        <v>1</v>
-      </c>
-      <c r="R36" s="23">
+      <c r="Q36" s="10">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10">
         <v>3</v>
       </c>
-      <c r="S36" s="23"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>190</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37">
         <v>190</v>
       </c>
-      <c r="O37" s="12">
-        <v>1</v>
-      </c>
-      <c r="P37" s="20">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>3</v>
       </c>
-      <c r="Q37" s="20">
-        <v>1</v>
-      </c>
-      <c r="R37" s="20">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
         <v>3</v>
       </c>
-      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>140</v>
       </c>
       <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="10">
         <v>140</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="10">
         <v>0.2</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="10">
         <v>7</v>
       </c>
-      <c r="Q38" s="23">
-        <v>1</v>
-      </c>
-      <c r="R38" s="23">
+      <c r="Q38" s="10">
+        <v>1</v>
+      </c>
+      <c r="R38" s="10">
         <v>3</v>
       </c>
-      <c r="S38" s="23"/>
+      <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,8 +2930,8 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:Z1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,97 +2961,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>3700</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3115,35 +3063,35 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
@@ -3153,39 +3101,36 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>78</v>
+      <c r="U2">
+        <v>3</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W2">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V2,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V2,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3197,34 +3142,34 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3239,29 +3184,29 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W3">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>8000</v>
@@ -3329,21 +3274,21 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3358,28 +3303,28 @@
         <v>45</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="K5">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>38</v>
-      </c>
       <c r="M5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -3388,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>3</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -3408,21 +3353,21 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -3437,71 +3382,74 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
       </c>
       <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
         <v>8</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <v>22</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>12</v>
       </c>
       <c r="W6">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>3700</v>
+        <v>12000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -3513,25 +3461,25 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -3540,47 +3488,47 @@
         <v>4</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W7">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -3595,31 +3543,31 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3634,32 +3582,32 @@
         <v>3</v>
       </c>
       <c r="V8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W8">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>12500</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3680,25 +3628,25 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M9">
         <v>35</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3713,29 +3661,29 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="W9">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>12500</v>
@@ -3750,74 +3698,74 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="J10">
-        <v>60</v>
-      </c>
-      <c r="K10">
-        <v>65</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>35</v>
-      </c>
       <c r="N10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>8</v>
       </c>
       <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>18</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <v>5</v>
       </c>
-      <c r="Q10">
-        <v>22</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
       <c r="V10" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="W10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3832,31 +3780,31 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
+      </c>
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="K11">
-        <v>70</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
       <c r="M11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
         <v>6</v>
       </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
       <c r="Q11">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3871,32 +3819,32 @@
         <v>3</v>
       </c>
       <c r="V11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W11">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12">
-        <v>12000</v>
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -3914,28 +3862,28 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -3950,32 +3898,32 @@
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="W12">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13">
-        <v>12500</v>
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3987,34 +3935,34 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4029,18 +3977,18 @@
         <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="W13">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -4066,8 +4014,8 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2:W14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,97 +4042,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4240,27 +4188,27 @@
       <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V2,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V2,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>15000</v>
@@ -4319,27 +4267,27 @@
       <c r="V3" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>25000</v>
@@ -4398,27 +4346,27 @@
       <c r="V4" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>110</v>
+      <c r="A5" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>18000</v>
@@ -4477,30 +4425,30 @@
       <c r="V5" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>33</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Y5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>18000</v>
@@ -4559,30 +4507,30 @@
       <c r="V6" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>33</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -4636,29 +4584,29 @@
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="12">
+        <v>96</v>
+      </c>
+      <c r="W7">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>29</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>14000</v>
@@ -4717,27 +4665,27 @@
       <c r="V8" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>19000</v>
@@ -4796,27 +4744,27 @@
       <c r="V9" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>35</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>17000</v>
@@ -4875,27 +4823,27 @@
       <c r="V10" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>23000</v>
@@ -4954,44 +4902,44 @@
       <c r="V11" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>34</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W12" s="13" t="e">
+      <c r="W12" s="10" t="e">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="X12" s="13" t="e">
+      <c r="X12" s="10" t="e">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" s="12" t="e">
+      <c r="W13" t="e">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="X13" s="12" t="e">
+      <c r="X13" t="e">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W14" s="13" t="e">
+      <c r="W14" s="10" t="e">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="X14" s="13" t="e">
+      <c r="X14" s="10" t="e">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>#N/A</v>
       </c>
@@ -5008,7 +4956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5035,103 +4983,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>30000</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -5185,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5196,24 +5144,24 @@
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -5267,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5278,24 +5226,24 @@
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5349,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5360,24 +5308,24 @@
         <v>0.4</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>40000</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -5431,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5442,24 +5390,24 @@
         <v>0.4</v>
       </c>
       <c r="Z5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -5513,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5524,24 +5472,24 @@
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>32000</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5595,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5606,24 +5554,24 @@
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -5677,7 +5625,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5688,24 +5636,24 @@
         <v>0.4</v>
       </c>
       <c r="Z8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5759,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5770,24 +5718,24 @@
         <v>0.4</v>
       </c>
       <c r="Z9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -5841,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5852,24 +5800,24 @@
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>32000</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -5923,7 +5871,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5934,24 +5882,24 @@
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -6005,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6016,24 +5964,24 @@
         <v>0.4</v>
       </c>
       <c r="Z12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -6087,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6098,24 +6046,24 @@
         <v>0.4</v>
       </c>
       <c r="Z13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -6169,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X14">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6180,24 +6128,24 @@
         <v>0.4</v>
       </c>
       <c r="Z14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>28000</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -6262,24 +6210,24 @@
         <v>0.3</v>
       </c>
       <c r="Z15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -6344,24 +6292,24 @@
         <v>0.3</v>
       </c>
       <c r="Z16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>31000</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -6426,24 +6374,24 @@
         <v>0.6</v>
       </c>
       <c r="Z17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -6508,24 +6456,24 @@
         <v>0.6</v>
       </c>
       <c r="Z18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>28000</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -6579,7 +6527,7 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X19">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6590,27 +6538,27 @@
         <v>0.4</v>
       </c>
       <c r="Z19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -6664,7 +6612,7 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X20">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6675,27 +6623,27 @@
         <v>0.4</v>
       </c>
       <c r="Z20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>31000</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -6749,7 +6697,7 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X21">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6760,24 +6708,24 @@
         <v>0.4</v>
       </c>
       <c r="Z21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -6831,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X22">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6842,24 +6790,24 @@
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>35000</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -6913,7 +6861,7 @@
         <v>5</v>
       </c>
       <c r="W23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X23">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6924,24 +6872,24 @@
         <v>0.4</v>
       </c>
       <c r="Z23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -6995,7 +6943,7 @@
         <v>5</v>
       </c>
       <c r="W24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X24">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7006,24 +6954,24 @@
         <v>0.4</v>
       </c>
       <c r="Z24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -7077,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X25">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7088,24 +7036,24 @@
         <v>0.4</v>
       </c>
       <c r="Z25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -7159,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X26">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7170,12 +7118,12 @@
         <v>0.4</v>
       </c>
       <c r="Z26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X27" t="e">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7225,9 +7173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52ABDA0-E560-473A-9AD2-E06CBFB7AB92}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,100 +7206,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="28" t="s">
+      <c r="Z1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7360,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>145</v>
@@ -7372,7 +7320,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2">
         <v>80</v>
@@ -7381,7 +7329,7 @@
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2">
         <v>200</v>
@@ -7390,7 +7338,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R2">
         <v>200</v>
@@ -7405,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7419,24 +7367,24 @@
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7457,7 +7405,7 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -7466,7 +7414,7 @@
         <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>200</v>
@@ -7475,7 +7423,7 @@
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R3">
         <v>200</v>
@@ -7490,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
@@ -7504,18 +7452,18 @@
         <v>0.6</v>
       </c>
       <c r="Z3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>42000</v>
@@ -7527,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>145</v>
@@ -7539,7 +7487,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4">
         <v>125</v>
@@ -7548,7 +7496,7 @@
         <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4">
         <v>200</v>
@@ -7557,7 +7505,7 @@
         <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4">
         <v>200</v>
@@ -7572,10 +7520,10 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7586,18 +7534,18 @@
         <v>0.6</v>
       </c>
       <c r="Z4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>46000</v>
@@ -7609,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -7657,7 +7605,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7668,18 +7616,18 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>57000</v>
@@ -7750,18 +7698,18 @@
         <v>0.7</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>43000</v>
@@ -7773,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7">
         <v>130</v>
@@ -7832,18 +7780,18 @@
         <v>0.7</v>
       </c>
       <c r="Z7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>62000</v>
@@ -7855,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>150</v>
@@ -7867,7 +7815,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8">
         <v>115</v>
@@ -7876,7 +7824,7 @@
         <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8">
         <v>200</v>
@@ -7885,7 +7833,7 @@
         <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R8">
         <v>200</v>
@@ -7900,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
         <v>32</v>
@@ -7914,18 +7862,18 @@
         <v>1</v>
       </c>
       <c r="Z8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>52000</v>
@@ -7937,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>145</v>
@@ -7949,7 +7897,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9">
         <v>150</v>
@@ -7958,7 +7906,7 @@
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9">
         <v>200</v>
@@ -7967,7 +7915,7 @@
         <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R9">
         <v>200</v>
@@ -7982,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
@@ -7996,18 +7944,18 @@
         <v>0.8</v>
       </c>
       <c r="Z9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>47500</v>
@@ -8019,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10">
         <v>145</v>
@@ -8031,7 +7979,7 @@
         <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10">
         <v>115</v>
@@ -8040,7 +7988,7 @@
         <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -8049,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10">
         <v>200</v>
@@ -8064,10 +8012,10 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8078,18 +8026,18 @@
         <v>0.6</v>
       </c>
       <c r="Z10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>51000</v>
@@ -8101,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>145</v>
@@ -8113,7 +8061,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11">
         <v>135</v>
@@ -8122,7 +8070,7 @@
         <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <v>200</v>
@@ -8131,7 +8079,7 @@
         <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11">
         <v>200</v>
@@ -8146,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
         <v>31</v>
@@ -8160,18 +8108,18 @@
         <v>0.8</v>
       </c>
       <c r="Z11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>4400</v>
@@ -8183,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
         <v>145</v>
@@ -8195,7 +8143,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12">
         <v>110</v>
@@ -8204,7 +8152,7 @@
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12">
         <v>200</v>
@@ -8213,7 +8161,7 @@
         <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R12">
         <v>200</v>
@@ -8228,10 +8176,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8242,18 +8190,18 @@
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -8265,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13">
         <v>150</v>
@@ -8277,7 +8225,7 @@
         <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13">
         <v>130</v>
@@ -8286,7 +8234,7 @@
         <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13">
         <v>200</v>
@@ -8295,7 +8243,7 @@
         <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13">
         <v>200</v>
@@ -8310,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s">
         <v>30</v>
@@ -8324,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -8533,91 +8481,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <v>32</v>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD1FD1-89FF-4728-B18E-41CF807106C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F46B88-B071-4F6E-9A4C-7C5A156B708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -581,6 +603,48 @@
   </si>
   <si>
     <t>Needs a nerf imo, should not out compete all AP pistol rounds and some rifle rounds -wethan2</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Serbu</t>
+  </si>
+  <si>
+    <t>Remington 870</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>NL &amp; Slug ammo</t>
+  </si>
+  <si>
+    <t>Spas-12</t>
+  </si>
+  <si>
+    <t>KS-23</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Origin 12</t>
+  </si>
+  <si>
+    <t>[8,20,30]</t>
+  </si>
+  <si>
+    <t>NL &amp; Slug ammo (8rnd only)</t>
+  </si>
+  <si>
+    <t>AA-12</t>
+  </si>
+  <si>
+    <t>USAS 12</t>
+  </si>
+  <si>
+    <t>Saiga 12</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1645,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,10 +5018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,13 +7189,82 @@
       <c r="A27" t="s">
         <v>149</v>
       </c>
-      <c r="X27" t="e">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>17500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>125</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>55</v>
+      </c>
+      <c r="L27">
+        <v>55</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <v>40</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
+      <c r="P27">
+        <v>32</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>200</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y27">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
+        <v>0.4</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -7161,6 +7294,206 @@
       </c>
       <c r="Y30" t="e">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X31" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X32" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X33" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X34" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X35" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X36" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X37" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X38" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X39" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X40" t="e">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X41" t="e" cm="1">
+        <f t="array" aca="1" ref="X41" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" t="e" cm="1">
+        <f t="array" aca="1" ref="Y41" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X42" t="e" cm="1">
+        <f t="array" aca="1" ref="X42" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" t="e" cm="1">
+        <f t="array" aca="1" ref="Y42" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X43" t="e" cm="1">
+        <f t="array" aca="1" ref="X43" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" t="e" cm="1">
+        <f t="array" aca="1" ref="Y43" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X44" t="e" cm="1">
+        <f t="array" aca="1" ref="X44" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" t="e" cm="1">
+        <f t="array" aca="1" ref="Y44" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X45" t="e" cm="1">
+        <f t="array" aca="1" ref="X45" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" t="e" cm="1">
+        <f t="array" aca="1" ref="Y45" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X46" t="e" cm="1">
+        <f t="array" aca="1" ref="X46" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" t="e" cm="1">
+        <f t="array" aca="1" ref="Y46" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X47" t="e" cm="1">
+        <f t="array" aca="1" ref="X47" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" t="e" cm="1">
+        <f t="array" aca="1" ref="Y47" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X48" t="e" cm="1">
+        <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" t="e" cm="1">
+        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X49" t="e" cm="1">
+        <f t="array" aca="1" ref="X49" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" t="e" cm="1">
+        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X50" t="e" cm="1">
+        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" t="e" cm="1">
+        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7173,7 +7506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52ABDA0-E560-473A-9AD2-E06CBFB7AB92}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
@@ -8455,32 +8788,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF758D-66BB-49AA-8233-CCB9E398E093}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="16" width="10.140625" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8554,21 +8890,811 @@
         <v>2</v>
       </c>
       <c r="Y1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>171</v>
       </c>
       <c r="B2">
         <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>115</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>30000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3">
+        <v>75</v>
+      </c>
+      <c r="M3">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>21000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4">
+        <v>95</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>28000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <v>85</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>30000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>115</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y6">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>51000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>40000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>32000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>65</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>43000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
+        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F46B88-B071-4F6E-9A4C-7C5A156B708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CD483-66FF-4688-B110-B649F3E108BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -140,9 +140,6 @@
     <t>22 Long Rifle</t>
   </si>
   <si>
-    <t>Not in use, despite having 22 LR mags, which use 5.56 for some reason, also kinda goofy stat wise for what 22 is but it works for gameplay reasons.</t>
-  </si>
-  <si>
     <t>Stuns</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>kneel bonus</t>
   </si>
   <si>
-    <t>Why is this not in 22lr?</t>
-  </si>
-  <si>
     <t>SKS</t>
   </si>
   <si>
@@ -645,6 +639,111 @@
   </si>
   <si>
     <t>Saiga 12</t>
+  </si>
+  <si>
+    <t>FX-05 (Scoped)</t>
+  </si>
+  <si>
+    <t>Scar L</t>
+  </si>
+  <si>
+    <t>Scar L (Sopmod)</t>
+  </si>
+  <si>
+    <t>Scar L (GL)</t>
+  </si>
+  <si>
+    <t>Scar H</t>
+  </si>
+  <si>
+    <t>Scar H (Sopmod)</t>
+  </si>
+  <si>
+    <t>Scar H (GL)</t>
+  </si>
+  <si>
+    <t>[20][1]</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>SR 3</t>
+  </si>
+  <si>
+    <t>SR 3 (One handed)</t>
+  </si>
+  <si>
+    <t>M16A2</t>
+  </si>
+  <si>
+    <t>AR 18</t>
+  </si>
+  <si>
+    <t>AR 180</t>
+  </si>
+  <si>
+    <t>AKM</t>
+  </si>
+  <si>
+    <t>RK 62</t>
+  </si>
+  <si>
+    <t>AK 74</t>
+  </si>
+  <si>
+    <t>FN FAL</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>[5,20,10]</t>
+  </si>
+  <si>
+    <t>HK417</t>
+  </si>
+  <si>
+    <t>[10][20]</t>
+  </si>
+  <si>
+    <t>HK417 (Scoped)</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>2x3</t>
+  </si>
+  <si>
+    <t>[50,100]</t>
+  </si>
+  <si>
+    <t>[30,50,100]</t>
+  </si>
+  <si>
+    <t>FN Minimi</t>
+  </si>
+  <si>
+    <t>M249 Para</t>
+  </si>
+  <si>
+    <t>MK 48</t>
+  </si>
+  <si>
+    <t>RPK 74</t>
+  </si>
+  <si>
+    <t>[30,45]</t>
+  </si>
+  <si>
+    <t>PKP Pecheneg</t>
+  </si>
+  <si>
+    <t>7.62mm Soviet mmr</t>
+  </si>
+  <si>
+    <t>Negev</t>
   </si>
 </sst>
 </file>
@@ -712,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -780,22 +879,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -815,14 +903,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1169,7 +1352,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I9" totalsRowShown="0" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I9" totalsRowShown="0" tableBorderDxfId="42">
   <autoFilter ref="B1:I9" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{085F0113-80A5-4D7F-B00C-4888CB135866}" name="Name"/>
@@ -1185,17 +1368,56 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B36A2CF-DAA4-4B61-B862-8F0D47D69557}" name="Table3" displayName="Table3" ref="A1:AA14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:AA14" xr:uid="{7B36A2CF-DAA4-4B61-B862-8F0D47D69557}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA8">
+    <sortCondition ref="M1:M14"/>
+  </sortState>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{A8BBADB3-0AE9-45E8-9C77-42482A2CF767}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{4BB894CD-D6CC-494C-8E57-A9C2E0592C4E}" name="weight"/>
+    <tableColumn id="3" xr3:uid="{55D5DA56-1868-4260-8702-A77EACCF3E7D}" name="size"/>
+    <tableColumn id="4" xr3:uid="{1285ED64-A2C7-4830-94B8-AD696335E2C5}" name="Cost"/>
+    <tableColumn id="5" xr3:uid="{A23E186F-C187-44FB-B585-4A8E36EE132A}" name="two handed"/>
+    <tableColumn id="6" xr3:uid="{5857068C-DFFD-462E-B6E6-73EC8AF5423A}" name="Block both hands"/>
+    <tableColumn id="7" xr3:uid="{F4D2F080-1823-4F86-AC75-82F8DD2A002A}" name="One hand pen."/>
+    <tableColumn id="8" xr3:uid="{0257D052-3698-40DE-B671-E88F12BABC17}" name="kneel bonus"/>
+    <tableColumn id="9" xr3:uid="{D5D46CF5-B852-45E4-AFBF-7079937AC411}" name="tuAimed"/>
+    <tableColumn id="10" xr3:uid="{D7BBD5B7-2006-493D-B269-5C22D72C7BB7}" name="tuSnap"/>
+    <tableColumn id="11" xr3:uid="{E2E24967-DA52-4959-BF06-77ABD2C9A3E7}" name="tuAuto"/>
+    <tableColumn id="12" xr3:uid="{D375E6F3-E2FC-43AD-994B-302B19743905}" name="accAimed"/>
+    <tableColumn id="13" xr3:uid="{2E4C8BA5-288E-4D6F-B43C-9FA8044F2E42}" name="accSnap"/>
+    <tableColumn id="14" xr3:uid="{21A676DD-BCDC-49C3-A8C0-B7BC9217CB52}" name="accAuto"/>
+    <tableColumn id="15" xr3:uid="{369DE6FB-8E65-49A3-89B5-0804E900DA2A}" name="rangeAimed"/>
+    <tableColumn id="16" xr3:uid="{F1E9ADC8-DBBD-442D-B390-9ECE93FEB4D2}" name="rangeSnap"/>
+    <tableColumn id="17" xr3:uid="{21DAF817-7B86-4F34-84CB-FAFBBC5FE476}" name="rangeAuto"/>
+    <tableColumn id="18" xr3:uid="{0500C1D3-8E98-462B-8E61-4141DA94A55F}" name="maxRange"/>
+    <tableColumn id="19" xr3:uid="{8090DF43-6704-4592-A789-709321B97EC1}" name="minRange"/>
+    <tableColumn id="20" xr3:uid="{A262F3D1-6339-46F9-A86A-F76EC3AD31DF}" name="Aimed shots"/>
+    <tableColumn id="21" xr3:uid="{6922DAA8-0EAD-4280-95AC-BA4DFDA1778A}" name="snap shots"/>
+    <tableColumn id="22" xr3:uid="{5014F934-0FCB-42FF-BD38-D462B9CDFF7A}" name="auto shots"/>
+    <tableColumn id="23" xr3:uid="{649F4175-D617-4784-9155-EEBA8244755F}" name="Caliber"/>
+    <tableColumn id="24" xr3:uid="{1DFC8A51-6301-4D02-BEB5-A3F5C44197A9}" name="Power"/>
+    <tableColumn id="25" xr3:uid="{5CA358F0-BB98-4F17-BAFA-0F622760655B}" name="toArmorPre"/>
+    <tableColumn id="26" xr3:uid="{889BBB68-DD77-4BB6-A4A2-E9618E724898}" name="Mag sizes"/>
+    <tableColumn id="27" xr3:uid="{903AE87C-2A88-4AAC-B3AC-3656F921ECC0}" name="Notes:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="B10:I21" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8C7ABBF-D256-4E65-A96F-CB8C79043F13}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="34"/>
     <tableColumn id="8" xr3:uid="{1B8F2AD9-79AF-4A58-B2C3-7503CA0BAC64}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1203,16 +1425,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="B22:I28" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{A0B3C6B1-1D75-44B4-9711-4F4A79B0FE38}" name="SG Spread"/>
-    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="26"/>
     <tableColumn id="8" xr3:uid="{AF6E3851-1CCB-488C-8934-795320B1A1F1}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1220,16 +1442,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="B29:I40" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{D80CA1F1-6F5B-438C-AA3F-65F88997D35D}" name="ToArmorPre"/>
-    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="18"/>
     <tableColumn id="8" xr3:uid="{F0BC5AFB-6639-4CF1-9407-26249096B7E5}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1237,7 +1459,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="17">
   <autoFilter ref="A1:Z35" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z19">
     <sortCondition ref="D1:D35"/>
@@ -1275,7 +1497,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:Z14" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{5824021B-BC67-48E1-A206-55414C872ECA}" name="Name"/>
@@ -1300,8 +1522,8 @@
     <tableColumn id="20" xr3:uid="{62531363-BA92-4A8A-8AB6-B4087814EBB2}" name="snap shots"/>
     <tableColumn id="21" xr3:uid="{1C0B92DE-F808-4696-97D4-2E3861F73657}" name="auto shots"/>
     <tableColumn id="22" xr3:uid="{10804940-615D-4A24-A109-59207CE64CD5}" name="Caliber"/>
-    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="12"/>
     <tableColumn id="25" xr3:uid="{0D2C2452-A089-4C8F-9B64-2CF44E06A30B}" name="Mag sizes"/>
     <tableColumn id="26" xr3:uid="{3A0725D0-4815-4E95-A3DF-3F1773EA189E}" name="Notes:"/>
   </tableColumns>
@@ -1310,7 +1532,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}" name="Table11" displayName="Table11" ref="A1:AA30" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA47" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:AA47" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{EA086EA1-B04D-408A-83CB-62AACD4983EB}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{28FB994B-34C3-478E-82FB-47025B753042}" name="weight"/>
+    <tableColumn id="3" xr3:uid="{44CBEE07-8F68-40B7-A25F-D61ACFD732D3}" name="size"/>
+    <tableColumn id="4" xr3:uid="{A1058F0F-C6C7-476B-A905-0B94B914B172}" name="Cost"/>
+    <tableColumn id="5" xr3:uid="{7AB8AA0D-6CCF-4E0C-B478-B2D14A509F9C}" name="GL/UBS firemode"/>
+    <tableColumn id="6" xr3:uid="{534249BF-7AEB-4A67-BE33-00E8C0D45304}" name="two handed"/>
+    <tableColumn id="7" xr3:uid="{DCD4346C-0EC8-49E4-BEF7-3925A6F86E83}" name="One hand pen."/>
+    <tableColumn id="8" xr3:uid="{82E87279-A6A7-48D8-AD35-1809BF6A0D5A}" name="kneel bouns"/>
+    <tableColumn id="9" xr3:uid="{DA9444B1-D68F-4FCF-8F85-4D800F5988B4}" name="tuAimed"/>
+    <tableColumn id="10" xr3:uid="{BE52B890-6C22-4EC2-A3FB-65AC08ABE966}" name="tuSnap"/>
+    <tableColumn id="11" xr3:uid="{C87BC72D-56D4-463A-B6CB-872CFD21B1E7}" name="tuAuto"/>
+    <tableColumn id="12" xr3:uid="{3DA0099B-F44D-4241-8B6C-FCC6AA930A72}" name="accAimed"/>
+    <tableColumn id="13" xr3:uid="{3208C6FA-7B3D-4E7B-92F2-E1F6444D0BD8}" name="accSnap"/>
+    <tableColumn id="14" xr3:uid="{CC1177EF-17CC-477E-912F-B95BF4A7EF54}" name="accAuto"/>
+    <tableColumn id="15" xr3:uid="{A11E4D3E-1547-4CB7-A675-6063DC4C7E4D}" name="rangeAimed"/>
+    <tableColumn id="16" xr3:uid="{2E04416E-A52A-409C-9A10-0CB15CEFC7ED}" name="rangeSnap"/>
+    <tableColumn id="17" xr3:uid="{228B9001-9040-4056-8C1D-DBE4CB65743E}" name="rangeAuto"/>
+    <tableColumn id="18" xr3:uid="{395AD163-4640-46A8-AE59-E95416C43282}" name="maxRange"/>
+    <tableColumn id="19" xr3:uid="{9E3BEB1E-4CD0-4899-9C84-B867FC54B9C8}" name="minRange"/>
+    <tableColumn id="20" xr3:uid="{62433CA6-002A-44CE-A305-701D6F294212}" name="Aimed shots"/>
+    <tableColumn id="21" xr3:uid="{80E22BE1-FE61-4435-BA4B-B24A042BEA63}" name="snap shots"/>
+    <tableColumn id="22" xr3:uid="{DB955D27-2A12-4F0F-8BC5-4E8F94CAE428}" name="auto shots"/>
+    <tableColumn id="23" xr3:uid="{D08FF03C-63A5-4AF5-9169-CCFA427218E6}" name="Caliber"/>
+    <tableColumn id="24" xr3:uid="{F4D836D4-6BBF-45ED-8EA8-1903F56F8034}" name="Power"/>
+    <tableColumn id="25" xr3:uid="{87A25B7A-AFFE-48D8-B242-4532B01D3CF5}" name="toArmorPre"/>
+    <tableColumn id="26" xr3:uid="{54AC26DC-E112-4977-9D11-52599861AB9E}" name="Mag sizes"/>
+    <tableColumn id="27" xr3:uid="{CA4410F5-B9D6-4025-86F4-5D48E6819918}" name="Notes:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}" name="Table11" displayName="Table11" ref="A1:AA30" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:AA30" xr:uid="{45B424C5-03DC-4EF9-AB4E-25C04CD9C9CB}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B4DFDA4E-6C13-49F9-B89D-E8F531E6A08A}" name="Name"/>
@@ -1340,6 +1598,43 @@
     <tableColumn id="25" xr3:uid="{7794EB06-9A67-448B-8780-CD840572B9FC}" name="toArmorPre"/>
     <tableColumn id="26" xr3:uid="{FF5229AB-D86C-4B40-8039-76B9ECF3E240}" name="Mag sizes"/>
     <tableColumn id="27" xr3:uid="{FCA117CD-7613-4DC2-88D8-9BCF6EAFDA5C}" name="Notes:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}" name="Table1" displayName="Table1" ref="A1:AB10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:AB10" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{FDEE9766-F3A6-4F13-BA12-421285A2A455}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{D410D561-60F9-4F73-9A13-43B6913A0690}" name="weight"/>
+    <tableColumn id="3" xr3:uid="{F52FB431-566E-47CA-A707-D09AFBEA719C}" name="size"/>
+    <tableColumn id="4" xr3:uid="{302778CD-BF81-41AD-80CB-6C27068489EB}" name="Cost"/>
+    <tableColumn id="5" xr3:uid="{B4624914-F927-42A2-87CF-25BA1FE528B4}" name="two handed"/>
+    <tableColumn id="6" xr3:uid="{E60BF7A4-1BB5-4C2A-8D7D-640B9959177E}" name="One hand pen."/>
+    <tableColumn id="7" xr3:uid="{95672319-74C9-4856-8349-A0F40DC19C10}" name="kneel bonus"/>
+    <tableColumn id="8" xr3:uid="{A6254008-A0CC-4D61-A194-0C43D8D6D68D}" name="Choke"/>
+    <tableColumn id="9" xr3:uid="{8E3D8316-F52D-489D-B97C-32FBA5905EA9}" name="tuAimed"/>
+    <tableColumn id="10" xr3:uid="{24FB7315-1A58-4418-9C56-D685FFD5965D}" name="tuSnap"/>
+    <tableColumn id="11" xr3:uid="{A3E402D6-25D9-4C9F-B59C-6EAF018D4A5C}" name="tuAuto"/>
+    <tableColumn id="12" xr3:uid="{2784E451-22BC-4FF8-A8B6-D1068389B0F3}" name="accAimed"/>
+    <tableColumn id="13" xr3:uid="{3F59096C-56CB-4220-BD3D-DF95B9FAB983}" name="accSnap"/>
+    <tableColumn id="14" xr3:uid="{9BA05E9D-6855-478F-98DE-2BE98D24AB3A}" name="accAuto"/>
+    <tableColumn id="15" xr3:uid="{10D41355-6EF9-4C0B-8B21-3F95A0C8CDC3}" name="rangeAimed"/>
+    <tableColumn id="16" xr3:uid="{CF128700-214F-4BC2-B80D-3B78FCAD8666}" name="rangeSnap"/>
+    <tableColumn id="17" xr3:uid="{132DDEBA-5899-4B91-9262-0918EC9D3712}" name="rangeAuto"/>
+    <tableColumn id="18" xr3:uid="{025DFE45-8DAE-41FC-90B1-AD55B2B7BC7C}" name="maxRange"/>
+    <tableColumn id="19" xr3:uid="{67BA92CF-26FA-4E63-AF73-9464163BF6A2}" name="minRange"/>
+    <tableColumn id="20" xr3:uid="{7238D38B-4CC7-4953-A033-F1085864807B}" name="Aimed shots"/>
+    <tableColumn id="21" xr3:uid="{B7108854-1FF3-4C7E-9E81-FA120777BB50}" name="snap shots"/>
+    <tableColumn id="22" xr3:uid="{3D15A85D-6056-46F9-81C5-BE705EBCBB82}" name="auto shots"/>
+    <tableColumn id="23" xr3:uid="{72FC145E-D2B9-496F-BDAF-CBCC5D09CFBB}" name="Caliber"/>
+    <tableColumn id="24" xr3:uid="{7E1FF7E9-F23F-4625-B9A3-6C267C0B0068}" name="Power"/>
+    <tableColumn id="25" xr3:uid="{221A7071-7F55-4302-917C-C36EBED6DF75}" name="Pellets"/>
+    <tableColumn id="26" xr3:uid="{D770EB34-F067-4068-B586-2B9DEB3FCFC0}" name="toArmorPre"/>
+    <tableColumn id="27" xr3:uid="{23BED2AC-1D4D-4329-A3E7-723133D53591}" name="Mag sizes"/>
+    <tableColumn id="28" xr3:uid="{0ACCC85E-2E2F-4D39-BD29-E88F5B5D4EE0}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1644,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,10 +1976,10 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -1710,7 +2005,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="13"/>
@@ -1740,7 +2035,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -1862,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="11"/>
@@ -1890,10 +2185,10 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1971,7 +2266,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>37</v>
@@ -2018,9 +2313,6 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
       <c r="M14" s="14" t="s">
         <v>23</v>
       </c>
@@ -2040,7 +2332,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>43</v>
@@ -2055,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="10">
         <v>43</v>
@@ -2073,7 +2365,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>45</v>
@@ -2088,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>45</v>
@@ -2106,7 +2398,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>49</v>
@@ -2121,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="10">
         <v>49</v>
@@ -2139,7 +2431,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>51</v>
@@ -2154,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>51</v>
@@ -2172,7 +2464,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>61</v>
@@ -2187,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="10">
         <v>61</v>
@@ -2205,7 +2497,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>70</v>
@@ -2220,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>70</v>
@@ -2238,7 +2530,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -2253,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" s="18">
         <v>75</v>
@@ -2270,7 +2562,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>0</v>
@@ -2300,7 +2592,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>25</v>
@@ -2322,7 +2614,7 @@
       </c>
       <c r="I23" s="1"/>
       <c r="M23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23" s="13">
         <v>25</v>
@@ -2346,7 +2638,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>45</v>
@@ -2367,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>45</v>
@@ -2391,7 +2683,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -2412,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="10">
         <v>10</v>
@@ -2439,7 +2731,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -2460,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>25</v>
@@ -2484,7 +2776,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -2505,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27" s="10">
         <v>55</v>
@@ -2529,7 +2821,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -2550,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" s="11">
         <v>10</v>
@@ -2576,7 +2868,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>0</v>
@@ -2591,13 +2883,13 @@
         <v>5</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -2606,7 +2898,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>50</v>
@@ -2625,10 +2917,10 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N30" s="13">
         <v>50</v>
@@ -2650,7 +2942,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -2668,10 +2960,10 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>40</v>
@@ -2692,7 +2984,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -2710,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32" s="10">
         <v>40</v>
@@ -2735,7 +3027,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>60</v>
@@ -2753,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>60</v>
@@ -2777,7 +3069,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -2795,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N34" s="10">
         <v>200</v>
@@ -2817,7 +3109,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -2835,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2856,7 +3148,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>150</v>
@@ -2874,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N36" s="10">
         <v>150</v>
@@ -2896,7 +3188,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>190</v>
@@ -2914,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>190</v>
@@ -2935,7 +3227,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>140</v>
@@ -2953,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" s="10">
         <v>140</v>
@@ -3029,76 +3321,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="S1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="V1" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>21</v>
@@ -3106,13 +3398,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>3700</v>
@@ -3180,18 +3472,18 @@
         <v>0.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>6000</v>
@@ -3259,18 +3551,18 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>8000</v>
@@ -3338,18 +3630,18 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -3417,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -3428,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -3449,7 +3741,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -3458,7 +3750,7 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>6</v>
@@ -3467,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -3482,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s">
         <v>8</v>
@@ -3496,21 +3788,21 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>12000</v>
@@ -3578,18 +3870,18 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -3657,18 +3949,18 @@
         <v>0.4</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>12500</v>
@@ -3736,18 +4028,18 @@
         <v>0.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>12500</v>
@@ -3804,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
@@ -3815,18 +4107,18 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>13000</v>
@@ -3894,7 +4186,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -3905,10 +4197,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -3962,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W12">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
@@ -3973,21 +4265,21 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -4052,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -4106,97 +4398,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4261,18 +4553,18 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>15000</v>
@@ -4340,18 +4632,18 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>25000</v>
@@ -4419,18 +4711,18 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>109</v>
+      <c r="A5" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>18000</v>
@@ -4498,21 +4790,21 @@
         <v>0.4</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>18000</v>
@@ -4580,21 +4872,21 @@
         <v>0.4</v>
       </c>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -4648,7 +4940,7 @@
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W7">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
@@ -4659,18 +4951,18 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>14000</v>
@@ -4738,18 +5030,18 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>19000</v>
@@ -4817,18 +5109,18 @@
         <v>0.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>17000</v>
@@ -4896,18 +5188,18 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>23000</v>
@@ -4975,7 +5267,7 @@
         <v>0.4</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -5018,132 +5310,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
     <col min="27" max="27" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>30000</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -5197,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5208,24 +5508,24 @@
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -5279,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5290,24 +5590,24 @@
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5361,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5372,24 +5672,24 @@
         <v>0.4</v>
       </c>
       <c r="Z4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>40000</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -5443,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5454,24 +5754,24 @@
         <v>0.4</v>
       </c>
       <c r="Z5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -5525,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5536,24 +5836,24 @@
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>32000</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5607,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5618,24 +5918,24 @@
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -5689,7 +5989,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5700,24 +6000,24 @@
         <v>0.4</v>
       </c>
       <c r="Z8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5771,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5782,24 +6082,24 @@
         <v>0.4</v>
       </c>
       <c r="Z9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -5853,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5864,24 +6164,24 @@
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>32000</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -5935,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -5946,24 +6246,24 @@
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -6017,7 +6317,7 @@
         <v>5</v>
       </c>
       <c r="W12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6028,24 +6328,24 @@
         <v>0.4</v>
       </c>
       <c r="Z12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -6099,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6110,24 +6410,24 @@
         <v>0.4</v>
       </c>
       <c r="Z13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -6181,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X14">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6192,24 +6492,24 @@
         <v>0.4</v>
       </c>
       <c r="Z14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>28000</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -6274,24 +6574,24 @@
         <v>0.3</v>
       </c>
       <c r="Z15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -6356,24 +6656,24 @@
         <v>0.3</v>
       </c>
       <c r="Z16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>31000</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -6427,7 +6727,7 @@
         <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X17">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W17,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6438,24 +6738,24 @@
         <v>0.6</v>
       </c>
       <c r="Z17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -6509,7 +6809,7 @@
         <v>5</v>
       </c>
       <c r="W18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X18">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W18,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6520,24 +6820,24 @@
         <v>0.6</v>
       </c>
       <c r="Z18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>28000</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -6591,7 +6891,7 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X19">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6602,27 +6902,27 @@
         <v>0.4</v>
       </c>
       <c r="Z19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -6676,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X20">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6687,27 +6987,27 @@
         <v>0.4</v>
       </c>
       <c r="Z20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>31000</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -6761,7 +7061,7 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X21">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6772,24 +7072,24 @@
         <v>0.4</v>
       </c>
       <c r="Z21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -6843,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X22">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6854,24 +7154,24 @@
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>35000</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -6925,7 +7225,7 @@
         <v>5</v>
       </c>
       <c r="W23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X23">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -6936,24 +7236,24 @@
         <v>0.4</v>
       </c>
       <c r="Z23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -7007,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="W24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X24">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7018,24 +7318,24 @@
         <v>0.4</v>
       </c>
       <c r="Z24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -7089,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X25">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7100,24 +7400,24 @@
         <v>0.4</v>
       </c>
       <c r="Z25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -7171,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X26">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7182,24 +7482,24 @@
         <v>0.4</v>
       </c>
       <c r="Z26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27">
-        <v>17500</v>
+        <v>39000</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -7211,31 +7511,31 @@
         <v>125</v>
       </c>
       <c r="I27">
+        <v>65</v>
+      </c>
+      <c r="J27">
         <v>50</v>
       </c>
-      <c r="J27">
-        <v>35</v>
-      </c>
       <c r="K27">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>40</v>
       </c>
       <c r="O27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P27">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R27">
         <v>200</v>
@@ -7253,221 +7553,1661 @@
         <v>5</v>
       </c>
       <c r="W27" t="s">
-        <v>122</v>
-      </c>
-      <c r="X27">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>153</v>
+      </c>
+      <c r="X27" cm="1">
+        <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y27" cm="1">
+        <f t="array" aca="1" ref="Y27" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>125</v>
+      </c>
+      <c r="I28">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>65</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>42</v>
+      </c>
+      <c r="P28">
+        <v>45</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>200</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>153</v>
+      </c>
+      <c r="X28" cm="1">
+        <f t="array" aca="1" ref="X28" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y28" cm="1">
+        <f t="array" aca="1" ref="Y28" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>17500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>125</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>55</v>
+      </c>
+      <c r="L29">
+        <v>55</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+      <c r="O29">
+        <v>22</v>
+      </c>
+      <c r="P29">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>200</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29" t="s">
+        <v>121</v>
+      </c>
+      <c r="X29">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y27">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
+      <c r="Y29">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
         <v>0.4</v>
       </c>
-      <c r="Z27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X28" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W28,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W28,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X29" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
+      <c r="Z29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X30" t="e">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>125</v>
+      </c>
+      <c r="I30">
+        <v>65</v>
+      </c>
+      <c r="J30">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>55</v>
+      </c>
+      <c r="L30">
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <v>55</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <v>27</v>
+      </c>
+      <c r="P30">
+        <v>37</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>200</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30" t="s">
+        <v>121</v>
+      </c>
+      <c r="X30">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y30">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
+        <v>0.4</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X31" t="e">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>38000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>125</v>
+      </c>
+      <c r="I31">
+        <v>65</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>70</v>
+      </c>
+      <c r="L31">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>32</v>
+      </c>
+      <c r="P31">
+        <v>35</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>200</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31" t="s">
+        <v>121</v>
+      </c>
+      <c r="X31">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y31">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
+        <v>0.4</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X32" t="e">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>125</v>
+      </c>
+      <c r="I32">
+        <v>80</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>70</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>40</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+      <c r="R32">
+        <v>200</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32" t="s">
+        <v>121</v>
+      </c>
+      <c r="X32">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y32">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X33" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>125</v>
+      </c>
+      <c r="I33">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>70</v>
+      </c>
+      <c r="L33">
+        <v>80</v>
+      </c>
+      <c r="M33">
+        <v>70</v>
+      </c>
+      <c r="N33">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>37</v>
+      </c>
+      <c r="P33">
+        <v>40</v>
+      </c>
+      <c r="Q33">
+        <v>16</v>
+      </c>
+      <c r="R33">
+        <v>200</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X33">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y33">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X34" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>41000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>125</v>
+      </c>
+      <c r="I34">
+        <v>65</v>
+      </c>
+      <c r="J34">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>70</v>
+      </c>
+      <c r="L34">
+        <v>85</v>
+      </c>
+      <c r="M34">
+        <v>75</v>
+      </c>
+      <c r="N34">
+        <v>45</v>
+      </c>
+      <c r="O34">
+        <v>35</v>
+      </c>
+      <c r="P34">
+        <v>40</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+      <c r="R34">
+        <v>200</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34" t="s">
+        <v>153</v>
+      </c>
+      <c r="X34">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" t="e">
+        <v>45</v>
+      </c>
+      <c r="Y34">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X35" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>125</v>
+      </c>
+      <c r="I35">
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>67</v>
+      </c>
+      <c r="L35">
+        <v>105</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>45</v>
+      </c>
+      <c r="O35">
+        <v>35</v>
+      </c>
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>200</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35" t="s">
+        <v>153</v>
+      </c>
+      <c r="X35">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" t="e">
+        <v>45</v>
+      </c>
+      <c r="Y35">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X36" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>125</v>
+      </c>
+      <c r="I36">
+        <v>65</v>
+      </c>
+      <c r="J36">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>70</v>
+      </c>
+      <c r="L36">
+        <v>85</v>
+      </c>
+      <c r="M36">
+        <v>75</v>
+      </c>
+      <c r="N36">
+        <v>45</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+      <c r="R36">
+        <v>200</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36" t="s">
+        <v>153</v>
+      </c>
+      <c r="X36">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" t="e">
+        <v>45</v>
+      </c>
+      <c r="Y36">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X37" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>85000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>125</v>
+      </c>
+      <c r="I37">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <v>85</v>
+      </c>
+      <c r="N37">
+        <v>55</v>
+      </c>
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>45</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>200</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37" t="s">
+        <v>18</v>
+      </c>
+      <c r="X37">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" t="e">
+        <v>35</v>
+      </c>
+      <c r="Y37">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X38" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>45000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>125</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <v>40</v>
+      </c>
+      <c r="K38">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>70</v>
+      </c>
+      <c r="M38">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>40</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="P38">
+        <v>34</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>200</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" t="e">
+        <v>51</v>
+      </c>
+      <c r="Y38">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X39" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>65</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>60</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>200</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" t="e">
+        <v>51</v>
+      </c>
+      <c r="Y39">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X40" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>125</v>
+      </c>
+      <c r="I40">
+        <v>70</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="K40">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <v>70</v>
+      </c>
+      <c r="M40">
+        <v>60</v>
+      </c>
+      <c r="N40">
+        <v>45</v>
+      </c>
+      <c r="O40">
+        <v>36</v>
+      </c>
+      <c r="P40">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>26</v>
+      </c>
+      <c r="R40">
+        <v>200</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>121</v>
+      </c>
+      <c r="X40">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" t="e">
+        <v>37</v>
+      </c>
+      <c r="Y40">
         <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X41" t="e" cm="1">
-        <f t="array" aca="1" ref="X41" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" t="e" cm="1">
-        <f t="array" aca="1" ref="Y41" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X42" t="e" cm="1">
-        <f t="array" aca="1" ref="X42" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y42" t="e" cm="1">
-        <f t="array" aca="1" ref="Y42" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X43" t="e" cm="1">
+        <v>0.4</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>125</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>60</v>
+      </c>
+      <c r="L41">
+        <v>55</v>
+      </c>
+      <c r="M41">
+        <v>55</v>
+      </c>
+      <c r="N41">
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <v>33</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>11</v>
+      </c>
+      <c r="R41">
+        <v>200</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41" t="s">
+        <v>121</v>
+      </c>
+      <c r="X41">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W41,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y41">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W41,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>125</v>
+      </c>
+      <c r="I42">
+        <v>70</v>
+      </c>
+      <c r="J42">
+        <v>35</v>
+      </c>
+      <c r="K42" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42">
+        <v>75</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+      <c r="N42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42">
+        <v>34</v>
+      </c>
+      <c r="P42">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42">
+        <v>200</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s">
+        <v>121</v>
+      </c>
+      <c r="X42">
+        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W42,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y42">
+        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W42,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>125</v>
+      </c>
+      <c r="I43">
+        <v>55</v>
+      </c>
+      <c r="J43">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>60</v>
+      </c>
+      <c r="L43">
+        <v>55</v>
+      </c>
+      <c r="M43">
+        <v>65</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>38</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>200</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+      <c r="W43" t="s">
+        <v>25</v>
+      </c>
+      <c r="X43" cm="1">
         <f t="array" aca="1" ref="X43" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y43" t="e" cm="1">
+        <v>43</v>
+      </c>
+      <c r="Y43" cm="1">
         <f t="array" aca="1" ref="Y43" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X44" t="e" cm="1">
+        <v>0.6</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>125</v>
+      </c>
+      <c r="I44">
+        <v>55</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>60</v>
+      </c>
+      <c r="L44">
+        <v>45</v>
+      </c>
+      <c r="M44">
+        <v>75</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>38</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="R44">
+        <v>200</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+      <c r="W44" t="s">
+        <v>25</v>
+      </c>
+      <c r="X44" cm="1">
         <f t="array" aca="1" ref="X44" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y44" t="e" cm="1">
+        <v>43</v>
+      </c>
+      <c r="Y44" cm="1">
         <f t="array" aca="1" ref="Y44" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X45" t="e" cm="1">
+        <v>0.6</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>125</v>
+      </c>
+      <c r="I45">
+        <v>55</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>60</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>60</v>
+      </c>
+      <c r="N45">
+        <v>35</v>
+      </c>
+      <c r="O45">
+        <v>24</v>
+      </c>
+      <c r="P45">
+        <v>34</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>200</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45" t="s">
+        <v>19</v>
+      </c>
+      <c r="X45" cm="1">
         <f t="array" aca="1" ref="X45" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y45" t="e" cm="1">
+        <v>36</v>
+      </c>
+      <c r="Y45" cm="1">
         <f t="array" aca="1" ref="Y45" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X46" t="e" cm="1">
+        <v>0.3</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>125</v>
+      </c>
+      <c r="I46">
+        <v>80</v>
+      </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>65</v>
+      </c>
+      <c r="L46">
+        <v>95</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>30</v>
+      </c>
+      <c r="O46">
+        <v>50</v>
+      </c>
+      <c r="P46">
+        <v>30</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>200</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46" t="s">
+        <v>153</v>
+      </c>
+      <c r="X46" cm="1">
         <f t="array" aca="1" ref="X46" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y46" t="e" cm="1">
+        <v>45</v>
+      </c>
+      <c r="Y46" cm="1">
         <f t="array" aca="1" ref="Y46" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X47" t="e" cm="1">
+        <v>0.6</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>125</v>
+      </c>
+      <c r="I47">
+        <v>55</v>
+      </c>
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>40</v>
+      </c>
+      <c r="L47">
+        <v>75</v>
+      </c>
+      <c r="M47">
+        <v>55</v>
+      </c>
+      <c r="N47">
+        <v>35</v>
+      </c>
+      <c r="O47">
+        <v>33</v>
+      </c>
+      <c r="P47">
+        <v>36</v>
+      </c>
+      <c r="Q47">
+        <v>11</v>
+      </c>
+      <c r="R47">
+        <v>200</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47" t="s">
+        <v>153</v>
+      </c>
+      <c r="X47" cm="1">
         <f t="array" aca="1" ref="X47" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y47" t="e" cm="1">
+        <v>45</v>
+      </c>
+      <c r="Y47" cm="1">
         <f t="array" aca="1" ref="Y47" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="24:25" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X48" t="e" cm="1">
         <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
         <v>#N/A</v>
@@ -7497,8 +9237,31 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="51" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X51" t="e" cm="1">
+        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e" cm="1">
+        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X52" t="e" cm="1">
+        <f t="array" aca="1" ref="X52" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" t="e" cm="1">
+        <f t="array" aca="1" ref="Y52" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7508,7 +9271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7539,100 +9302,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7641,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>145</v>
@@ -7653,7 +9416,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2">
         <v>80</v>
@@ -7662,7 +9425,7 @@
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2">
         <v>200</v>
@@ -7671,7 +9434,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2">
         <v>200</v>
@@ -7686,10 +9449,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7700,24 +9463,21 @@
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7738,7 +9498,7 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -7747,7 +9507,7 @@
         <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3">
         <v>200</v>
@@ -7756,7 +9516,7 @@
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3">
         <v>200</v>
@@ -7771,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7785,18 +9545,18 @@
         <v>0.6</v>
       </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>42000</v>
@@ -7808,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>145</v>
@@ -7820,7 +9580,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4">
         <v>125</v>
@@ -7829,7 +9589,7 @@
         <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4">
         <v>200</v>
@@ -7838,7 +9598,7 @@
         <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4">
         <v>200</v>
@@ -7853,10 +9613,10 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7867,18 +9627,18 @@
         <v>0.6</v>
       </c>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>46000</v>
@@ -7890,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -7938,7 +9698,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -7949,18 +9709,18 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>57000</v>
@@ -8020,7 +9780,7 @@
         <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8031,18 +9791,18 @@
         <v>0.7</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>43000</v>
@@ -8054,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>130</v>
@@ -8102,7 +9862,7 @@
         <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8113,18 +9873,18 @@
         <v>0.7</v>
       </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>62000</v>
@@ -8136,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8">
         <v>150</v>
@@ -8148,7 +9908,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8">
         <v>115</v>
@@ -8157,7 +9917,7 @@
         <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8">
         <v>200</v>
@@ -8166,7 +9926,7 @@
         <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R8">
         <v>200</v>
@@ -8181,10 +9941,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8195,18 +9955,18 @@
         <v>1</v>
       </c>
       <c r="Z8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>52000</v>
@@ -8218,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9">
         <v>145</v>
@@ -8230,7 +9990,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9">
         <v>150</v>
@@ -8239,7 +9999,7 @@
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9">
         <v>200</v>
@@ -8248,7 +10008,7 @@
         <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9">
         <v>200</v>
@@ -8263,10 +10023,10 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8277,18 +10037,18 @@
         <v>0.8</v>
       </c>
       <c r="Z9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>47500</v>
@@ -8300,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>145</v>
@@ -8312,7 +10072,7 @@
         <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10">
         <v>115</v>
@@ -8321,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <v>200</v>
@@ -8330,7 +10090,7 @@
         <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10">
         <v>200</v>
@@ -8345,10 +10105,10 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8359,18 +10119,18 @@
         <v>0.6</v>
       </c>
       <c r="Z10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>51000</v>
@@ -8382,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>145</v>
@@ -8394,7 +10154,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11">
         <v>135</v>
@@ -8403,7 +10163,7 @@
         <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11">
         <v>200</v>
@@ -8412,7 +10172,7 @@
         <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11">
         <v>200</v>
@@ -8427,10 +10187,10 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8441,18 +10201,18 @@
         <v>0.8</v>
       </c>
       <c r="Z11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>4400</v>
@@ -8464,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>145</v>
@@ -8476,7 +10236,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12">
         <v>110</v>
@@ -8485,7 +10245,7 @@
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12">
         <v>200</v>
@@ -8494,7 +10254,7 @@
         <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12">
         <v>200</v>
@@ -8509,10 +10269,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8523,18 +10283,18 @@
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -8546,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13">
         <v>150</v>
@@ -8558,7 +10318,7 @@
         <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13">
         <v>130</v>
@@ -8567,7 +10327,7 @@
         <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O13">
         <v>200</v>
@@ -8576,7 +10336,7 @@
         <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R13">
         <v>200</v>
@@ -8591,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
@@ -8605,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -8791,129 +10551,135 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
     <col min="28" max="28" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -8934,7 +10700,7 @@
         <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2">
         <v>80</v>
@@ -8943,7 +10709,7 @@
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -8952,7 +10718,7 @@
         <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2">
         <v>30</v>
@@ -8967,10 +10733,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -8985,18 +10751,18 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>30000</v>
@@ -9020,7 +10786,7 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3">
         <v>75</v>
@@ -9029,7 +10795,7 @@
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3">
         <v>12</v>
@@ -9038,7 +10804,7 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3">
         <v>30</v>
@@ -9053,10 +10819,10 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9071,18 +10837,18 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>21000</v>
@@ -9106,7 +10872,7 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4">
         <v>95</v>
@@ -9115,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4">
         <v>15</v>
@@ -9124,7 +10890,7 @@
         <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4">
         <v>30</v>
@@ -9139,10 +10905,10 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9157,21 +10923,21 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>28000</v>
@@ -9195,7 +10961,7 @@
         <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5">
         <v>110</v>
@@ -9204,7 +10970,7 @@
         <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5">
         <v>18</v>
@@ -9213,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5">
         <v>30</v>
@@ -9228,10 +10994,10 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9246,21 +11012,21 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>30000</v>
@@ -9284,7 +11050,7 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -9293,7 +11059,7 @@
         <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6">
         <v>20</v>
@@ -9302,7 +11068,7 @@
         <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R6">
         <v>30</v>
@@ -9317,10 +11083,10 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9335,21 +11101,21 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>51000</v>
@@ -9373,7 +11139,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7">
         <v>80</v>
@@ -9382,7 +11148,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7">
         <v>15</v>
@@ -9391,7 +11157,7 @@
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R7">
         <v>30</v>
@@ -9406,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9424,21 +11190,21 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>40000</v>
@@ -9498,7 +11264,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9513,21 +11279,21 @@
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>32000</v>
@@ -9587,7 +11353,7 @@
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9602,21 +11368,21 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B10">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>43000</v>
@@ -9676,7 +11442,7 @@
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),2)</f>
@@ -9691,26 +11457,718 @@
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0094531B-7BBB-4DD3-8835-99962592A6C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>200</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>50000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>200</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y3" cm="1">
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4">
+        <v>56500</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>200</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>15</v>
+      </c>
+      <c r="W4" t="s">
+        <v>224</v>
+      </c>
+      <c r="X4" cm="1">
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>49</v>
+      </c>
+      <c r="Y4" cm="1">
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>65000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>145</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>15</v>
+      </c>
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" cm="1">
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y5" cm="1">
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6">
+        <v>53000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>200</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" cm="1">
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y6" cm="1">
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <v>54000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>200</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" cm="1">
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y7" cm="1">
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8">
+        <v>49000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>200</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>15</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" cm="1">
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>36</v>
+      </c>
+      <c r="Y8" cm="1">
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CD483-66FF-4688-B110-B649F3E108BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39110B3B-82BB-48DA-80E2-F29EA7E6FFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     <sheet name="LMGs" sheetId="7" r:id="rId7"/>
     <sheet name="Explosives" sheetId="8" r:id="rId8"/>
     <sheet name="Other" sheetId="9" r:id="rId9"/>
+    <sheet name="Armor" sheetId="10" r:id="rId10"/>
+    <sheet name="Units" sheetId="11" r:id="rId11"/>
+    <sheet name="Enemy Weapons" sheetId="12" r:id="rId12"/>
+    <sheet name="Missions" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,6 +45,54 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ethan McLaughlin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C9B7DDB6-8D77-48F2-B62C-4C122D4443D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data on this page needs to be verified</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ethan McLaughlin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{92CD7A6C-E2FA-4A7C-B424-00C3C141C859}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data on this page needs to be verified</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="447">
   <si>
     <t>Name</t>
   </si>
@@ -744,13 +796,742 @@
   </si>
   <si>
     <t>Negev</t>
+  </si>
+  <si>
+    <t>M320</t>
+  </si>
+  <si>
+    <t>Smoke + NL</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>[1,3,6]</t>
+  </si>
+  <si>
+    <t>Smoke + NL (1x)</t>
+  </si>
+  <si>
+    <t>GM 94</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>HE Rocket</t>
+  </si>
+  <si>
+    <t>Carl Gustaf</t>
+  </si>
+  <si>
+    <t>RPG 7</t>
+  </si>
+  <si>
+    <t>RPG 29</t>
+  </si>
+  <si>
+    <t>Thermo Rocket</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Hazard
+Resistance</t>
+  </si>
+  <si>
+    <t>Explosion
+Resistance</t>
+  </si>
+  <si>
+    <t>DayCamo
+NightCamo</t>
+  </si>
+  <si>
+    <t>DayVision
+NightVision</t>
+  </si>
+  <si>
+    <t>AntiDayCamo
+AntiNightCamo</t>
+  </si>
+  <si>
+    <t>HeatVision</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>Bravery</t>
+  </si>
+  <si>
+    <t>Firing</t>
+  </si>
+  <si>
+    <t>Strenght</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>0
+0</t>
+  </si>
+  <si>
+    <t>30
+9</t>
+  </si>
+  <si>
+    <t>Default Backpack</t>
+  </si>
+  <si>
+    <t>Default Kevlar</t>
+  </si>
+  <si>
+    <t>Default Kevlar Backpack</t>
+  </si>
+  <si>
+    <t>Default Kevlar NV</t>
+  </si>
+  <si>
+    <t>30
+18</t>
+  </si>
+  <si>
+    <t>Default Kevlar Backpack NV</t>
+  </si>
+  <si>
+    <t>Default Kevlar ADVNV</t>
+  </si>
+  <si>
+    <t>30
+25</t>
+  </si>
+  <si>
+    <t>25
+30</t>
+  </si>
+  <si>
+    <t>Default Kevlar Backpack ADVNV</t>
+  </si>
+  <si>
+    <t>Camo</t>
+  </si>
+  <si>
+    <t>8
+4</t>
+  </si>
+  <si>
+    <t>Camo Backpack</t>
+  </si>
+  <si>
+    <t>Camo Kevlar</t>
+  </si>
+  <si>
+    <t>Camo Kevlar Backpack</t>
+  </si>
+  <si>
+    <t>Camo Kevlar NV</t>
+  </si>
+  <si>
+    <t>Camo Kevlar Backpack NV</t>
+  </si>
+  <si>
+    <t>Camo Kevlar ADVNV</t>
+  </si>
+  <si>
+    <t>Camo Kevlar Backpack ADVNV</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>26
+5</t>
+  </si>
+  <si>
+    <t>Gas Backpack</t>
+  </si>
+  <si>
+    <t>Gas Kevlar</t>
+  </si>
+  <si>
+    <t>Gas Kevlar Backpack</t>
+  </si>
+  <si>
+    <t>Gas Kevlar NV</t>
+  </si>
+  <si>
+    <t>26
+18</t>
+  </si>
+  <si>
+    <t>Gas Kevlar Backpack NV</t>
+  </si>
+  <si>
+    <t>Gas Kevlar ADVNV</t>
+  </si>
+  <si>
+    <t>26
+25</t>
+  </si>
+  <si>
+    <t>Gas Kevlar Backpack ADVNV</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Heavy NV</t>
+  </si>
+  <si>
+    <t>Heavy ADVNV</t>
+  </si>
+  <si>
+    <t>EOD</t>
+  </si>
+  <si>
+    <t>Default Kevlar Riot</t>
+  </si>
+  <si>
+    <t>Default Kevlar Riot Backpack</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>70-80
+100</t>
+  </si>
+  <si>
+    <t>60-80
+110</t>
+  </si>
+  <si>
+    <t>40-50
+60</t>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Reactions</t>
+  </si>
+  <si>
+    <t>Throwing</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Point Value</t>
+  </si>
+  <si>
+    <t>Aggression
+Intelligence</t>
+  </si>
+  <si>
+    <t>Spotter
+Sniper</t>
+  </si>
+  <si>
+    <t>Recruit Cost</t>
+  </si>
+  <si>
+    <t>Salary
++ Per Rank</t>
+  </si>
+  <si>
+    <t>60-70
+100</t>
+  </si>
+  <si>
+    <t>50-70
+100</t>
+  </si>
+  <si>
+    <t>70-80
+110</t>
+  </si>
+  <si>
+    <t>60-70
+80</t>
+  </si>
+  <si>
+    <t>55-65
+120</t>
+  </si>
+  <si>
+    <t>100000
++ 10000</t>
+  </si>
+  <si>
+    <t>1
+3</t>
+  </si>
+  <si>
+    <t>3
+1</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>1
+2</t>
+  </si>
+  <si>
+    <t>Rifleman</t>
+  </si>
+  <si>
+    <t>1
+1</t>
+  </si>
+  <si>
+    <t>Raider</t>
+  </si>
+  <si>
+    <t>2
+1</t>
+  </si>
+  <si>
+    <t>Grunt</t>
+  </si>
+  <si>
+    <t>0
+1</t>
+  </si>
+  <si>
+    <t>Grenadier</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>0
+2</t>
+  </si>
+  <si>
+    <t>2
+3</t>
+  </si>
+  <si>
+    <t>1
+5</t>
+  </si>
+  <si>
+    <t>5
+3</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>3
+0</t>
+  </si>
+  <si>
+    <t>3
+2</t>
+  </si>
+  <si>
+    <t>0
+5</t>
+  </si>
+  <si>
+    <t>3
+5</t>
+  </si>
+  <si>
+    <t>Faction</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>European/American
+Generic</t>
+  </si>
+  <si>
+    <t>Private Security</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>AK-12</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>Vest (30)</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>FN SCAR</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>M4 Carbine</t>
+  </si>
+  <si>
+    <t>Origin-12</t>
+  </si>
+  <si>
+    <t>AK-74</t>
+  </si>
+  <si>
+    <t>TEC-9</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>AK-74 (1 Grenade)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None
+</t>
+  </si>
+  <si>
+    <t>AR-18</t>
+  </si>
+  <si>
+    <t>AR-180</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Skorpion (1 Grenade)</t>
+  </si>
+  <si>
+    <t>TEC-9 (1 Grenade)</t>
+  </si>
+  <si>
+    <t>Terrorist 1</t>
+  </si>
+  <si>
+    <t>Makarov (2 Grenades)</t>
+  </si>
+  <si>
+    <t>RPG-7</t>
+  </si>
+  <si>
+    <t>RPG-7 (2 Rockets)</t>
+  </si>
+  <si>
+    <t>M1911 (2 Grenades)</t>
+  </si>
+  <si>
+    <t>M1911 (1 High-ex)</t>
+  </si>
+  <si>
+    <t>Milkor MGL</t>
+  </si>
+  <si>
+    <t>Terrorist 2</t>
+  </si>
+  <si>
+    <t>FN FAL (scoped)</t>
+  </si>
+  <si>
+    <t>M82 Barrett</t>
+  </si>
+  <si>
+    <t>AK-15</t>
+  </si>
+  <si>
+    <t>M4A1 SOPMOD</t>
+  </si>
+  <si>
+    <t>Ballistic Shield + SR-3 Vikhr</t>
+  </si>
+  <si>
+    <t>Ballistic Shield + Five-seveN</t>
+  </si>
+  <si>
+    <t>Ballistic Shield + MK 23</t>
+  </si>
+  <si>
+    <t>Heavy Vest (40)</t>
+  </si>
+  <si>
+    <t>FN P90</t>
+  </si>
+  <si>
+    <t>SIG MPX</t>
+  </si>
+  <si>
+    <t>Pecheneg</t>
+  </si>
+  <si>
+    <t>MK48</t>
+  </si>
+  <si>
+    <t>AIAW</t>
+  </si>
+  <si>
+    <t>Width
+Lenght</t>
+  </si>
+  <si>
+    <t>Civilians</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Commanders
+0</t>
+  </si>
+  <si>
+    <t>Leaders
+1</t>
+  </si>
+  <si>
+    <t>SAW/Shields
+2</t>
+  </si>
+  <si>
+    <t>Riflemen
+3</t>
+  </si>
+  <si>
+    <t>Raider/Heavies
+4</t>
+  </si>
+  <si>
+    <t>Grunts
+5</t>
+  </si>
+  <si>
+    <t>Grenadier/SAWs
+6</t>
+  </si>
+  <si>
+    <t>Snipers
+7</t>
+  </si>
+  <si>
+    <t>Allowed
+Craft</t>
+  </si>
+  <si>
+    <t>Duration Min
+Duration Max</t>
+  </si>
+  <si>
+    <t>DespawnPenalty
+AbortPenalty</t>
+  </si>
+  <si>
+    <t>KeepCraft</t>
+  </si>
+  <si>
+    <t>Terrorist Attack</t>
+  </si>
+  <si>
+    <t>30
+30</t>
+  </si>
+  <si>
+    <t>Terrorist</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>24
+48</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Plane Hijacking</t>
+  </si>
+  <si>
+    <t>Small
+Medium</t>
+  </si>
+  <si>
+    <t>House Raid</t>
+  </si>
+  <si>
+    <t>360
+720</t>
+  </si>
+  <si>
+    <t>100
+50</t>
+  </si>
+  <si>
+    <t>Major Attack</t>
+  </si>
+  <si>
+    <t>60
+60</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>700
+400</t>
+  </si>
+  <si>
+    <t>Hostage Situation</t>
+  </si>
+  <si>
+    <t>Major Hideout Raid</t>
+  </si>
+  <si>
+    <t>50
+50</t>
+  </si>
+  <si>
+    <t>200
+100</t>
+  </si>
+  <si>
+    <t>Office Raid</t>
+  </si>
+  <si>
+    <t>Private
+Security</t>
+  </si>
+  <si>
+    <t>25
+50</t>
+  </si>
+  <si>
+    <t>Sky Scraper Raid</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>0
+500</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>8-12</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +1547,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +1604,98 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -879,11 +1763,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -905,11 +1878,185 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
@@ -943,35 +2090,17 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -994,10 +2123,35 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1005,6 +2159,31 @@
           <color theme="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1352,7 +2531,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I9" totalsRowShown="0" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I9" totalsRowShown="0" tableBorderDxfId="45">
   <autoFilter ref="B1:I9" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{085F0113-80A5-4D7F-B00C-4888CB135866}" name="Name"/>
@@ -1369,7 +2548,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B36A2CF-DAA4-4B61-B862-8F0D47D69557}" name="Table3" displayName="Table3" ref="A1:AA14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B36A2CF-DAA4-4B61-B862-8F0D47D69557}" name="Table3" displayName="Table3" ref="A1:AA14" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:AA14" xr:uid="{7B36A2CF-DAA4-4B61-B862-8F0D47D69557}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA8">
     <sortCondition ref="M1:M14"/>
@@ -1407,17 +2586,53 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1905360-5683-445F-9462-84BE18993171}" name="Table4" displayName="Table4" ref="A1:AA16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:AA16" xr:uid="{B1905360-5683-445F-9462-84BE18993171}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{97A5C511-EF1D-4C4C-9606-80A9E8EBCC5F}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{412BE7BC-0513-4A48-A527-FD26BD1702B3}" name="weight"/>
+    <tableColumn id="3" xr3:uid="{7C5FE17A-2477-4D29-8713-3B0AFB7A181F}" name="size"/>
+    <tableColumn id="4" xr3:uid="{C32F81E8-CA36-4A43-B512-8DAF8CB5AA0F}" name="Cost"/>
+    <tableColumn id="5" xr3:uid="{D3D26292-5D77-4690-8A16-8998D6A6599D}" name="two handed"/>
+    <tableColumn id="6" xr3:uid="{312BABF5-340C-4E06-B3D0-B68BF602631D}" name="Block both hands"/>
+    <tableColumn id="7" xr3:uid="{9B506AEA-C97C-40AD-8EC5-2D3E17DFA786}" name="One hand pen."/>
+    <tableColumn id="8" xr3:uid="{E5FEA340-C7FF-49B3-A5EF-5E345F2823A4}" name="kneel bonus"/>
+    <tableColumn id="9" xr3:uid="{8A9D0B83-7D6F-4833-AB9F-D6E96964D4C8}" name="tuAimed"/>
+    <tableColumn id="10" xr3:uid="{0DD7F115-1AAB-42CB-9A3B-F350B070EAEE}" name="tuSnap"/>
+    <tableColumn id="11" xr3:uid="{9939261A-22C4-442D-AF6D-930273EB0950}" name="tuAuto"/>
+    <tableColumn id="12" xr3:uid="{70768873-E9CB-4A7D-BBD4-3E09E71F772B}" name="accAimed"/>
+    <tableColumn id="13" xr3:uid="{814BC88A-D906-45BA-8E1E-7C6C46FC82EF}" name="accSnap"/>
+    <tableColumn id="14" xr3:uid="{6EC57AA5-45AB-4D95-B7DD-34CFB7A19B7A}" name="accAuto"/>
+    <tableColumn id="15" xr3:uid="{884C4054-3129-4463-B07F-ED6386427C41}" name="rangeAimed"/>
+    <tableColumn id="16" xr3:uid="{53878A00-66F5-4525-B769-2CAC370504CA}" name="rangeSnap"/>
+    <tableColumn id="17" xr3:uid="{B08FFE64-6EB3-4993-8456-991677C4F518}" name="rangeAuto"/>
+    <tableColumn id="18" xr3:uid="{3304F2D6-FF61-46F3-AB0A-4B9399BAEEA7}" name="maxRange"/>
+    <tableColumn id="19" xr3:uid="{E7CFF68E-BD1C-46F6-BEC8-323E179B42BC}" name="minRange"/>
+    <tableColumn id="20" xr3:uid="{A3E9F95C-202A-4228-9E3F-857ADCE3E01D}" name="Aimed shots"/>
+    <tableColumn id="21" xr3:uid="{CA315C22-A448-4BB2-957C-3B390EB5524F}" name="snap shots"/>
+    <tableColumn id="22" xr3:uid="{BE14DF6C-A31C-437D-8669-699B91661BEC}" name="auto shots"/>
+    <tableColumn id="23" xr3:uid="{A62009E5-46F3-4660-B077-1CAE8AC97C20}" name="Caliber"/>
+    <tableColumn id="24" xr3:uid="{26CD8927-B537-4B1E-B59C-A7541B875CD4}" name="Power"/>
+    <tableColumn id="25" xr3:uid="{C938A46F-0735-449B-A20E-DC3ED029560B}" name="toArmorPre"/>
+    <tableColumn id="26" xr3:uid="{9771B0EC-9D32-4C83-ACBA-C25710FEFFC6}" name="Mag sizes"/>
+    <tableColumn id="27" xr3:uid="{C84AE4EC-406B-426D-B069-C2AD714022B4}" name="Notes:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="B10:I21" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8C7ABBF-D256-4E65-A96F-CB8C79043F13}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{6F94617E-67C4-4EE4-88D3-DA4C753F2C56}" name="ToArmorPre" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{BFDDC758-6F1C-48F7-8405-A15BF0B90AF2}" name="Random type" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{67A4C730-EDD9-4A66-97EA-20DDCDFB8A06}" name="Damage type" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{A5943E48-6156-40FE-9E02-94A8AF26B1C5}" name="." dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{561ED3C3-4246-4048-9EB4-F907BD6574C1}" name=".." dataDxfId="37"/>
     <tableColumn id="8" xr3:uid="{1B8F2AD9-79AF-4A58-B2C3-7503CA0BAC64}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1425,16 +2640,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="B22:I28" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{2B3D43FA-8363-4A7A-AE89-1312A4387C80}" name="Pellets" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{A0B3C6B1-1D75-44B4-9711-4F4A79B0FE38}" name="SG Spread"/>
-    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{C82155F3-0B3C-48C3-BFD1-E5B4C3B8557A}" name="ToArmorPre" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C97FE6D6-3C14-44AC-9381-2505E342DBEE}" name="Random type" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{661E259C-C3CC-460C-A23A-EB5CBF360C67}" name="Damage type" dataDxfId="29"/>
     <tableColumn id="8" xr3:uid="{AF6E3851-1CCB-488C-8934-795320B1A1F1}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1442,16 +2657,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B29:I40" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{D80CA1F1-6F5B-438C-AA3F-65F88997D35D}" name="ToArmorPre"/>
-    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BDDADA10-5139-489B-9BAC-469FFB74E0C6}" name="Radius" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{F4A64B16-FE69-4E3C-AE65-09D658999090}" name="RandomType" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{62DACDE5-130B-434A-AC49-C48049F90C30}" name="DamageType" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{C4DE3DB4-AE74-47C5-ACC8-1EECB716C17C}" name="." dataDxfId="21"/>
     <tableColumn id="8" xr3:uid="{F0BC5AFB-6639-4CF1-9407-26249096B7E5}" name="Notes:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1459,7 +2674,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="20">
   <autoFilter ref="A1:Z35" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z19">
     <sortCondition ref="D1:D35"/>
@@ -1497,7 +2712,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:Z14" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{5824021B-BC67-48E1-A206-55414C872ECA}" name="Name"/>
@@ -1522,8 +2737,8 @@
     <tableColumn id="20" xr3:uid="{62531363-BA92-4A8A-8AB6-B4087814EBB2}" name="snap shots"/>
     <tableColumn id="21" xr3:uid="{1C0B92DE-F808-4696-97D4-2E3861F73657}" name="auto shots"/>
     <tableColumn id="22" xr3:uid="{10804940-615D-4A24-A109-59207CE64CD5}" name="Caliber"/>
-    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{CD7EC796-73A5-434D-961C-405820EB8034}" name="Power" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{CBDDB6F9-1C23-428F-BFEB-AB8BAFF05B92}" name="toArmorPre" dataDxfId="15"/>
     <tableColumn id="25" xr3:uid="{0D2C2452-A089-4C8F-9B64-2CF44E06A30B}" name="Mag sizes"/>
     <tableColumn id="26" xr3:uid="{3A0725D0-4815-4E95-A3DF-3F1773EA189E}" name="Notes:"/>
   </tableColumns>
@@ -1532,7 +2747,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA47" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA47" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:AA47" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{EA086EA1-B04D-408A-83CB-62AACD4983EB}" name="Name"/>
@@ -1604,7 +2819,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}" name="Table1" displayName="Table1" ref="A1:AB10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}" name="Table1" displayName="Table1" ref="A1:AB10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:AB10" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{FDEE9766-F3A6-4F13-BA12-421285A2A455}" name="Name"/>
@@ -1939,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,6 +4493,3817 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABADE2C-4009-4AB7-BED9-B450B00DFD85}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="27">
+        <v>4</v>
+      </c>
+      <c r="C3" s="27">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27">
+        <v>4</v>
+      </c>
+      <c r="E3" s="27">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="33">
+        <v>4</v>
+      </c>
+      <c r="C4" s="33">
+        <v>4</v>
+      </c>
+      <c r="D4" s="33">
+        <v>4</v>
+      </c>
+      <c r="E4" s="33">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23">
+        <v>-5</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="26">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="33">
+        <v>1</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="27">
+        <v>30</v>
+      </c>
+      <c r="C5" s="27">
+        <v>10</v>
+      </c>
+      <c r="D5" s="27">
+        <v>30</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G5" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H5" s="24">
+        <v>10</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="33">
+        <v>30</v>
+      </c>
+      <c r="C6" s="33">
+        <v>10</v>
+      </c>
+      <c r="D6" s="33">
+        <v>30</v>
+      </c>
+      <c r="E6" s="33">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G6" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H6" s="24">
+        <v>10</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K6" s="33">
+        <v>1</v>
+      </c>
+      <c r="L6" s="33">
+        <v>1</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="27">
+        <v>30</v>
+      </c>
+      <c r="C7" s="27">
+        <v>10</v>
+      </c>
+      <c r="D7" s="27">
+        <v>30</v>
+      </c>
+      <c r="E7" s="27">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G7" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H7" s="24">
+        <v>10</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="33">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33">
+        <v>10</v>
+      </c>
+      <c r="D8" s="33">
+        <v>30</v>
+      </c>
+      <c r="E8" s="33">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G8" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H8" s="24">
+        <v>10</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K8" s="33">
+        <v>1</v>
+      </c>
+      <c r="L8" s="33">
+        <v>1</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="27">
+        <v>30</v>
+      </c>
+      <c r="C9" s="27">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27">
+        <v>30</v>
+      </c>
+      <c r="E9" s="27">
+        <v>4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G9" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H9" s="24">
+        <v>10</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="33">
+        <v>30</v>
+      </c>
+      <c r="C10" s="33">
+        <v>10</v>
+      </c>
+      <c r="D10" s="33">
+        <v>30</v>
+      </c>
+      <c r="E10" s="33">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H10" s="24">
+        <v>10</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K10" s="33">
+        <v>1</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="33">
+        <v>35</v>
+      </c>
+      <c r="C11" s="33">
+        <v>15</v>
+      </c>
+      <c r="D11" s="33">
+        <v>30</v>
+      </c>
+      <c r="E11" s="33">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>-10</v>
+      </c>
+      <c r="G11" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H11" s="24">
+        <v>15</v>
+      </c>
+      <c r="I11" s="31">
+        <v>-3</v>
+      </c>
+      <c r="J11" s="26">
+        <v>-14</v>
+      </c>
+      <c r="K11" s="33">
+        <v>1</v>
+      </c>
+      <c r="L11" s="33">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="33">
+        <v>35</v>
+      </c>
+      <c r="C12" s="33">
+        <v>15</v>
+      </c>
+      <c r="D12" s="33">
+        <v>30</v>
+      </c>
+      <c r="E12" s="33">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22">
+        <v>-14</v>
+      </c>
+      <c r="G12" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H12" s="24">
+        <v>15</v>
+      </c>
+      <c r="I12" s="31">
+        <v>-3</v>
+      </c>
+      <c r="J12" s="26">
+        <v>-17</v>
+      </c>
+      <c r="K12" s="33">
+        <v>1</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="27">
+        <v>4</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="27">
+        <v>4</v>
+      </c>
+      <c r="E13" s="27">
+        <v>4</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
+      <c r="L13" s="27">
+        <v>1</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="33">
+        <v>4</v>
+      </c>
+      <c r="C14" s="33">
+        <v>4</v>
+      </c>
+      <c r="D14" s="33">
+        <v>4</v>
+      </c>
+      <c r="E14" s="33">
+        <v>4</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="23">
+        <v>-5</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="26">
+        <v>-2</v>
+      </c>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="33">
+        <v>1</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="27">
+        <v>30</v>
+      </c>
+      <c r="C15" s="27">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27">
+        <v>30</v>
+      </c>
+      <c r="E15" s="27">
+        <v>4</v>
+      </c>
+      <c r="F15" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G15" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H15" s="24">
+        <v>10</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K15" s="27">
+        <v>1</v>
+      </c>
+      <c r="L15" s="27">
+        <v>1</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="33">
+        <v>30</v>
+      </c>
+      <c r="C16" s="33">
+        <v>10</v>
+      </c>
+      <c r="D16" s="33">
+        <v>30</v>
+      </c>
+      <c r="E16" s="33">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G16" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H16" s="24">
+        <v>10</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K16" s="33">
+        <v>1</v>
+      </c>
+      <c r="L16" s="33">
+        <v>1</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="27">
+        <v>30</v>
+      </c>
+      <c r="C17" s="27">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27">
+        <v>30</v>
+      </c>
+      <c r="E17" s="27">
+        <v>4</v>
+      </c>
+      <c r="F17" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G17" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H17" s="24">
+        <v>10</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1</v>
+      </c>
+      <c r="L17" s="27">
+        <v>1</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="33">
+        <v>30</v>
+      </c>
+      <c r="C18" s="33">
+        <v>10</v>
+      </c>
+      <c r="D18" s="33">
+        <v>30</v>
+      </c>
+      <c r="E18" s="33">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H18" s="24">
+        <v>10</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K18" s="33">
+        <v>1</v>
+      </c>
+      <c r="L18" s="33">
+        <v>1</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="27">
+        <v>30</v>
+      </c>
+      <c r="C19" s="27">
+        <v>10</v>
+      </c>
+      <c r="D19" s="27">
+        <v>30</v>
+      </c>
+      <c r="E19" s="27">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G19" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H19" s="24">
+        <v>10</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K19" s="27">
+        <v>1</v>
+      </c>
+      <c r="L19" s="27">
+        <v>1</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="P19" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="33">
+        <v>30</v>
+      </c>
+      <c r="C20" s="33">
+        <v>10</v>
+      </c>
+      <c r="D20" s="33">
+        <v>30</v>
+      </c>
+      <c r="E20" s="33">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G20" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H20" s="24">
+        <v>10</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K20" s="33">
+        <v>1</v>
+      </c>
+      <c r="L20" s="33">
+        <v>1</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="27">
+        <v>4</v>
+      </c>
+      <c r="C21" s="27">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27">
+        <v>4</v>
+      </c>
+      <c r="E21" s="27">
+        <v>4</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="27">
+        <v>0</v>
+      </c>
+      <c r="L21" s="27">
+        <v>1</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="33">
+        <v>4</v>
+      </c>
+      <c r="C22" s="33">
+        <v>4</v>
+      </c>
+      <c r="D22" s="33">
+        <v>4</v>
+      </c>
+      <c r="E22" s="33">
+        <v>4</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23">
+        <v>-5</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J22" s="26">
+        <v>-2</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="27">
+        <v>30</v>
+      </c>
+      <c r="C23" s="27">
+        <v>10</v>
+      </c>
+      <c r="D23" s="27">
+        <v>30</v>
+      </c>
+      <c r="E23" s="27">
+        <v>4</v>
+      </c>
+      <c r="F23" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G23" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H23" s="24">
+        <v>10</v>
+      </c>
+      <c r="I23" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J23" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K23" s="27">
+        <v>0</v>
+      </c>
+      <c r="L23" s="27">
+        <v>1</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="33">
+        <v>30</v>
+      </c>
+      <c r="C24" s="33">
+        <v>10</v>
+      </c>
+      <c r="D24" s="33">
+        <v>30</v>
+      </c>
+      <c r="E24" s="33">
+        <v>4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G24" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H24" s="24">
+        <v>10</v>
+      </c>
+      <c r="I24" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J24" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>1</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="27">
+        <v>30</v>
+      </c>
+      <c r="C25" s="27">
+        <v>10</v>
+      </c>
+      <c r="D25" s="27">
+        <v>30</v>
+      </c>
+      <c r="E25" s="27">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G25" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H25" s="24">
+        <v>10</v>
+      </c>
+      <c r="I25" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J25" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K25" s="27">
+        <v>0</v>
+      </c>
+      <c r="L25" s="27">
+        <v>1</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="33">
+        <v>30</v>
+      </c>
+      <c r="C26" s="33">
+        <v>10</v>
+      </c>
+      <c r="D26" s="33">
+        <v>30</v>
+      </c>
+      <c r="E26" s="33">
+        <v>4</v>
+      </c>
+      <c r="F26" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G26" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="24">
+        <v>10</v>
+      </c>
+      <c r="I26" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J26" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>1</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="27">
+        <v>30</v>
+      </c>
+      <c r="C27" s="27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="27">
+        <v>30</v>
+      </c>
+      <c r="E27" s="27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G27" s="23">
+        <v>-15</v>
+      </c>
+      <c r="H27" s="24">
+        <v>10</v>
+      </c>
+      <c r="I27" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J27" s="26">
+        <v>-10</v>
+      </c>
+      <c r="K27" s="27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="P27" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="33">
+        <v>30</v>
+      </c>
+      <c r="C28" s="33">
+        <v>10</v>
+      </c>
+      <c r="D28" s="33">
+        <v>30</v>
+      </c>
+      <c r="E28" s="33">
+        <v>4</v>
+      </c>
+      <c r="F28" s="22">
+        <v>-5</v>
+      </c>
+      <c r="G28" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H28" s="24">
+        <v>10</v>
+      </c>
+      <c r="I28" s="25">
+        <v>-6</v>
+      </c>
+      <c r="J28" s="26">
+        <v>-12</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <v>1</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="27">
+        <v>40</v>
+      </c>
+      <c r="C29" s="27">
+        <v>20</v>
+      </c>
+      <c r="D29" s="27">
+        <v>40</v>
+      </c>
+      <c r="E29" s="27">
+        <v>4</v>
+      </c>
+      <c r="F29" s="22">
+        <v>-10</v>
+      </c>
+      <c r="G29" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H29" s="24">
+        <v>20</v>
+      </c>
+      <c r="I29" s="25">
+        <v>-5</v>
+      </c>
+      <c r="J29" s="26">
+        <v>-15</v>
+      </c>
+      <c r="K29" s="27">
+        <v>1</v>
+      </c>
+      <c r="L29" s="27">
+        <v>1</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="33">
+        <v>40</v>
+      </c>
+      <c r="C30" s="33">
+        <v>20</v>
+      </c>
+      <c r="D30" s="33">
+        <v>40</v>
+      </c>
+      <c r="E30" s="33">
+        <v>4</v>
+      </c>
+      <c r="F30" s="22">
+        <v>-10</v>
+      </c>
+      <c r="G30" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H30" s="24">
+        <v>20</v>
+      </c>
+      <c r="I30" s="25">
+        <v>-5</v>
+      </c>
+      <c r="J30" s="26">
+        <v>-15</v>
+      </c>
+      <c r="K30" s="33">
+        <v>1</v>
+      </c>
+      <c r="L30" s="33">
+        <v>1</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="27">
+        <v>40</v>
+      </c>
+      <c r="C31" s="27">
+        <v>20</v>
+      </c>
+      <c r="D31" s="27">
+        <v>40</v>
+      </c>
+      <c r="E31" s="27">
+        <v>4</v>
+      </c>
+      <c r="F31" s="22">
+        <v>-10</v>
+      </c>
+      <c r="G31" s="23">
+        <v>-20</v>
+      </c>
+      <c r="H31" s="24">
+        <v>20</v>
+      </c>
+      <c r="I31" s="25">
+        <v>-5</v>
+      </c>
+      <c r="J31" s="26">
+        <v>-15</v>
+      </c>
+      <c r="K31" s="27">
+        <v>1</v>
+      </c>
+      <c r="L31" s="27">
+        <v>1</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="P31" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="33">
+        <v>30</v>
+      </c>
+      <c r="C32" s="33">
+        <v>25</v>
+      </c>
+      <c r="D32" s="33">
+        <v>30</v>
+      </c>
+      <c r="E32" s="33">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22">
+        <v>-20</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-30</v>
+      </c>
+      <c r="H32" s="24">
+        <v>10</v>
+      </c>
+      <c r="I32" s="25">
+        <v>-40</v>
+      </c>
+      <c r="J32" s="26">
+        <v>-20</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0</v>
+      </c>
+      <c r="L32" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="P32" s="33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C092F238-A859-4DAF-9B24-82DF047DC2BE}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" s="33">
+        <v>100</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="33">
+        <v>200000</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="22">
+        <v>80</v>
+      </c>
+      <c r="D3" s="23">
+        <v>100</v>
+      </c>
+      <c r="E3" s="40">
+        <v>45</v>
+      </c>
+      <c r="F3" s="24">
+        <v>90</v>
+      </c>
+      <c r="G3" s="41">
+        <v>65</v>
+      </c>
+      <c r="H3" s="25">
+        <v>70</v>
+      </c>
+      <c r="I3" s="42">
+        <v>55</v>
+      </c>
+      <c r="J3" s="26">
+        <v>100</v>
+      </c>
+      <c r="K3" s="43">
+        <v>70</v>
+      </c>
+      <c r="L3" s="27">
+        <v>50</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="22">
+        <v>70</v>
+      </c>
+      <c r="D4" s="23">
+        <v>100</v>
+      </c>
+      <c r="E4" s="40">
+        <v>50</v>
+      </c>
+      <c r="F4" s="24">
+        <v>90</v>
+      </c>
+      <c r="G4" s="41">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25">
+        <v>70</v>
+      </c>
+      <c r="I4" s="42">
+        <v>55</v>
+      </c>
+      <c r="J4" s="26">
+        <v>100</v>
+      </c>
+      <c r="K4" s="43">
+        <v>70</v>
+      </c>
+      <c r="L4" s="33">
+        <v>40</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="22">
+        <v>60</v>
+      </c>
+      <c r="D5" s="23">
+        <v>100</v>
+      </c>
+      <c r="E5" s="40">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24">
+        <v>50</v>
+      </c>
+      <c r="G5" s="41">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25">
+        <v>60</v>
+      </c>
+      <c r="I5" s="42">
+        <v>55</v>
+      </c>
+      <c r="J5" s="26">
+        <v>100</v>
+      </c>
+      <c r="K5" s="43">
+        <v>55</v>
+      </c>
+      <c r="L5" s="27">
+        <v>25</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="22">
+        <v>65</v>
+      </c>
+      <c r="D6" s="23">
+        <v>100</v>
+      </c>
+      <c r="E6" s="40">
+        <v>35</v>
+      </c>
+      <c r="F6" s="24">
+        <v>50</v>
+      </c>
+      <c r="G6" s="41">
+        <v>40</v>
+      </c>
+      <c r="H6" s="25">
+        <v>55</v>
+      </c>
+      <c r="I6" s="42">
+        <v>55</v>
+      </c>
+      <c r="J6" s="26">
+        <v>100</v>
+      </c>
+      <c r="K6" s="43">
+        <v>55</v>
+      </c>
+      <c r="L6" s="33">
+        <v>20</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="22">
+        <v>75</v>
+      </c>
+      <c r="D7" s="23">
+        <v>100</v>
+      </c>
+      <c r="E7" s="40">
+        <v>40</v>
+      </c>
+      <c r="F7" s="24">
+        <v>70</v>
+      </c>
+      <c r="G7" s="41">
+        <v>50</v>
+      </c>
+      <c r="H7" s="25">
+        <v>55</v>
+      </c>
+      <c r="I7" s="42">
+        <v>55</v>
+      </c>
+      <c r="J7" s="26">
+        <v>100</v>
+      </c>
+      <c r="K7" s="43">
+        <v>60</v>
+      </c>
+      <c r="L7" s="27">
+        <v>20</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="22">
+        <v>60</v>
+      </c>
+      <c r="D8" s="23">
+        <v>100</v>
+      </c>
+      <c r="E8" s="40">
+        <v>30</v>
+      </c>
+      <c r="F8" s="24">
+        <v>40</v>
+      </c>
+      <c r="G8" s="41">
+        <v>35</v>
+      </c>
+      <c r="H8" s="25">
+        <v>45</v>
+      </c>
+      <c r="I8" s="42">
+        <v>50</v>
+      </c>
+      <c r="J8" s="26">
+        <v>100</v>
+      </c>
+      <c r="K8" s="43">
+        <v>55</v>
+      </c>
+      <c r="L8" s="33">
+        <v>15</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="22">
+        <v>60</v>
+      </c>
+      <c r="D9" s="23">
+        <v>100</v>
+      </c>
+      <c r="E9" s="40">
+        <v>30</v>
+      </c>
+      <c r="F9" s="24">
+        <v>50</v>
+      </c>
+      <c r="G9" s="41">
+        <v>35</v>
+      </c>
+      <c r="H9" s="25">
+        <v>50</v>
+      </c>
+      <c r="I9" s="42">
+        <v>70</v>
+      </c>
+      <c r="J9" s="26">
+        <v>100</v>
+      </c>
+      <c r="K9" s="43">
+        <v>60</v>
+      </c>
+      <c r="L9" s="27">
+        <v>30</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="22">
+        <v>60</v>
+      </c>
+      <c r="D10" s="23">
+        <v>100</v>
+      </c>
+      <c r="E10" s="40">
+        <v>30</v>
+      </c>
+      <c r="F10" s="24">
+        <v>50</v>
+      </c>
+      <c r="G10" s="41">
+        <v>30</v>
+      </c>
+      <c r="H10" s="25">
+        <v>65</v>
+      </c>
+      <c r="I10" s="42">
+        <v>45</v>
+      </c>
+      <c r="J10" s="26">
+        <v>100</v>
+      </c>
+      <c r="K10" s="43">
+        <v>55</v>
+      </c>
+      <c r="L10" s="33">
+        <v>30</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="22">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23">
+        <v>100</v>
+      </c>
+      <c r="E12" s="40">
+        <v>50</v>
+      </c>
+      <c r="F12" s="24">
+        <v>100</v>
+      </c>
+      <c r="G12" s="41">
+        <v>90</v>
+      </c>
+      <c r="H12" s="25">
+        <v>85</v>
+      </c>
+      <c r="I12" s="42">
+        <v>75</v>
+      </c>
+      <c r="J12" s="26">
+        <v>100</v>
+      </c>
+      <c r="K12" s="43">
+        <v>80</v>
+      </c>
+      <c r="L12" s="33">
+        <v>50</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="22">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23">
+        <v>100</v>
+      </c>
+      <c r="E13" s="40">
+        <v>50</v>
+      </c>
+      <c r="F13" s="24">
+        <v>80</v>
+      </c>
+      <c r="G13" s="41">
+        <v>45</v>
+      </c>
+      <c r="H13" s="25">
+        <v>65</v>
+      </c>
+      <c r="I13" s="42">
+        <v>60</v>
+      </c>
+      <c r="J13" s="26">
+        <v>100</v>
+      </c>
+      <c r="K13" s="43">
+        <v>80</v>
+      </c>
+      <c r="L13" s="27">
+        <v>30</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="22">
+        <v>75</v>
+      </c>
+      <c r="D14" s="23">
+        <v>100</v>
+      </c>
+      <c r="E14" s="40">
+        <v>45</v>
+      </c>
+      <c r="F14" s="24">
+        <v>80</v>
+      </c>
+      <c r="G14" s="41">
+        <v>65</v>
+      </c>
+      <c r="H14" s="25">
+        <v>70</v>
+      </c>
+      <c r="I14" s="42">
+        <v>65</v>
+      </c>
+      <c r="J14" s="26">
+        <v>100</v>
+      </c>
+      <c r="K14" s="43">
+        <v>70</v>
+      </c>
+      <c r="L14" s="33">
+        <v>30</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="22">
+        <v>85</v>
+      </c>
+      <c r="D15" s="23">
+        <v>100</v>
+      </c>
+      <c r="E15" s="40">
+        <v>50</v>
+      </c>
+      <c r="F15" s="24">
+        <v>90</v>
+      </c>
+      <c r="G15" s="41">
+        <v>75</v>
+      </c>
+      <c r="H15" s="25">
+        <v>65</v>
+      </c>
+      <c r="I15" s="42">
+        <v>65</v>
+      </c>
+      <c r="J15" s="26">
+        <v>100</v>
+      </c>
+      <c r="K15" s="43">
+        <v>70</v>
+      </c>
+      <c r="L15" s="27">
+        <v>30</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="22">
+        <v>75</v>
+      </c>
+      <c r="D16" s="23">
+        <v>100</v>
+      </c>
+      <c r="E16" s="40">
+        <v>40</v>
+      </c>
+      <c r="F16" s="24">
+        <v>80</v>
+      </c>
+      <c r="G16" s="41">
+        <v>55</v>
+      </c>
+      <c r="H16" s="25">
+        <v>65</v>
+      </c>
+      <c r="I16" s="42">
+        <v>65</v>
+      </c>
+      <c r="J16" s="26">
+        <v>100</v>
+      </c>
+      <c r="K16" s="43">
+        <v>70</v>
+      </c>
+      <c r="L16" s="33">
+        <v>30</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="22">
+        <v>75</v>
+      </c>
+      <c r="D17" s="23">
+        <v>100</v>
+      </c>
+      <c r="E17" s="40">
+        <v>45</v>
+      </c>
+      <c r="F17" s="24">
+        <v>80</v>
+      </c>
+      <c r="G17" s="41">
+        <v>45</v>
+      </c>
+      <c r="H17" s="25">
+        <v>70</v>
+      </c>
+      <c r="I17" s="42">
+        <v>60</v>
+      </c>
+      <c r="J17" s="26">
+        <v>100</v>
+      </c>
+      <c r="K17" s="43">
+        <v>70</v>
+      </c>
+      <c r="L17" s="27">
+        <v>30</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+    </row>
+    <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="22">
+        <v>70</v>
+      </c>
+      <c r="D18" s="23">
+        <v>100</v>
+      </c>
+      <c r="E18" s="40">
+        <v>40</v>
+      </c>
+      <c r="F18" s="24">
+        <v>80</v>
+      </c>
+      <c r="G18" s="41">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25">
+        <v>85</v>
+      </c>
+      <c r="I18" s="42">
+        <v>55</v>
+      </c>
+      <c r="J18" s="26">
+        <v>100</v>
+      </c>
+      <c r="K18" s="43">
+        <v>60</v>
+      </c>
+      <c r="L18" s="33">
+        <v>30</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C18DE-CCD8-4ABA-9B3B-CCD73CA8C93E}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="65"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="58"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="58"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="58"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="59"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="58"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="58"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC8BAE7-4B1E-4B8C-8AF9-C5EAA5B2467F}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="33">
+        <v>3</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="75">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="76">
+        <v>0</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="K2" s="76">
+        <v>0</v>
+      </c>
+      <c r="L2" s="76">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="O2" s="33">
+        <v>300</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="27">
+        <v>12</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="77">
+        <v>0</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="K3" s="77">
+        <v>0</v>
+      </c>
+      <c r="L3" s="77">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="O3" s="27">
+        <v>400</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="76">
+        <v>1</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="76">
+        <v>0</v>
+      </c>
+      <c r="L4" s="76">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="27">
+        <v>20</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="33">
+        <v>10</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="76">
+        <v>0</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" s="76">
+        <v>0</v>
+      </c>
+      <c r="L6" s="76">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="O6" s="33">
+        <v>500</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="76">
+        <v>0</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="76">
+        <v>0</v>
+      </c>
+      <c r="L8" s="76">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="27">
+        <v>24</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="N9" s="27">
+        <v>999</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J7" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11476,8 +16502,8 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L31" sqref="L31"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12174,13 +17200,726 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B2364D-F43A-47E4-8B6C-A03FB84E628E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2">
+        <v>19500</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>50</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>61500</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>115</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3">
+        <v>75</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3">
+        <v>45</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>50</v>
+      </c>
+      <c r="Y3" cm="1">
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>38000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>79</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" cm="1">
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>50</v>
+      </c>
+      <c r="Y4" cm="1">
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>87000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5">
+        <v>120</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" cm="1">
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>200</v>
+      </c>
+      <c r="Y5" cm="1">
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+      <c r="J6">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6">
+        <v>200</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" cm="1">
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>150</v>
+      </c>
+      <c r="Y6" cm="1">
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>72000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7">
+        <v>200</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" cm="1">
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>190</v>
+      </c>
+      <c r="Y7" cm="1">
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X8" t="e" cm="1">
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="e" cm="1">
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X9" t="e" cm="1">
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" t="e" cm="1">
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X10" t="e" cm="1">
+        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e" cm="1">
+        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X11" t="e" cm="1">
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e" cm="1">
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X12" t="e" cm="1">
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e" cm="1">
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X13" t="e" cm="1">
+        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e" cm="1">
+        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X14" t="e" cm="1">
+        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e" cm="1">
+        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X15" t="e" cm="1">
+        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="e" cm="1">
+        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X16" t="e" cm="1">
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e" cm="1">
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12188,7 +17927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C29F4-F90E-490E-8D34-BB5E6787CD6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39110B3B-82BB-48DA-80E2-F29EA7E6FFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A71853-1E68-4A75-A09D-0C3A11FDDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Shotguns" sheetId="6" r:id="rId6"/>
     <sheet name="LMGs" sheetId="7" r:id="rId7"/>
     <sheet name="Explosives" sheetId="8" r:id="rId8"/>
-    <sheet name="Other" sheetId="9" r:id="rId9"/>
+    <sheet name="Other info" sheetId="9" r:id="rId9"/>
     <sheet name="Armor" sheetId="10" r:id="rId10"/>
     <sheet name="Units" sheetId="11" r:id="rId11"/>
     <sheet name="Enemy Weapons" sheetId="12" r:id="rId12"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="452">
   <si>
     <t>Name</t>
   </si>
@@ -1525,6 +1525,21 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>Desert Eagle</t>
+  </si>
+  <si>
+    <t>50 AE</t>
+  </si>
+  <si>
+    <t>50 AE graph</t>
+  </si>
+  <si>
+    <t>1.25 to health, 1.5 armor effectiveness.  More effecive against targets without armor, less effective against targest with armor. (Graph in Other Info)</t>
+  </si>
+  <si>
+    <t>More hp damage, less effective vs armor</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1917,21 +1932,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1965,15 +1965,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1986,6 +1977,39 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1994,24 +2018,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2040,16 +2046,22 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2057,6 +2069,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2074,20 +2100,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2530,9 +2542,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220056</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068560F7-435D-FB0F-EFA6-B02B5E93862E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="219075"/>
+          <a:ext cx="7030431" cy="4467849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I9" totalsRowShown="0" tableBorderDxfId="45">
-  <autoFilter ref="B1:I9" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I10" totalsRowShown="0" tableBorderDxfId="45">
+  <autoFilter ref="B1:I10" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{085F0113-80A5-4D7F-B00C-4888CB135866}" name="Name"/>
     <tableColumn id="2" xr3:uid="{83162986-E3B5-4977-9B14-D30075C4E5BC}" name="Power"/>
@@ -2587,7 +2654,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1905360-5683-445F-9462-84BE18993171}" name="Table4" displayName="Table4" ref="A1:AA16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1905360-5683-445F-9462-84BE18993171}" name="Table4" displayName="Table4" ref="A1:AA16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:AA16" xr:uid="{B1905360-5683-445F-9462-84BE18993171}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{97A5C511-EF1D-4C4C-9606-80A9E8EBCC5F}" name="Name"/>
@@ -2623,8 +2690,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B10:I21" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="B10:I21" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B11:I22" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="B11:I22" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8C7ABBF-D256-4E65-A96F-CB8C79043F13}" name="Name"/>
     <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="42"/>
@@ -2640,8 +2707,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B22:I28" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B22:I28" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B23:I29" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="B23:I29" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="33"/>
@@ -2657,8 +2724,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B29:I40" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B29:I40" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B30:I41" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B30:I41" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
     <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="25"/>
@@ -2676,8 +2743,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}" name="Table9" displayName="Table9" ref="A1:Z35" totalsRowShown="0" headerRowBorderDxfId="20">
   <autoFilter ref="A1:Z35" xr:uid="{1930011F-5618-45BE-B462-F43D138EF4F7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z19">
-    <sortCondition ref="D1:D35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z14">
+    <sortCondition descending="1" ref="H1:H35"/>
   </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{65C1FDAC-048C-4583-9579-8E5073FE8457}" name="Name"/>
@@ -3152,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3234,7 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="129.85546875" customWidth="1"/>
+    <col min="9" max="9" width="131.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3381,54 +3448,54 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="M11" s="12" t="s">
         <v>18</v>
       </c>
@@ -3446,22 +3513,25 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="M12" s="14" t="s">
         <v>19</v>
       </c>
@@ -3481,13 +3551,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -3514,13 +3584,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3547,13 +3617,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -3580,10 +3650,10 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0.6</v>
@@ -3613,13 +3683,13 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -3646,10 +3716,10 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>0.7</v>
@@ -3679,13 +3749,13 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -3712,13 +3782,13 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -3745,10 +3815,10 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3776,58 +3846,51 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1"/>
       <c r="M23" s="12" t="s">
         <v>33</v>
       </c>
@@ -3851,28 +3914,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>0.7</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="M24" s="14" t="s">
         <v>34</v>
       </c>
@@ -3898,28 +3962,25 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>35</v>
@@ -3946,13 +4007,13 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3965,6 +4026,9 @@
       </c>
       <c r="H26">
         <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>37</v>
@@ -3991,22 +4055,22 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4036,28 +4100,25 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>39</v>
@@ -4082,57 +4143,59 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>41</v>
@@ -4155,27 +4218,28 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>44</v>
+      <c r="A31" s="8"/>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>43</v>
@@ -4199,7 +4263,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -4208,16 +4272,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>45</v>
@@ -4242,25 +4306,25 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>47</v>
@@ -4284,13 +4348,13 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -4299,7 +4363,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>49</v>
@@ -4324,16 +4391,16 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4363,16 +4430,16 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4403,10 +4470,10 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4442,16 +4509,16 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4481,9 +4548,30 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>140</v>
+      </c>
+      <c r="D39">
+        <v>0.2</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4517,43 +4605,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="52" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="21" t="s">
         <v>248</v>
       </c>
@@ -4581,12 +4669,12 @@
       <c r="J2" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -5061,7 +5149,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>270</v>
       </c>
       <c r="B13" s="27">
@@ -5101,7 +5189,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>272</v>
       </c>
       <c r="B14" s="33">
@@ -5145,7 +5233,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>273</v>
       </c>
       <c r="B15" s="27">
@@ -5193,7 +5281,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>274</v>
       </c>
       <c r="B16" s="33">
@@ -5241,7 +5329,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="34" t="s">
         <v>275</v>
       </c>
       <c r="B17" s="27">
@@ -5289,7 +5377,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="34" t="s">
         <v>276</v>
       </c>
       <c r="B18" s="33">
@@ -5337,7 +5425,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>277</v>
       </c>
       <c r="B19" s="27">
@@ -5385,7 +5473,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="33">
@@ -5433,7 +5521,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>279</v>
       </c>
       <c r="B21" s="27">
@@ -5475,7 +5563,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="34" t="s">
         <v>281</v>
       </c>
       <c r="B22" s="33">
@@ -5521,7 +5609,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>282</v>
       </c>
       <c r="B23" s="27">
@@ -5571,7 +5659,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>283</v>
       </c>
       <c r="B24" s="33">
@@ -5621,7 +5709,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>284</v>
       </c>
       <c r="B25" s="27">
@@ -5671,7 +5759,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>286</v>
       </c>
       <c r="B26" s="33">
@@ -5721,7 +5809,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="34" t="s">
         <v>287</v>
       </c>
       <c r="B27" s="27">
@@ -5771,7 +5859,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="34" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="33">
@@ -5971,7 +6059,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="34" t="s">
         <v>293</v>
       </c>
       <c r="B32" s="33">
@@ -6065,25 +6153,25 @@
       <c r="D1" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="35" t="s">
         <v>296</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>303</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="37" t="s">
         <v>304</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="38" t="s">
         <v>305</v>
       </c>
       <c r="L1" s="21" t="s">
@@ -6115,32 +6203,32 @@
       <c r="D2" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>300</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="36" t="s">
         <v>312</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="37" t="s">
         <v>314</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="38" t="s">
         <v>298</v>
       </c>
       <c r="L2" s="33">
         <v>100</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
       <c r="O2" s="33">
         <v>200000</v>
       </c>
@@ -6149,7 +6237,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>340</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -6161,25 +6249,25 @@
       <c r="D3" s="23">
         <v>100</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="35">
         <v>45</v>
       </c>
       <c r="F3" s="24">
         <v>90</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="36">
         <v>65</v>
       </c>
       <c r="H3" s="25">
         <v>70</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="37">
         <v>55</v>
       </c>
       <c r="J3" s="26">
         <v>100</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="38">
         <v>70</v>
       </c>
       <c r="L3" s="27">
@@ -6191,11 +6279,11 @@
       <c r="N3" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="33" t="s">
         <v>302</v>
       </c>
@@ -6205,25 +6293,25 @@
       <c r="D4" s="23">
         <v>100</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <v>50</v>
       </c>
       <c r="F4" s="24">
         <v>90</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="36">
         <v>60</v>
       </c>
       <c r="H4" s="25">
         <v>70</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="37">
         <v>55</v>
       </c>
       <c r="J4" s="26">
         <v>100</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="38">
         <v>70</v>
       </c>
       <c r="L4" s="33">
@@ -6235,11 +6323,11 @@
       <c r="N4" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="27" t="s">
         <v>319</v>
       </c>
@@ -6249,25 +6337,25 @@
       <c r="D5" s="23">
         <v>100</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="35">
         <v>40</v>
       </c>
       <c r="F5" s="24">
         <v>50</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="36">
         <v>30</v>
       </c>
       <c r="H5" s="25">
         <v>60</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="37">
         <v>55</v>
       </c>
       <c r="J5" s="26">
         <v>100</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="38">
         <v>55</v>
       </c>
       <c r="L5" s="27">
@@ -6279,11 +6367,11 @@
       <c r="N5" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>321</v>
       </c>
@@ -6293,25 +6381,25 @@
       <c r="D6" s="23">
         <v>100</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="35">
         <v>35</v>
       </c>
       <c r="F6" s="24">
         <v>50</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="36">
         <v>40</v>
       </c>
       <c r="H6" s="25">
         <v>55</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="37">
         <v>55</v>
       </c>
       <c r="J6" s="26">
         <v>100</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="38">
         <v>55</v>
       </c>
       <c r="L6" s="33">
@@ -6323,11 +6411,11 @@
       <c r="N6" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="27" t="s">
         <v>323</v>
       </c>
@@ -6337,25 +6425,25 @@
       <c r="D7" s="23">
         <v>100</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="35">
         <v>40</v>
       </c>
       <c r="F7" s="24">
         <v>70</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="36">
         <v>50</v>
       </c>
       <c r="H7" s="25">
         <v>55</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="37">
         <v>55</v>
       </c>
       <c r="J7" s="26">
         <v>100</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="38">
         <v>60</v>
       </c>
       <c r="L7" s="27">
@@ -6367,11 +6455,11 @@
       <c r="N7" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="33" t="s">
         <v>325</v>
       </c>
@@ -6381,25 +6469,25 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="35">
         <v>30</v>
       </c>
       <c r="F8" s="24">
         <v>40</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="36">
         <v>35</v>
       </c>
       <c r="H8" s="25">
         <v>45</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="37">
         <v>50</v>
       </c>
       <c r="J8" s="26">
         <v>100</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="38">
         <v>55</v>
       </c>
       <c r="L8" s="33">
@@ -6411,11 +6499,11 @@
       <c r="N8" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="27" t="s">
         <v>327</v>
       </c>
@@ -6425,25 +6513,25 @@
       <c r="D9" s="23">
         <v>100</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="35">
         <v>30</v>
       </c>
       <c r="F9" s="24">
         <v>50</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="36">
         <v>35</v>
       </c>
       <c r="H9" s="25">
         <v>50</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="37">
         <v>70</v>
       </c>
       <c r="J9" s="26">
         <v>100</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="38">
         <v>60</v>
       </c>
       <c r="L9" s="27">
@@ -6455,11 +6543,11 @@
       <c r="N9" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="33" t="s">
         <v>328</v>
       </c>
@@ -6469,25 +6557,25 @@
       <c r="D10" s="23">
         <v>100</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="35">
         <v>30</v>
       </c>
       <c r="F10" s="24">
         <v>50</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>30</v>
       </c>
       <c r="H10" s="25">
         <v>65</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="37">
         <v>45</v>
       </c>
       <c r="J10" s="26">
         <v>100</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="38">
         <v>55</v>
       </c>
       <c r="L10" s="33">
@@ -6499,11 +6587,11 @@
       <c r="N10" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="57" t="s">
         <v>341</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -6511,21 +6599,21 @@
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="46"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="47"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="48"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="32"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="33" t="s">
         <v>302</v>
       </c>
@@ -6535,25 +6623,25 @@
       <c r="D12" s="23">
         <v>100</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="35">
         <v>50</v>
       </c>
       <c r="F12" s="24">
         <v>100</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="36">
         <v>90</v>
       </c>
       <c r="H12" s="25">
         <v>85</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="37">
         <v>75</v>
       </c>
       <c r="J12" s="26">
         <v>100</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="38">
         <v>80</v>
       </c>
       <c r="L12" s="33">
@@ -6565,11 +6653,11 @@
       <c r="N12" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="27" t="s">
         <v>333</v>
       </c>
@@ -6579,25 +6667,25 @@
       <c r="D13" s="23">
         <v>100</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="35">
         <v>50</v>
       </c>
       <c r="F13" s="24">
         <v>80</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="36">
         <v>45</v>
       </c>
       <c r="H13" s="25">
         <v>65</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="37">
         <v>60</v>
       </c>
       <c r="J13" s="26">
         <v>100</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="38">
         <v>80</v>
       </c>
       <c r="L13" s="27">
@@ -6609,11 +6697,11 @@
       <c r="N13" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="33" t="s">
         <v>321</v>
       </c>
@@ -6623,25 +6711,25 @@
       <c r="D14" s="23">
         <v>100</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="35">
         <v>45</v>
       </c>
       <c r="F14" s="24">
         <v>80</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="36">
         <v>65</v>
       </c>
       <c r="H14" s="25">
         <v>70</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="37">
         <v>65</v>
       </c>
       <c r="J14" s="26">
         <v>100</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="38">
         <v>70</v>
       </c>
       <c r="L14" s="33">
@@ -6653,11 +6741,11 @@
       <c r="N14" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="27" t="s">
         <v>290</v>
       </c>
@@ -6667,25 +6755,25 @@
       <c r="D15" s="23">
         <v>100</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="35">
         <v>50</v>
       </c>
       <c r="F15" s="24">
         <v>90</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="36">
         <v>75</v>
       </c>
       <c r="H15" s="25">
         <v>65</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="37">
         <v>65</v>
       </c>
       <c r="J15" s="26">
         <v>100</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="38">
         <v>70</v>
       </c>
       <c r="L15" s="27">
@@ -6697,11 +6785,11 @@
       <c r="N15" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="33" t="s">
         <v>325</v>
       </c>
@@ -6711,25 +6799,25 @@
       <c r="D16" s="23">
         <v>100</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="35">
         <v>40</v>
       </c>
       <c r="F16" s="24">
         <v>80</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="36">
         <v>55</v>
       </c>
       <c r="H16" s="25">
         <v>65</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="37">
         <v>65</v>
       </c>
       <c r="J16" s="26">
         <v>100</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="38">
         <v>70</v>
       </c>
       <c r="L16" s="33">
@@ -6741,11 +6829,11 @@
       <c r="N16" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="27" t="s">
         <v>319</v>
       </c>
@@ -6755,25 +6843,25 @@
       <c r="D17" s="23">
         <v>100</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="35">
         <v>45</v>
       </c>
       <c r="F17" s="24">
         <v>80</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="36">
         <v>45</v>
       </c>
       <c r="H17" s="25">
         <v>70</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="37">
         <v>60</v>
       </c>
       <c r="J17" s="26">
         <v>100</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="38">
         <v>70</v>
       </c>
       <c r="L17" s="27">
@@ -6785,11 +6873,11 @@
       <c r="N17" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="33" t="s">
         <v>328</v>
       </c>
@@ -6799,25 +6887,25 @@
       <c r="D18" s="23">
         <v>100</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="35">
         <v>40</v>
       </c>
       <c r="F18" s="24">
         <v>80</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="36">
         <v>45</v>
       </c>
       <c r="H18" s="25">
         <v>85</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="37">
         <v>55</v>
       </c>
       <c r="J18" s="26">
         <v>100</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="38">
         <v>60</v>
       </c>
       <c r="L18" s="33">
@@ -6829,8 +6917,8 @@
       <c r="N18" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6863,936 +6951,910 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="55" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="60" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="55" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="56" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="60" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="56" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="55" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="60" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="56" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="H19" s="59"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="60" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="55" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="56" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="60" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="55" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="56" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="55" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="64"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="56" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="65"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="57" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="55" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="58"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="56" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="59"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="57" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="57" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="55" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="58"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="56" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="69" t="s">
         <v>385</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="59"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="57" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="57" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="55" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="58"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="56" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="59"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="57" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="57" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="55" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="58"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="56" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="59"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="57" t="s">
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="55" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="58"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="56" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="59"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="57" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="57" t="s">
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="55" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="58"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="56" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="59"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="57" t="s">
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="55" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="58"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="56" t="s">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="59"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="H23:H25"/>
@@ -7803,28 +7865,54 @@
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7915,28 +8003,28 @@
       <c r="D2" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="33">
         <v>0</v>
       </c>
       <c r="F2" s="33">
         <v>0</v>
       </c>
-      <c r="G2" s="76">
-        <v>0</v>
-      </c>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="50">
+        <v>0</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="76">
-        <v>0</v>
-      </c>
-      <c r="L2" s="76">
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
         <v>0</v>
       </c>
       <c r="M2" s="33" t="s">
@@ -7956,7 +8044,7 @@
       <c r="A3" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="27">
         <v>12</v>
       </c>
@@ -7969,22 +8057,22 @@
       <c r="F3" s="27">
         <v>0</v>
       </c>
-      <c r="G3" s="77">
-        <v>0</v>
-      </c>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="K3" s="77">
-        <v>0</v>
-      </c>
-      <c r="L3" s="77">
+      <c r="K3" s="51">
+        <v>0</v>
+      </c>
+      <c r="L3" s="51">
         <v>0</v>
       </c>
       <c r="M3" s="27" t="s">
@@ -8019,22 +8107,22 @@
       <c r="F4" s="33">
         <v>1</v>
       </c>
-      <c r="G4" s="76">
-        <v>1</v>
-      </c>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="76">
-        <v>0</v>
-      </c>
-      <c r="L4" s="76">
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
         <v>0</v>
       </c>
       <c r="M4" s="33" t="s">
@@ -8069,22 +8157,22 @@
       <c r="F5" s="27">
         <v>1</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="51" t="s">
         <v>446</v>
       </c>
       <c r="M5" s="27" t="s">
@@ -8119,22 +8207,22 @@
       <c r="F6" s="33">
         <v>0</v>
       </c>
-      <c r="G6" s="76">
-        <v>0</v>
-      </c>
-      <c r="H6" s="76" t="s">
+      <c r="G6" s="50">
+        <v>0</v>
+      </c>
+      <c r="H6" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="K6" s="76">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76">
+      <c r="K6" s="50">
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
         <v>0</v>
       </c>
       <c r="M6" s="33" t="s">
@@ -8169,22 +8257,22 @@
       <c r="F7" s="27">
         <v>2</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="51" t="s">
         <v>438</v>
       </c>
       <c r="M7" s="27" t="s">
@@ -8219,22 +8307,22 @@
       <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="G8" s="76">
-        <v>0</v>
-      </c>
-      <c r="H8" s="76" t="s">
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="K8" s="76">
-        <v>0</v>
-      </c>
-      <c r="L8" s="76">
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
         <v>0</v>
       </c>
       <c r="M8" s="33" t="s">
@@ -8254,7 +8342,7 @@
       <c r="A9" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="27">
         <v>24</v>
       </c>
@@ -8264,25 +8352,25 @@
       <c r="E9" s="27">
         <v>0</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="51" t="s">
         <v>446</v>
       </c>
       <c r="M9" s="27" t="s">
@@ -8313,7 +8401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+      <selection pane="topRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8340,6 +8428,7 @@
     <col min="23" max="23" width="8.85546875" customWidth="1"/>
     <col min="24" max="24" width="13.5703125" customWidth="1"/>
     <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -8503,16 +8592,16 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -8524,34 +8613,34 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>45</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
       <c r="P3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8566,32 +8655,35 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>26</v>
-      </c>
-      <c r="X3">
-        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V3,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>448</v>
+      </c>
+      <c r="W3" cm="1">
+        <f t="array" aca="1" ref="W3" ca="1">INDEX(Caliber!B2:'Caliber'!C10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B10,0),2)</f>
+        <v>40</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!C2:'Caliber'!D10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B10,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -8603,34 +8695,34 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
         <v>45</v>
-      </c>
-      <c r="K4">
-        <v>55</v>
-      </c>
-      <c r="L4">
-        <v>35</v>
       </c>
       <c r="M4">
         <v>30</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8645,26 +8737,26 @@
         <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -8682,34 +8774,34 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>25</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="K5">
-        <v>60</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>35</v>
+      <c r="M5" t="s">
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -8720,36 +8812,39 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="U5">
-        <v>3</v>
+      <c r="U5" t="s">
+        <v>76</v>
       </c>
       <c r="V5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
       <c r="D6">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -8764,31 +8859,31 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -8799,39 +8894,36 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>76</v>
+      <c r="U6">
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W6">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -8843,74 +8935,74 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O7">
         <v>8</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
       <c r="V7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W7">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
       <c r="D8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -8925,31 +9017,31 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="K8">
-        <v>60</v>
-      </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
       <c r="M8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -8964,32 +9056,32 @@
         <v>3</v>
       </c>
       <c r="V8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W8">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9">
-        <v>12500</v>
+      <c r="D9" t="s">
+        <v>76</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -9010,25 +9102,25 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M9">
         <v>35</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -9043,32 +9135,32 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="W9">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>12500</v>
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -9080,34 +9172,34 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -9122,32 +9214,32 @@
         <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="W10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
       </c>
       <c r="D11">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -9159,34 +9251,34 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>25</v>
       </c>
       <c r="J11">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M11">
         <v>35</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -9201,32 +9293,32 @@
         <v>3</v>
       </c>
       <c r="V11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W11">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
         <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
-        <v>76</v>
+      <c r="D12">
+        <v>12000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -9238,74 +9330,74 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>38</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>55</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>35</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="Q12">
-        <v>18</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>3</v>
-      </c>
       <c r="V12" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="W12">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>12500</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -9317,34 +9409,34 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
         <v>8</v>
       </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
       <c r="P13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -9359,28 +9451,97 @@
         <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="W13">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>31</v>
+      </c>
+      <c r="X14">
+        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W14" t="e">
-        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
-        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -10339,10 +10500,10 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10526,11 +10687,11 @@
         <v>121</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
@@ -10608,11 +10769,11 @@
         <v>121</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
@@ -10690,11 +10851,11 @@
         <v>121</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z4" t="s">
@@ -10772,11 +10933,11 @@
         <v>121</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z5" t="s">
@@ -10854,11 +11015,11 @@
         <v>121</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
@@ -10936,11 +11097,11 @@
         <v>121</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
@@ -11018,11 +11179,11 @@
         <v>121</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z8" t="s">
@@ -11100,11 +11261,11 @@
         <v>121</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z9" t="s">
@@ -11182,11 +11343,11 @@
         <v>121</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
@@ -11264,11 +11425,11 @@
         <v>121</v>
       </c>
       <c r="X11">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y11">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
@@ -11346,11 +11507,11 @@
         <v>121</v>
       </c>
       <c r="X12">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y12">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z12" t="s">
@@ -11428,11 +11589,11 @@
         <v>121</v>
       </c>
       <c r="X13">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y13">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z13" t="s">
@@ -11510,11 +11671,11 @@
         <v>121</v>
       </c>
       <c r="X14">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y14">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z14" t="s">
@@ -11592,11 +11753,11 @@
         <v>19</v>
       </c>
       <c r="X15">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W15,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y15">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W15,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z15" t="s">
@@ -11674,11 +11835,11 @@
         <v>19</v>
       </c>
       <c r="X16">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W16,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y16">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W16,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z16" t="s">
@@ -11756,11 +11917,11 @@
         <v>25</v>
       </c>
       <c r="X17">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W17,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y17">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W17,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z17" t="s">
@@ -11838,11 +11999,11 @@
         <v>25</v>
       </c>
       <c r="X18">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W18,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y18">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W18,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z18" t="s">
@@ -11920,11 +12081,11 @@
         <v>121</v>
       </c>
       <c r="X19">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y19">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z19" t="s">
@@ -12005,11 +12166,11 @@
         <v>121</v>
       </c>
       <c r="X20">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y20">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z20" t="s">
@@ -12090,11 +12251,11 @@
         <v>121</v>
       </c>
       <c r="X21">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y21">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z21" t="s">
@@ -12172,11 +12333,11 @@
         <v>121</v>
       </c>
       <c r="X22">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y22">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
@@ -12254,11 +12415,11 @@
         <v>121</v>
       </c>
       <c r="X23">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y23">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z23" t="s">
@@ -12336,11 +12497,11 @@
         <v>121</v>
       </c>
       <c r="X24">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y24">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z24" t="s">
@@ -12418,11 +12579,11 @@
         <v>121</v>
       </c>
       <c r="X25">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y25">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z25" t="s">
@@ -12500,11 +12661,11 @@
         <v>121</v>
       </c>
       <c r="X26">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y26">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z26" t="s">
@@ -12582,11 +12743,11 @@
         <v>153</v>
       </c>
       <c r="X27" cm="1">
-        <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y27" cm="1">
-        <f t="array" aca="1" ref="Y27" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y27" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z27" t="s">
@@ -12664,11 +12825,11 @@
         <v>153</v>
       </c>
       <c r="X28" cm="1">
-        <f t="array" aca="1" ref="X28" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X28" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y28" cm="1">
-        <f t="array" aca="1" ref="Y28" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y28" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z28" t="s">
@@ -12746,11 +12907,11 @@
         <v>121</v>
       </c>
       <c r="X29">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y29">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z29" t="s">
@@ -12828,11 +12989,11 @@
         <v>121</v>
       </c>
       <c r="X30">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y30">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z30" t="s">
@@ -12910,11 +13071,11 @@
         <v>121</v>
       </c>
       <c r="X31">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W31,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y31">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W31,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W31,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z31" t="s">
@@ -12992,11 +13153,11 @@
         <v>121</v>
       </c>
       <c r="X32">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W32,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y32">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W32,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W32,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z32" t="s">
@@ -13074,11 +13235,11 @@
         <v>121</v>
       </c>
       <c r="X33">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W33,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y33">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W33,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W33,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z33" t="s">
@@ -13156,11 +13317,11 @@
         <v>153</v>
       </c>
       <c r="X34">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y34">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W34,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z34" t="s">
@@ -13238,11 +13399,11 @@
         <v>153</v>
       </c>
       <c r="X35">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y35">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W35,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z35" t="s">
@@ -13320,11 +13481,11 @@
         <v>153</v>
       </c>
       <c r="X36">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y36">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W36,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z36" t="s">
@@ -13402,11 +13563,11 @@
         <v>18</v>
       </c>
       <c r="X37">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>35</v>
       </c>
       <c r="Y37">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W37,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z37" t="s">
@@ -13484,11 +13645,11 @@
         <v>28</v>
       </c>
       <c r="X38">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y38">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W38,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z38" t="s">
@@ -13566,11 +13727,11 @@
         <v>28</v>
       </c>
       <c r="X39">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W39,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y39">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W39,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W39,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z39" t="s">
@@ -13648,11 +13809,11 @@
         <v>121</v>
       </c>
       <c r="X40">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y40">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W40,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z40" t="s">
@@ -13730,11 +13891,11 @@
         <v>121</v>
       </c>
       <c r="X41">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W41,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y41">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W41,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z41" t="s">
@@ -13812,11 +13973,11 @@
         <v>121</v>
       </c>
       <c r="X42">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W42,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y42">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W42,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z42" t="s">
@@ -13894,11 +14055,11 @@
         <v>25</v>
       </c>
       <c r="X43" cm="1">
-        <f t="array" aca="1" ref="X43" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X43" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y43" cm="1">
-        <f t="array" aca="1" ref="Y43" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y43" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z43" t="s">
@@ -13976,11 +14137,11 @@
         <v>25</v>
       </c>
       <c r="X44" cm="1">
-        <f t="array" aca="1" ref="X44" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X44" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y44" cm="1">
-        <f t="array" aca="1" ref="Y44" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y44" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z44" t="s">
@@ -14058,11 +14219,11 @@
         <v>19</v>
       </c>
       <c r="X45" cm="1">
-        <f t="array" aca="1" ref="X45" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X45" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y45" cm="1">
-        <f t="array" aca="1" ref="Y45" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y45" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z45" t="s">
@@ -14140,11 +14301,11 @@
         <v>153</v>
       </c>
       <c r="X46" cm="1">
-        <f t="array" aca="1" ref="X46" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X46" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y46" cm="1">
-        <f t="array" aca="1" ref="Y46" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y46" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z46" t="s">
@@ -14222,11 +14383,11 @@
         <v>153</v>
       </c>
       <c r="X47" cm="1">
-        <f t="array" aca="1" ref="X47" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X47" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y47" cm="1">
-        <f t="array" aca="1" ref="Y47" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y47" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z47" t="s">
@@ -14235,51 +14396,51 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X48" t="e" cm="1">
-        <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y48" t="e" cm="1">
-        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X49" t="e" cm="1">
-        <f t="array" aca="1" ref="X49" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X49" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y49" t="e" cm="1">
-        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X50" t="e" cm="1">
-        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y50" t="e" cm="1">
-        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X51" t="e" cm="1">
-        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y51" t="e" cm="1">
-        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X52" t="e" cm="1">
-        <f t="array" aca="1" ref="X52" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X52" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y52" t="e" cm="1">
-        <f t="array" aca="1" ref="Y52" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y52" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14481,11 +14642,11 @@
         <v>121</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W2,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
@@ -14563,11 +14724,11 @@
         <v>25</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W3,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z3" t="s">
@@ -14645,11 +14806,11 @@
         <v>153</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W4,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z4" t="s">
@@ -14727,11 +14888,11 @@
         <v>153</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W5,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
@@ -14809,11 +14970,11 @@
         <v>28</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W6,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z6" t="s">
@@ -14891,11 +15052,11 @@
         <v>27</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>49</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W7,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z7" t="s">
@@ -14973,11 +15134,11 @@
         <v>31</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>75</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W8,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z8" t="s">
@@ -15055,11 +15216,11 @@
         <v>30</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>61</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W9,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.8</v>
       </c>
       <c r="Z9" t="s">
@@ -15137,11 +15298,11 @@
         <v>153</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W10,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z10" t="s">
@@ -15219,11 +15380,11 @@
         <v>30</v>
       </c>
       <c r="X11">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>61</v>
       </c>
       <c r="Y11">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W11,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.8</v>
       </c>
       <c r="Z11" t="s">
@@ -15301,11 +15462,11 @@
         <v>153</v>
       </c>
       <c r="X12">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y12">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W12,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
@@ -15383,11 +15544,11 @@
         <v>29</v>
       </c>
       <c r="X13">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>70</v>
       </c>
       <c r="Y13">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W13,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z13" t="s">
@@ -15396,171 +15557,171 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W14,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W15,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W15,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W16,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W16,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X17" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W17,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y17" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W17,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X18" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W18,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y18" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W18,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X19" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y19" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W19,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X20" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y20" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W20,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X21" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y21" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W21,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X22" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y22" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W22,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X23" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y23" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W23,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X24" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y24" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W24,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X25" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y25" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W25,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X26" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y26" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W26,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X27" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W27,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y27" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W27,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W27,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X28" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W28,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y28" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W28,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X29" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y29" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W29,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X30" t="e">
-        <f>INDEX(Caliber!B11:'Caliber'!C21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y30" t="e">
-        <f>INDEX(Caliber!C11:'Caliber'!D21,MATCH(W30,Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15765,15 +15926,15 @@
         <v>33</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z2">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W2,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA2" t="s">
@@ -15851,15 +16012,15 @@
         <v>33</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z3">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W3,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
@@ -15937,15 +16098,15 @@
         <v>33</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z4">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W4,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA4" t="s">
@@ -16026,15 +16187,15 @@
         <v>33</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z5">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W5,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA5" t="s">
@@ -16115,15 +16276,15 @@
         <v>37</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>20</v>
       </c>
       <c r="Z6">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W6,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA6" t="s">
@@ -16204,15 +16365,15 @@
         <v>33</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z7">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W7,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA7" t="s">
@@ -16293,15 +16454,15 @@
         <v>33</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z8">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W8,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA8" t="s">
@@ -16382,15 +16543,15 @@
         <v>33</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z9">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W9,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA9" t="s">
@@ -16471,15 +16632,15 @@
         <v>33</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B23:'Caliber'!C28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),2)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!B23:'Caliber'!D28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),3)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z10">
-        <f>INDEX(Caliber!B23:'Caliber'!F28,MATCH(W10,Caliber!B23:'Caliber'!B28,0),5)</f>
+        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA10" t="s">
@@ -16686,11 +16847,11 @@
         <v>26</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z2" t="s">
@@ -16768,11 +16929,11 @@
         <v>121</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
@@ -16850,11 +17011,11 @@
         <v>224</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>49</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z4" t="s">
@@ -16932,11 +17093,11 @@
         <v>26</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
@@ -17014,11 +17175,11 @@
         <v>121</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
@@ -17096,11 +17257,11 @@
         <v>121</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
@@ -17178,11 +17339,11 @@
         <v>19</v>
       </c>
       <c r="X8" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B11:'Caliber'!C21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y8" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z8" t="s">
@@ -17203,8 +17364,8 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17386,11 +17547,11 @@
         <v>41</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z2" t="s">
@@ -17471,11 +17632,11 @@
         <v>41</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z3" t="s">
@@ -17556,11 +17717,11 @@
         <v>41</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z4" t="s">
@@ -17641,11 +17802,11 @@
         <v>49</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>200</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z5" t="s">
@@ -17726,11 +17887,11 @@
         <v>51</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>150</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z6" t="s">
@@ -17811,11 +17972,11 @@
         <v>52</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>190</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z7" t="s">
@@ -17827,91 +17988,91 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X8" t="e" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y8" t="e" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X9" t="e" cm="1">
-        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e" cm="1">
-        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X10" t="e" cm="1">
-        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y10" t="e" cm="1">
-        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X11" t="e" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y11" t="e" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X12" t="e" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y12" t="e" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X13" t="e" cm="1">
-        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e" cm="1">
-        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e" cm="1">
-        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e" cm="1">
-        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e" cm="1">
-        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e" cm="1">
-        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B30:'Caliber'!C38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e" cm="1">
-        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C30:'Caliber'!D38,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B30:'Caliber'!B38,0),2)</f>
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -17927,12 +18088,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C29F4-F90E-490E-8D34-BB5E6787CD6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A71853-1E68-4A75-A09D-0C3A11FDDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90313E-E85F-4DE7-854C-F1A872336B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="453">
   <si>
     <t>Name</t>
   </si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t>More hp damage, less effective vs armor</t>
+  </si>
+  <si>
+    <t>G36C</t>
   </si>
 </sst>
 </file>
@@ -2019,6 +2022,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2045,24 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2814,8 +2817,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA47" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:AA47" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA48" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:AA48" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{EA086EA1-B04D-408A-83CB-62AACD4983EB}" name="Name"/>
     <tableColumn id="2" xr3:uid="{28FB994B-34C3-478E-82FB-47025B753042}" name="weight"/>
@@ -7472,10 +7475,10 @@
       <c r="D26" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61"/>
@@ -7484,10 +7487,10 @@
       <c r="D27" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="76"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
@@ -7496,10 +7499,10 @@
       <c r="D28" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="77"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
@@ -7512,11 +7515,11 @@
       <c r="D29" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="60" t="s">
         <v>351</v>
       </c>
@@ -7528,11 +7531,11 @@
       <c r="D30" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7542,11 +7545,11 @@
       <c r="D31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7560,11 +7563,11 @@
       <c r="D32" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="60" t="s">
         <v>351</v>
       </c>
@@ -7576,11 +7579,11 @@
       <c r="D33" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7590,11 +7593,11 @@
       <c r="D34" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7608,11 +7611,11 @@
       <c r="D35" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="60" t="s">
         <v>351</v>
       </c>
@@ -7624,11 +7627,11 @@
       <c r="D36" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7638,11 +7641,11 @@
       <c r="D37" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7656,11 +7659,11 @@
       <c r="D38" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
@@ -7672,11 +7675,11 @@
       <c r="D39" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7686,11 +7689,11 @@
       <c r="D40" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7704,11 +7707,11 @@
       <c r="D41" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="60" t="s">
         <v>351</v>
       </c>
@@ -7720,11 +7723,11 @@
       <c r="D42" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7734,11 +7737,11 @@
       <c r="D43" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7752,11 +7755,11 @@
       <c r="D44" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="60" t="s">
         <v>351</v>
       </c>
@@ -7768,11 +7771,11 @@
       <c r="D45" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="72" t="s">
         <v>390</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7782,11 +7785,11 @@
       <c r="D46" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7800,11 +7803,11 @@
       <c r="D47" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="60" t="s">
         <v>351</v>
       </c>
@@ -7816,11 +7819,11 @@
       <c r="D48" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7830,34 +7833,54 @@
       <c r="D49" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -7865,12 +7888,6 @@
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E29:G29"/>
@@ -7880,39 +7897,25 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9556,7 +9559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
@@ -10497,13 +10500,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14395,13 +14398,85 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X48" t="e" cm="1">
+      <c r="A48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>31000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>125</v>
+      </c>
+      <c r="I48">
+        <v>66</v>
+      </c>
+      <c r="J48">
+        <v>46</v>
+      </c>
+      <c r="K48">
+        <v>51</v>
+      </c>
+      <c r="L48">
+        <v>78</v>
+      </c>
+      <c r="M48">
+        <v>58</v>
+      </c>
+      <c r="N48">
+        <v>45</v>
+      </c>
+      <c r="O48">
+        <v>30</v>
+      </c>
+      <c r="P48">
+        <v>32</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>200</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
+      </c>
+      <c r="W48" t="s">
+        <v>121</v>
+      </c>
+      <c r="X48" cm="1">
         <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y48" t="e" cm="1">
-        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="Y48" cm="1">
+        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="24:25" x14ac:dyDescent="0.25">
@@ -14411,36 +14486,6 @@
       </c>
       <c r="Y49" t="e" cm="1">
         <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X50" t="e" cm="1">
-        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" t="e" cm="1">
-        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X51" t="e" cm="1">
-        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" t="e" cm="1">
-        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X52" t="e" cm="1">
-        <f t="array" aca="1" ref="X52" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y52" t="e" cm="1">
-        <f t="array" aca="1" ref="Y52" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -18088,7 +18133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C29F4-F90E-490E-8D34-BB5E6787CD6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90313E-E85F-4DE7-854C-F1A872336B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B113A2-9D4F-48F3-888E-540CB10D1B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="455">
   <si>
     <t>Name</t>
   </si>
@@ -1543,6 +1543,12 @@
   </si>
   <si>
     <t>G36C</t>
+  </si>
+  <si>
+    <t>Skorpion Evo</t>
+  </si>
+  <si>
+    <t>[30,40]</t>
   </si>
 </sst>
 </file>
@@ -2022,24 +2028,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2066,6 +2054,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7475,10 +7481,10 @@
       <c r="D26" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61"/>
@@ -7487,10 +7493,10 @@
       <c r="D27" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="67"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
@@ -7499,10 +7505,10 @@
       <c r="D28" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="68"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
@@ -7515,11 +7521,11 @@
       <c r="D29" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="60" t="s">
         <v>351</v>
       </c>
@@ -7531,11 +7537,11 @@
       <c r="D30" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7545,11 +7551,11 @@
       <c r="D31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7563,11 +7569,11 @@
       <c r="D32" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="60" t="s">
         <v>351</v>
       </c>
@@ -7579,11 +7585,11 @@
       <c r="D33" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7593,11 +7599,11 @@
       <c r="D34" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="69" t="s">
         <v>385</v>
       </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7611,11 +7617,11 @@
       <c r="D35" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="60" t="s">
         <v>351</v>
       </c>
@@ -7627,11 +7633,11 @@
       <c r="D36" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7641,11 +7647,11 @@
       <c r="D37" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7659,11 +7665,11 @@
       <c r="D38" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
@@ -7675,11 +7681,11 @@
       <c r="D39" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7689,11 +7695,11 @@
       <c r="D40" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7707,11 +7713,11 @@
       <c r="D41" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="60" t="s">
         <v>351</v>
       </c>
@@ -7723,11 +7729,11 @@
       <c r="D42" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7737,11 +7743,11 @@
       <c r="D43" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7755,11 +7761,11 @@
       <c r="D44" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="60" t="s">
         <v>351</v>
       </c>
@@ -7771,11 +7777,11 @@
       <c r="D45" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7785,11 +7791,11 @@
       <c r="D46" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7803,11 +7809,11 @@
       <c r="D47" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="60" t="s">
         <v>351</v>
       </c>
@@ -7819,11 +7825,11 @@
       <c r="D48" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7833,54 +7839,24 @@
       <c r="D49" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -7897,6 +7873,12 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="H20:H22"/>
@@ -7907,15 +7889,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9561,11 +9567,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -10461,13 +10468,82 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W12" s="10" t="e">
+      <c r="A12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>25000</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" s="10" t="e">
+        <v>31</v>
+      </c>
+      <c r="X12" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B113A2-9D4F-48F3-888E-540CB10D1B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77401913-F93C-4B02-9F2D-5393A9A38812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="458">
   <si>
     <t>Name</t>
   </si>
@@ -1549,6 +1549,15 @@
   </si>
   <si>
     <t>[30,40]</t>
+  </si>
+  <si>
+    <t>M16A2 (Scoped)</t>
+  </si>
+  <si>
+    <t>M16A2 (M203)</t>
+  </si>
+  <si>
+    <t>Aimed</t>
   </si>
 </sst>
 </file>
@@ -2028,6 +2037,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2054,24 +2081,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2823,8 +2832,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA48" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:AA48" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA50" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:AA50" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{EA086EA1-B04D-408A-83CB-62AACD4983EB}" name="Name"/>
     <tableColumn id="2" xr3:uid="{28FB994B-34C3-478E-82FB-47025B753042}" name="weight"/>
@@ -3230,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -7481,10 +7490,10 @@
       <c r="D26" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61"/>
@@ -7493,10 +7502,10 @@
       <c r="D27" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="76"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
@@ -7505,10 +7514,10 @@
       <c r="D28" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="77"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
@@ -7521,11 +7530,11 @@
       <c r="D29" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="60" t="s">
         <v>351</v>
       </c>
@@ -7537,11 +7546,11 @@
       <c r="D30" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7551,11 +7560,11 @@
       <c r="D31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7569,11 +7578,11 @@
       <c r="D32" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="60" t="s">
         <v>351</v>
       </c>
@@ -7585,11 +7594,11 @@
       <c r="D33" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7599,11 +7608,11 @@
       <c r="D34" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7617,11 +7626,11 @@
       <c r="D35" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="60" t="s">
         <v>351</v>
       </c>
@@ -7633,11 +7642,11 @@
       <c r="D36" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7647,11 +7656,11 @@
       <c r="D37" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7665,11 +7674,11 @@
       <c r="D38" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
@@ -7681,11 +7690,11 @@
       <c r="D39" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7695,11 +7704,11 @@
       <c r="D40" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7713,11 +7722,11 @@
       <c r="D41" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="60" t="s">
         <v>351</v>
       </c>
@@ -7729,11 +7738,11 @@
       <c r="D42" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7743,11 +7752,11 @@
       <c r="D43" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7761,11 +7770,11 @@
       <c r="D44" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="60" t="s">
         <v>351</v>
       </c>
@@ -7777,11 +7786,11 @@
       <c r="D45" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="72" t="s">
         <v>390</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7791,11 +7800,11 @@
       <c r="D46" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7809,11 +7818,11 @@
       <c r="D47" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="60" t="s">
         <v>351</v>
       </c>
@@ -7825,11 +7834,11 @@
       <c r="D48" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7839,24 +7848,64 @@
       <c r="D49" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -7873,55 +7922,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9565,7 +9574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
@@ -10576,13 +10585,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14548,20 +14557,184 @@
         <v>37</v>
       </c>
       <c r="Y48" cm="1">
-        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C11:'Caliber'!D21,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B11:'Caliber'!B21,0),2)</f>
+        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X49" t="e" cm="1">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>125</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>90</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <v>60</v>
+      </c>
+      <c r="O49">
+        <v>60</v>
+      </c>
+      <c r="P49">
+        <v>40</v>
+      </c>
+      <c r="Q49">
+        <v>50</v>
+      </c>
+      <c r="R49">
+        <v>200</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49" t="s">
+        <v>121</v>
+      </c>
+      <c r="X49" cm="1">
         <f t="array" aca="1" ref="X49" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y49" cm="1">
+        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>70</v>
+      </c>
+      <c r="J50">
+        <v>40</v>
+      </c>
+      <c r="K50">
+        <v>55</v>
+      </c>
+      <c r="L50">
+        <v>40</v>
+      </c>
+      <c r="M50">
+        <v>60</v>
+      </c>
+      <c r="N50">
+        <v>45</v>
+      </c>
+      <c r="O50">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>32</v>
+      </c>
+      <c r="Q50">
+        <v>26</v>
+      </c>
+      <c r="R50">
+        <v>200</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50" t="s">
+        <v>121</v>
+      </c>
+      <c r="X50" cm="1">
+        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y50" cm="1">
+        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X51" t="e" cm="1">
+        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="Y49" t="e" cm="1">
-        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y51" t="e" cm="1">
+        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77401913-F93C-4B02-9F2D-5393A9A38812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267CB94-F403-4C06-9DA6-8F4CDE36DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="460">
   <si>
     <t>Name</t>
   </si>
@@ -754,9 +754,6 @@
   </si>
   <si>
     <t>HK417</t>
-  </si>
-  <si>
-    <t>[10][20]</t>
   </si>
   <si>
     <t>HK417 (Scoped)</t>
@@ -1558,6 +1555,15 @@
   </si>
   <si>
     <t>Aimed</t>
+  </si>
+  <si>
+    <t>FMG 9</t>
+  </si>
+  <si>
+    <t>M14 EBR</t>
+  </si>
+  <si>
+    <t>M14 EBR (Scoped)</t>
   </si>
 </sst>
 </file>
@@ -2832,8 +2838,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA50" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:AA50" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}" name="Table2" displayName="Table2" ref="A1:AA52" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:AA52" xr:uid="{8241084F-89A0-47CD-965A-F8C6F1FCBC05}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{EA086EA1-B04D-408A-83CB-62AACD4983EB}" name="Name"/>
     <tableColumn id="2" xr3:uid="{28FB994B-34C3-478E-82FB-47025B753042}" name="weight"/>
@@ -3468,7 +3477,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -3483,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4624,68 +4633,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>240</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="56"/>
       <c r="F1" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
       <c r="J1" s="56"/>
       <c r="K1" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>246</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>256</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -4696,7 +4705,7 @@
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="27">
         <v>4</v>
@@ -4722,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>259</v>
-      </c>
       <c r="O3" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P3" s="27">
         <v>0</v>
@@ -4736,7 +4745,7 @@
     </row>
     <row r="4" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="33">
         <v>4</v>
@@ -4766,13 +4775,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N4" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="O4" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P4" s="33">
         <v>0</v>
@@ -4780,7 +4789,7 @@
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="27">
         <v>30</v>
@@ -4814,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>259</v>
-      </c>
       <c r="O5" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="27">
         <v>0</v>
@@ -4828,7 +4837,7 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="33">
         <v>30</v>
@@ -4862,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="O6" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P6" s="33">
         <v>0</v>
@@ -4876,7 +4885,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="27">
         <v>30</v>
@@ -4910,13 +4919,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P7" s="27">
         <v>0</v>
@@ -4924,7 +4933,7 @@
     </row>
     <row r="8" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="33">
         <v>30</v>
@@ -4958,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P8" s="33">
         <v>0</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="27">
         <v>30</v>
@@ -5006,13 +5015,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N9" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>268</v>
       </c>
       <c r="P9" s="27">
         <v>100</v>
@@ -5020,7 +5029,7 @@
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="33">
         <v>30</v>
@@ -5054,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N10" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="O10" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P10" s="33">
         <v>100</v>
@@ -5068,7 +5077,7 @@
     </row>
     <row r="11" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="33">
         <v>35</v>
@@ -5104,13 +5113,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N11" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="O11" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P11" s="33">
         <v>0</v>
@@ -5118,7 +5127,7 @@
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="33">
         <v>35</v>
@@ -5154,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N12" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="O12" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P12" s="33">
         <v>0</v>
@@ -5168,7 +5177,7 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
@@ -5194,13 +5203,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P13" s="27">
         <v>0</v>
@@ -5208,7 +5217,7 @@
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" s="33">
         <v>4</v>
@@ -5238,13 +5247,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P14" s="33">
         <v>0</v>
@@ -5252,7 +5261,7 @@
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="27">
         <v>30</v>
@@ -5286,13 +5295,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P15" s="27">
         <v>0</v>
@@ -5300,7 +5309,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="33">
         <v>30</v>
@@ -5334,13 +5343,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P16" s="33">
         <v>0</v>
@@ -5348,7 +5357,7 @@
     </row>
     <row r="17" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="27">
         <v>30</v>
@@ -5382,13 +5391,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P17" s="27">
         <v>0</v>
@@ -5396,7 +5405,7 @@
     </row>
     <row r="18" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="33">
         <v>30</v>
@@ -5430,13 +5439,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P18" s="33">
         <v>0</v>
@@ -5444,7 +5453,7 @@
     </row>
     <row r="19" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="27">
         <v>30</v>
@@ -5478,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N19" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>268</v>
       </c>
       <c r="P19" s="27">
         <v>100</v>
@@ -5492,7 +5501,7 @@
     </row>
     <row r="20" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="33">
         <v>30</v>
@@ -5526,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N20" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O20" s="33" t="s">
         <v>267</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>268</v>
       </c>
       <c r="P20" s="33">
         <v>100</v>
@@ -5540,7 +5549,7 @@
     </row>
     <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="27">
         <v>4</v>
@@ -5568,13 +5577,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P21" s="27">
         <v>0</v>
@@ -5582,7 +5591,7 @@
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" s="33">
         <v>4</v>
@@ -5614,13 +5623,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P22" s="33">
         <v>0</v>
@@ -5628,7 +5637,7 @@
     </row>
     <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" s="27">
         <v>30</v>
@@ -5664,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P23" s="27">
         <v>0</v>
@@ -5678,7 +5687,7 @@
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" s="33">
         <v>30</v>
@@ -5714,13 +5723,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P24" s="33">
         <v>0</v>
@@ -5728,7 +5737,7 @@
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="27">
         <v>30</v>
@@ -5764,13 +5773,13 @@
         <v>1</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -5778,7 +5787,7 @@
     </row>
     <row r="26" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="33">
         <v>30</v>
@@ -5814,13 +5823,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P26" s="33">
         <v>100</v>
@@ -5828,7 +5837,7 @@
     </row>
     <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" s="27">
         <v>30</v>
@@ -5864,13 +5873,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P27" s="27">
         <v>100</v>
@@ -5878,7 +5887,7 @@
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="33">
         <v>30</v>
@@ -5914,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P28" s="33">
         <v>0</v>
@@ -5928,7 +5937,7 @@
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="27">
         <v>40</v>
@@ -5964,13 +5973,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P29" s="27">
         <v>0</v>
@@ -5978,7 +5987,7 @@
     </row>
     <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="33">
         <v>40</v>
@@ -6014,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P30" s="33">
         <v>0</v>
@@ -6028,7 +6037,7 @@
     </row>
     <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="27">
         <v>40</v>
@@ -6064,13 +6073,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P31" s="27">
         <v>100</v>
@@ -6078,7 +6087,7 @@
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="33">
         <v>30</v>
@@ -6114,13 +6123,13 @@
         <v>0.3</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P32" s="33">
         <v>0</v>
@@ -6160,87 +6169,87 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>309</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>300</v>
-      </c>
       <c r="F2" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>315</v>
-      </c>
       <c r="K2" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L2" s="33">
         <v>100</v>
@@ -6251,15 +6260,15 @@
         <v>200000</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="22">
         <v>80</v>
@@ -6292,10 +6301,10 @@
         <v>50</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>317</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>318</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
@@ -6303,7 +6312,7 @@
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="22">
         <v>70</v>
@@ -6336,10 +6345,10 @@
         <v>40</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
@@ -6347,7 +6356,7 @@
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="22">
         <v>60</v>
@@ -6380,10 +6389,10 @@
         <v>25</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -6391,7 +6400,7 @@
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="22">
         <v>65</v>
@@ -6424,10 +6433,10 @@
         <v>20</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -6435,7 +6444,7 @@
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="22">
         <v>75</v>
@@ -6468,10 +6477,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -6479,7 +6488,7 @@
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="22">
         <v>60</v>
@@ -6512,10 +6521,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -6523,7 +6532,7 @@
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="22">
         <v>60</v>
@@ -6556,10 +6565,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -6567,7 +6576,7 @@
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
       <c r="B10" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="22">
         <v>60</v>
@@ -6600,20 +6609,20 @@
         <v>30</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>329</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>330</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -6633,7 +6642,7 @@
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="22">
         <v>90</v>
@@ -6666,10 +6675,10 @@
         <v>50</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
@@ -6677,7 +6686,7 @@
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="22">
         <v>70</v>
@@ -6710,10 +6719,10 @@
         <v>30</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -6721,7 +6730,7 @@
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="22">
         <v>75</v>
@@ -6754,10 +6763,10 @@
         <v>30</v>
       </c>
       <c r="M14" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -6765,7 +6774,7 @@
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="22">
         <v>85</v>
@@ -6798,10 +6807,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -6809,7 +6818,7 @@
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="22">
         <v>75</v>
@@ -6842,10 +6851,10 @@
         <v>30</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
@@ -6853,7 +6862,7 @@
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="22">
         <v>75</v>
@@ -6886,10 +6895,10 @@
         <v>30</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -6897,7 +6906,7 @@
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
       <c r="B18" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="22">
         <v>70</v>
@@ -6930,10 +6939,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="N18" s="33" t="s">
         <v>336</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>337</v>
       </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
@@ -6970,55 +6979,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>347</v>
-      </c>
       <c r="H1" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="60" t="s">
         <v>350</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7026,7 +7035,7 @@
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
       <c r="D3" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>145</v>
@@ -7035,7 +7044,7 @@
         <v>145</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3" s="61"/>
     </row>
@@ -7044,41 +7053,41 @@
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
       <c r="B5" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7086,16 +7095,16 @@
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
       <c r="D6" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6" s="61"/>
     </row>
@@ -7104,41 +7113,41 @@
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>360</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7146,16 +7155,16 @@
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -7164,29 +7173,29 @@
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>205</v>
@@ -7195,10 +7204,10 @@
         <v>205</v>
       </c>
       <c r="G11" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>363</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7206,16 +7215,16 @@
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>205</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H12" s="61"/>
     </row>
@@ -7224,29 +7233,29 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>355</v>
       </c>
       <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
       <c r="B14" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>169</v>
@@ -7258,7 +7267,7 @@
         <v>183</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7266,7 +7275,7 @@
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
       <c r="D15" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>111</v>
@@ -7284,7 +7293,7 @@
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>169</v>
@@ -7300,13 +7309,13 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="61"/>
       <c r="B17" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>11</v>
@@ -7315,10 +7324,10 @@
         <v>111</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7326,7 +7335,7 @@
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
       <c r="D18" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>11</v>
@@ -7335,7 +7344,7 @@
         <v>111</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="61"/>
     </row>
@@ -7344,41 +7353,41 @@
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61"/>
       <c r="B20" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="46" t="s">
+      <c r="F20" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="G20" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>374</v>
-      </c>
       <c r="H20" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7386,16 +7395,16 @@
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="G21" s="47" t="s">
         <v>373</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>374</v>
       </c>
       <c r="H21" s="61"/>
     </row>
@@ -7404,29 +7413,29 @@
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
       <c r="D22" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E22" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F22" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="G22" s="48" t="s">
         <v>376</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>377</v>
       </c>
       <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
       <c r="B23" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>149</v>
@@ -7438,7 +7447,7 @@
         <v>158</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7446,16 +7455,16 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="47" t="s">
         <v>379</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>380</v>
       </c>
       <c r="H24" s="61"/>
     </row>
@@ -7464,7 +7473,7 @@
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
       <c r="D25" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>149</v>
@@ -7479,16 +7488,16 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E26" s="63"/>
       <c r="F26" s="64"/>
@@ -7500,7 +7509,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
       <c r="D27" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="64"/>
@@ -7512,7 +7521,7 @@
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
       <c r="D28" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="64"/>
@@ -7522,21 +7531,21 @@
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F29" s="70"/>
       <c r="G29" s="71"/>
       <c r="H29" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7544,7 +7553,7 @@
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
       <c r="D30" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E30" s="72" t="s">
         <v>145</v>
@@ -7558,10 +7567,10 @@
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F31" s="76"/>
       <c r="G31" s="77"/>
@@ -7570,21 +7579,21 @@
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61"/>
       <c r="B32" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F32" s="70"/>
       <c r="G32" s="71"/>
       <c r="H32" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7592,10 +7601,10 @@
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
       <c r="D33" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F33" s="73"/>
       <c r="G33" s="74"/>
@@ -7606,10 +7615,10 @@
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
       <c r="D34" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F34" s="76"/>
       <c r="G34" s="77"/>
@@ -7618,21 +7627,21 @@
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61"/>
       <c r="B35" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F35" s="70"/>
       <c r="G35" s="71"/>
       <c r="H35" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7640,7 +7649,7 @@
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
       <c r="D36" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E36" s="72" t="s">
         <v>145</v>
@@ -7654,10 +7663,10 @@
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
       <c r="D37" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F37" s="76"/>
       <c r="G37" s="77"/>
@@ -7666,13 +7675,13 @@
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="61"/>
       <c r="B38" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E38" s="69" t="s">
         <v>183</v>
@@ -7680,7 +7689,7 @@
       <c r="F38" s="70"/>
       <c r="G38" s="71"/>
       <c r="H38" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7688,7 +7697,7 @@
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
       <c r="D39" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E39" s="72" t="s">
         <v>185</v>
@@ -7702,7 +7711,7 @@
       <c r="B40" s="62"/>
       <c r="C40" s="62"/>
       <c r="D40" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E40" s="75" t="s">
         <v>185</v>
@@ -7714,21 +7723,21 @@
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D41" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="69" t="s">
         <v>348</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>349</v>
       </c>
       <c r="F41" s="70"/>
       <c r="G41" s="71"/>
       <c r="H41" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7736,10 +7745,10 @@
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
       <c r="D42" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E42" s="72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F42" s="73"/>
       <c r="G42" s="74"/>
@@ -7750,10 +7759,10 @@
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
       <c r="D43" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F43" s="76"/>
       <c r="G43" s="77"/>
@@ -7762,21 +7771,21 @@
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F44" s="70"/>
       <c r="G44" s="71"/>
       <c r="H44" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7784,10 +7793,10 @@
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
       <c r="D45" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E45" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="74"/>
@@ -7798,10 +7807,10 @@
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
       <c r="D46" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F46" s="76"/>
       <c r="G46" s="77"/>
@@ -7810,13 +7819,13 @@
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
       <c r="B47" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E47" s="69" t="s">
         <v>158</v>
@@ -7824,7 +7833,7 @@
       <c r="F47" s="70"/>
       <c r="G47" s="71"/>
       <c r="H47" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7832,10 +7841,10 @@
       <c r="B48" s="61"/>
       <c r="C48" s="61"/>
       <c r="D48" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" s="72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F48" s="73"/>
       <c r="G48" s="74"/>
@@ -7846,7 +7855,7 @@
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E49" s="75" t="s">
         <v>166</v>
@@ -7960,114 +7969,114 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>407</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>408</v>
       </c>
       <c r="C2" s="33">
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <v>0</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="K2" s="50">
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <v>0</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>410</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>411</v>
       </c>
       <c r="O2" s="33">
         <v>300</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="27">
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
@@ -8079,13 +8088,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K3" s="51">
         <v>0</v>
@@ -8094,80 +8103,80 @@
         <v>0</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O3" s="27">
         <v>400</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="50">
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="O4" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>417</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>418</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>419</v>
       </c>
       <c r="C5" s="27">
         <v>20</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" s="27">
         <v>0</v>
@@ -8176,48 +8185,48 @@
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K5" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>446</v>
-      </c>
       <c r="M5" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>411</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="33">
         <v>10</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E6" s="33">
         <v>0</v>
@@ -8229,13 +8238,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K6" s="50">
         <v>0</v>
@@ -8244,30 +8253,30 @@
         <v>0</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O6" s="33">
         <v>500</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>424</v>
-      </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
@@ -8276,132 +8285,132 @@
         <v>2</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>428</v>
-      </c>
       <c r="O8" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="27">
         <v>24</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
       </c>
       <c r="F9" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>433</v>
-      </c>
       <c r="H9" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>444</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>437</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N9" s="27">
         <v>999</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8610,7 +8619,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -8673,7 +8682,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W3" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDEX(Caliber!B2:'Caliber'!C10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B10,0),2)</f>
@@ -8687,7 +8696,7 @@
         <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -9576,7 +9585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,7 +10487,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -10552,17 +10561,86 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" t="e">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>18000</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>115</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>55</v>
+      </c>
+      <c r="L13">
+        <v>60</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
+        <v>31</v>
+      </c>
+      <c r="X13">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -10585,13 +10663,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y52" sqref="Y52"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10706,7 +10784,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -10714,8 +10792,8 @@
       <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="D2">
-        <v>30000</v>
+      <c r="D2" t="s">
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -10730,13 +10808,13 @@
         <v>125</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -10745,16 +10823,16 @@
         <v>60</v>
       </c>
       <c r="N2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R2">
         <v>200</v>
@@ -10772,35 +10850,35 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X2">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y2">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>19</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>36</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.3</v>
       </c>
       <c r="Z2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
-        <v>76</v>
+      <c r="D3">
+        <v>28000</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -10812,31 +10890,31 @@
         <v>125</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <v>200</v>
@@ -10851,29 +10929,29 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="X3">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
@@ -10894,31 +10972,31 @@
         <v>125</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J4">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R4">
         <v>200</v>
@@ -10936,32 +11014,32 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="E5" t="s">
         <v>76</v>
@@ -10976,31 +11054,31 @@
         <v>125</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5">
         <v>40</v>
       </c>
-      <c r="K5">
-        <v>52</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>65</v>
-      </c>
-      <c r="N5">
-        <v>60</v>
-      </c>
       <c r="O5">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="P5">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R5">
         <v>200</v>
@@ -11018,26 +11096,26 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y5">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -11058,31 +11136,31 @@
         <v>125</v>
       </c>
       <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
         <v>65</v>
       </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <v>60</v>
-      </c>
       <c r="N6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R6">
         <v>200</v>
@@ -11100,23 +11178,23 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="X6">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y6">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z6" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -11124,8 +11202,8 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7">
-        <v>32000</v>
+      <c r="D7" t="s">
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
@@ -11140,31 +11218,31 @@
         <v>125</v>
       </c>
       <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
         <v>60</v>
       </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>65</v>
-      </c>
       <c r="L7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M7">
         <v>65</v>
       </c>
       <c r="N7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7">
         <v>200</v>
@@ -11182,26 +11260,26 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y7">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>25</v>
+      </c>
+      <c r="X7" cm="1">
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>43</v>
+      </c>
+      <c r="Y7" cm="1">
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -11222,31 +11300,31 @@
         <v>125</v>
       </c>
       <c r="I8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>40</v>
       </c>
       <c r="O8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8">
         <v>200</v>
@@ -11255,13 +11333,13 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
       </c>
       <c r="W8" t="s">
         <v>121</v>
@@ -11280,10 +11358,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -11292,7 +11370,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -11304,31 +11382,31 @@
         <v>125</v>
       </c>
       <c r="I9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J9">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
       </c>
       <c r="L9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M9">
-        <v>65</v>
-      </c>
-      <c r="N9">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
       </c>
       <c r="O9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P9">
-        <v>31</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
       </c>
       <c r="R9">
         <v>200</v>
@@ -11337,13 +11415,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9">
-        <v>1</v>
+      <c r="V9" t="s">
+        <v>76</v>
       </c>
       <c r="W9" t="s">
         <v>121</v>
@@ -11357,24 +11435,24 @@
         <v>0.4</v>
       </c>
       <c r="Z9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
-        <v>76</v>
+      <c r="D10">
+        <v>28000</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -11386,31 +11464,31 @@
         <v>125</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10">
         <v>40</v>
       </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
       <c r="L10">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>50</v>
       </c>
       <c r="O10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R10">
         <v>200</v>
@@ -11425,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W10" t="s">
         <v>121</v>
@@ -11439,21 +11517,24 @@
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11">
-        <v>32000</v>
+      <c r="D11" t="s">
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
@@ -11468,31 +11549,31 @@
         <v>125</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J11">
+        <v>45</v>
+      </c>
+      <c r="K11">
         <v>40</v>
       </c>
-      <c r="K11">
-        <v>55</v>
-      </c>
       <c r="L11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R11">
         <v>200</v>
@@ -11521,15 +11602,18 @@
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
@@ -11553,28 +11637,28 @@
         <v>80</v>
       </c>
       <c r="J12">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>95</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="O12">
         <v>50</v>
       </c>
-      <c r="O12">
-        <v>29</v>
-      </c>
       <c r="P12">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R12">
         <v>200</v>
@@ -11583,44 +11667,44 @@
         <v>0</v>
       </c>
       <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>3</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
       <c r="W12" t="s">
-        <v>121</v>
-      </c>
-      <c r="X12">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y12">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>153</v>
+      </c>
+      <c r="X12" cm="1">
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y12" cm="1">
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
-        <v>76</v>
+      <c r="D13">
+        <v>17500</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -11632,31 +11716,31 @@
         <v>125</v>
       </c>
       <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>55</v>
+      </c>
+      <c r="L13">
+        <v>55</v>
+      </c>
+      <c r="M13">
         <v>60</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>40</v>
       </c>
-      <c r="K13">
-        <v>65</v>
-      </c>
-      <c r="L13">
-        <v>75</v>
-      </c>
-      <c r="M13">
-        <v>65</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
       <c r="O13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <v>200</v>
@@ -11671,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W13" t="s">
         <v>121</v>
@@ -11685,15 +11769,15 @@
         <v>0.4</v>
       </c>
       <c r="Z13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
@@ -11702,7 +11786,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -11714,31 +11798,31 @@
         <v>125</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L14">
         <v>75</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P14">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R14">
         <v>200</v>
@@ -11753,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W14" t="s">
         <v>121</v>
@@ -11767,21 +11851,21 @@
         <v>0.4</v>
       </c>
       <c r="Z14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>90</v>
       </c>
       <c r="D15">
-        <v>28000</v>
+        <v>85000</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
@@ -11796,31 +11880,31 @@
         <v>125</v>
       </c>
       <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>45</v>
+      </c>
+      <c r="L15">
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>85</v>
+      </c>
+      <c r="N15">
         <v>55</v>
       </c>
-      <c r="J15">
+      <c r="O15">
+        <v>35</v>
+      </c>
+      <c r="P15">
         <v>45</v>
       </c>
-      <c r="K15">
-        <v>60</v>
-      </c>
-      <c r="L15">
-        <v>60</v>
-      </c>
-      <c r="M15">
-        <v>70</v>
-      </c>
-      <c r="N15">
-        <v>45</v>
-      </c>
-      <c r="O15">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>35</v>
-      </c>
       <c r="Q15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R15">
         <v>200</v>
@@ -11838,26 +11922,26 @@
         <v>5</v>
       </c>
       <c r="W15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X15">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y15">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z15" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
@@ -11878,28 +11962,28 @@
         <v>125</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>35</v>
       </c>
       <c r="O16">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -11920,26 +12004,26 @@
         <v>5</v>
       </c>
       <c r="W16" t="s">
-        <v>19</v>
-      </c>
-      <c r="X16">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>36</v>
-      </c>
-      <c r="Y16">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.3</v>
+        <v>153</v>
+      </c>
+      <c r="X16" cm="1">
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y16" cm="1">
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -11960,28 +12044,28 @@
         <v>125</v>
       </c>
       <c r="I17">
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
         <v>55</v>
       </c>
-      <c r="J17">
+      <c r="L17">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17">
         <v>45</v>
-      </c>
-      <c r="K17">
-        <v>60</v>
-      </c>
-      <c r="L17">
-        <v>65</v>
-      </c>
-      <c r="M17">
-        <v>70</v>
-      </c>
-      <c r="N17">
-        <v>40</v>
       </c>
       <c r="O17">
         <v>33</v>
       </c>
       <c r="P17">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -12002,26 +12086,26 @@
         <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="X17">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y17">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Z17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -12030,7 +12114,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -12045,28 +12129,28 @@
         <v>70</v>
       </c>
       <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>70</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18">
         <v>45</v>
       </c>
-      <c r="K18">
-        <v>60</v>
-      </c>
-      <c r="L18">
-        <v>85</v>
-      </c>
-      <c r="M18">
-        <v>65</v>
-      </c>
-      <c r="N18">
-        <v>30</v>
-      </c>
       <c r="O18">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P18">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -12081,35 +12165,35 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="X18">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y18">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Z18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>90</v>
       </c>
       <c r="D19">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
@@ -12124,31 +12208,31 @@
         <v>125</v>
       </c>
       <c r="I19">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J19">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>51</v>
+      </c>
+      <c r="L19">
+        <v>78</v>
+      </c>
+      <c r="M19">
+        <v>58</v>
+      </c>
+      <c r="N19">
         <v>45</v>
       </c>
-      <c r="K19">
-        <v>40</v>
-      </c>
-      <c r="L19">
-        <v>55</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
-      <c r="N19">
-        <v>50</v>
-      </c>
       <c r="O19">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R19">
         <v>200</v>
@@ -12168,33 +12252,30 @@
       <c r="W19" t="s">
         <v>121</v>
       </c>
-      <c r="X19">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X19" cm="1">
+        <f t="array" aca="1" ref="X19" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y19">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y19" cm="1">
+        <f t="array" aca="1" ref="Y19" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" t="s">
-        <v>76</v>
+      <c r="D20">
+        <v>35000</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
@@ -12209,31 +12290,31 @@
         <v>125</v>
       </c>
       <c r="I20">
+        <v>55</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>65</v>
+      </c>
+      <c r="L20">
         <v>70</v>
       </c>
-      <c r="J20">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>40</v>
-      </c>
-      <c r="L20">
-        <v>74</v>
-      </c>
       <c r="M20">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
         <v>35</v>
       </c>
-      <c r="O20">
-        <v>23</v>
-      </c>
-      <c r="P20">
-        <v>33</v>
-      </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R20">
         <v>200</v>
@@ -12262,27 +12343,24 @@
         <v>0.4</v>
       </c>
       <c r="Z20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21">
-        <v>31000</v>
+      <c r="D21" t="s">
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -12294,31 +12372,31 @@
         <v>125</v>
       </c>
       <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>65</v>
+      </c>
+      <c r="L21">
         <v>70</v>
       </c>
-      <c r="J21">
+      <c r="M21">
+        <v>65</v>
+      </c>
+      <c r="N21">
         <v>50</v>
       </c>
-      <c r="K21">
-        <v>55</v>
-      </c>
-      <c r="L21">
-        <v>80</v>
-      </c>
-      <c r="M21">
-        <v>60</v>
-      </c>
-      <c r="N21">
-        <v>45</v>
-      </c>
       <c r="O21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P21">
         <v>35</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21">
         <v>200</v>
@@ -12333,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W21" t="s">
         <v>121</v>
@@ -12350,12 +12428,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -12376,31 +12454,31 @@
         <v>125</v>
       </c>
       <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
         <v>70</v>
       </c>
-      <c r="J22">
+      <c r="M22">
+        <v>65</v>
+      </c>
+      <c r="N22">
         <v>50</v>
       </c>
-      <c r="K22">
-        <v>70</v>
-      </c>
-      <c r="L22">
-        <v>80</v>
-      </c>
-      <c r="M22">
-        <v>60</v>
-      </c>
-      <c r="N22">
-        <v>45</v>
-      </c>
       <c r="O22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P22">
         <v>35</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>200</v>
@@ -12429,21 +12507,21 @@
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="D23">
-        <v>35000</v>
+      <c r="D23" t="s">
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
@@ -12458,28 +12536,28 @@
         <v>125</v>
       </c>
       <c r="I23">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J23">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>50</v>
       </c>
       <c r="O23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>13</v>
@@ -12514,18 +12592,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
-        <v>76</v>
+      <c r="D24">
+        <v>39000</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
@@ -12540,31 +12618,31 @@
         <v>125</v>
       </c>
       <c r="I24">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P24">
         <v>40</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24">
         <v>200</v>
@@ -12582,26 +12660,26 @@
         <v>5</v>
       </c>
       <c r="W24" t="s">
-        <v>121</v>
-      </c>
-      <c r="X24">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y24">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>153</v>
+      </c>
+      <c r="X24" cm="1">
+        <f t="array" aca="1" ref="X24" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y24" cm="1">
+        <f t="array" aca="1" ref="Y24" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="B25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -12610,7 +12688,7 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -12622,31 +12700,31 @@
         <v>125</v>
       </c>
       <c r="I25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J25">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>65</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R25">
         <v>200</v>
@@ -12661,38 +12739,38 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W25" t="s">
-        <v>121</v>
-      </c>
-      <c r="X25">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y25">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>153</v>
+      </c>
+      <c r="X25" cm="1">
+        <f t="array" aca="1" ref="X25" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y25" cm="1">
+        <f t="array" aca="1" ref="Y25" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" t="s">
-        <v>76</v>
+      <c r="D26">
+        <v>17500</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -12704,31 +12782,31 @@
         <v>125</v>
       </c>
       <c r="I26">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J26">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L26">
         <v>70</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N26">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>200</v>
@@ -12737,41 +12815,41 @@
         <v>0</v>
       </c>
       <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>3</v>
       </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
       <c r="W26" t="s">
-        <v>121</v>
-      </c>
-      <c r="X26">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
-      </c>
-      <c r="Y26">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>26</v>
+      </c>
+      <c r="X26" cm="1">
+        <f t="array" aca="1" ref="X26" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y26" cm="1">
+        <f t="array" aca="1" ref="Y26" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>459</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27">
-        <v>39000</v>
+      <c r="D27" t="s">
+        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
@@ -12786,31 +12864,31 @@
         <v>125</v>
       </c>
       <c r="I27">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J27">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M27">
         <v>65</v>
       </c>
       <c r="N27">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O27">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P27">
         <v>40</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>200</v>
@@ -12819,13 +12897,13 @@
         <v>0</v>
       </c>
       <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
         <v>3</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>5</v>
       </c>
       <c r="W27" t="s">
         <v>153</v>
@@ -12839,15 +12917,15 @@
         <v>0.6</v>
       </c>
       <c r="Z27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>90</v>
@@ -12868,31 +12946,31 @@
         <v>125</v>
       </c>
       <c r="I28">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M28">
         <v>60</v>
       </c>
       <c r="N28">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O28">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P28">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R28">
         <v>200</v>
@@ -12901,44 +12979,44 @@
         <v>0</v>
       </c>
       <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
         <v>3</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>5</v>
-      </c>
       <c r="W28" t="s">
-        <v>153</v>
-      </c>
-      <c r="X28" cm="1">
-        <f t="array" aca="1" ref="X28" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
-      </c>
-      <c r="Y28" cm="1">
-        <f t="array" aca="1" ref="Y28" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>121</v>
+      </c>
+      <c r="X28">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y28">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
       </c>
       <c r="Z28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>455</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="D29">
-        <v>17500</v>
+      <c r="D29" t="s">
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -12950,31 +13028,31 @@
         <v>125</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J29">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>55</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M29">
         <v>60</v>
       </c>
       <c r="N29">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P29">
         <v>32</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="R29">
         <v>200</v>
@@ -12983,35 +13061,35 @@
         <v>0</v>
       </c>
       <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
         <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>5</v>
       </c>
       <c r="W29" t="s">
         <v>121</v>
       </c>
-      <c r="X29">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X29" cm="1">
+        <f t="array" aca="1" ref="X29" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y29">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y29" cm="1">
+        <f t="array" aca="1" ref="Y29" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>454</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>90</v>
@@ -13032,31 +13110,31 @@
         <v>125</v>
       </c>
       <c r="I30">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J30">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L30">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O30">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P30">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R30">
         <v>200</v>
@@ -13065,32 +13143,32 @@
         <v>0</v>
       </c>
       <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
         <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>5</v>
       </c>
       <c r="W30" t="s">
         <v>121</v>
       </c>
-      <c r="X30">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X30" cm="1">
+        <f t="array" aca="1" ref="X30" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y30">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y30" cm="1">
+        <f t="array" aca="1" ref="Y30" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -13099,7 +13177,7 @@
         <v>90</v>
       </c>
       <c r="D31">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="E31" t="s">
         <v>76</v>
@@ -13114,31 +13192,31 @@
         <v>125</v>
       </c>
       <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <v>40</v>
+      </c>
+      <c r="K31">
         <v>65</v>
       </c>
-      <c r="J31">
-        <v>45</v>
-      </c>
-      <c r="K31">
+      <c r="L31">
         <v>70</v>
       </c>
-      <c r="L31">
-        <v>80</v>
-      </c>
       <c r="M31">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N31">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O31">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P31">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R31">
         <v>200</v>
@@ -13170,12 +13248,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
@@ -13184,7 +13262,7 @@
         <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -13196,31 +13274,31 @@
         <v>125</v>
       </c>
       <c r="I32">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J32">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M32">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>50</v>
       </c>
       <c r="O32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P32">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R32">
         <v>200</v>
@@ -13235,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W32" t="s">
         <v>121</v>
@@ -13249,15 +13327,15 @@
         <v>0.4</v>
       </c>
       <c r="Z32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>90</v>
@@ -13278,31 +13356,31 @@
         <v>125</v>
       </c>
       <c r="I33">
+        <v>60</v>
+      </c>
+      <c r="J33">
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>70</v>
+      </c>
+      <c r="M33">
         <v>65</v>
       </c>
-      <c r="J33">
-        <v>45</v>
-      </c>
-      <c r="K33">
-        <v>70</v>
-      </c>
-      <c r="L33">
-        <v>80</v>
-      </c>
-      <c r="M33">
-        <v>70</v>
-      </c>
       <c r="N33">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P33">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R33">
         <v>200</v>
@@ -13317,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W33" t="s">
         <v>121</v>
@@ -13331,21 +13409,21 @@
         <v>0.4</v>
       </c>
       <c r="Z33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34">
-        <v>41000</v>
+      <c r="D34" t="s">
+        <v>76</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -13360,31 +13438,31 @@
         <v>125</v>
       </c>
       <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>62</v>
+      </c>
+      <c r="L34">
+        <v>90</v>
+      </c>
+      <c r="M34">
         <v>65</v>
       </c>
-      <c r="J34">
-        <v>45</v>
-      </c>
-      <c r="K34">
-        <v>70</v>
-      </c>
-      <c r="L34">
-        <v>85</v>
-      </c>
-      <c r="M34">
-        <v>75</v>
-      </c>
       <c r="N34">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O34">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P34">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>200</v>
@@ -13402,32 +13480,32 @@
         <v>5</v>
       </c>
       <c r="W34" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="X34">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y34">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Z34" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>90</v>
       </c>
-      <c r="D35" t="s">
-        <v>76</v>
+      <c r="D35">
+        <v>32000</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -13442,31 +13520,31 @@
         <v>125</v>
       </c>
       <c r="I35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J35">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L35">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="M35">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O35">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R35">
         <v>200</v>
@@ -13484,26 +13562,26 @@
         <v>5</v>
       </c>
       <c r="W35" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="X35">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y35">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Z35" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -13524,31 +13602,31 @@
         <v>125</v>
       </c>
       <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36">
         <v>65</v>
       </c>
-      <c r="J36">
-        <v>45</v>
-      </c>
-      <c r="K36">
-        <v>70</v>
-      </c>
       <c r="L36">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M36">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N36">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O36">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P36">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R36">
         <v>200</v>
@@ -13563,38 +13641,38 @@
         <v>1</v>
       </c>
       <c r="V36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="X36">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y36">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Z36" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="D37">
-        <v>85000</v>
+      <c r="D37" t="s">
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -13612,25 +13690,25 @@
         <v>40</v>
       </c>
       <c r="K37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L37">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N37">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O37">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P37">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R37">
         <v>200</v>
@@ -13645,35 +13723,35 @@
         <v>1</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="X37">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y37">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z37" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D38">
-        <v>45000</v>
+      <c r="D38" t="s">
+        <v>76</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
@@ -13688,31 +13766,31 @@
         <v>125</v>
       </c>
       <c r="I38">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J38">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K38">
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <v>95</v>
+      </c>
+      <c r="M38">
         <v>65</v>
       </c>
-      <c r="L38">
-        <v>70</v>
-      </c>
-      <c r="M38">
-        <v>75</v>
-      </c>
       <c r="N38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O38">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P38">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R38">
         <v>200</v>
@@ -13730,71 +13808,71 @@
         <v>5</v>
       </c>
       <c r="W38" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="X38">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Y38">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="Z38" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>201</v>
+      <c r="A39" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>125</v>
+      </c>
+      <c r="I39">
+        <v>55</v>
+      </c>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>60</v>
+      </c>
+      <c r="L39">
+        <v>45</v>
+      </c>
+      <c r="M39">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>100</v>
-      </c>
-      <c r="I39">
-        <v>50</v>
-      </c>
-      <c r="J39">
-        <v>30</v>
-      </c>
-      <c r="K39">
-        <v>65</v>
-      </c>
-      <c r="L39">
-        <v>30</v>
-      </c>
-      <c r="M39">
-        <v>60</v>
-      </c>
       <c r="N39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="P39">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R39">
         <v>200</v>
@@ -13812,32 +13890,32 @@
         <v>5</v>
       </c>
       <c r="W39" t="s">
-        <v>28</v>
-      </c>
-      <c r="X39">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W39,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>51</v>
-      </c>
-      <c r="Y39">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W39,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.7</v>
+        <v>25</v>
+      </c>
+      <c r="X39" cm="1">
+        <f t="array" aca="1" ref="X39" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>43</v>
+      </c>
+      <c r="Y39" cm="1">
+        <f t="array" aca="1" ref="Y39" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.6</v>
       </c>
       <c r="Z39" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>90</v>
       </c>
-      <c r="D40" t="s">
-        <v>76</v>
+      <c r="D40">
+        <v>41000</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
@@ -13852,31 +13930,31 @@
         <v>125</v>
       </c>
       <c r="I40">
+        <v>65</v>
+      </c>
+      <c r="J40">
+        <v>45</v>
+      </c>
+      <c r="K40">
         <v>70</v>
       </c>
-      <c r="J40">
-        <v>40</v>
-      </c>
-      <c r="K40">
-        <v>55</v>
-      </c>
       <c r="L40">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>45</v>
       </c>
       <c r="O40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P40">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>200</v>
@@ -13885,35 +13963,35 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U40">
         <v>1</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W40" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="X40">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y40">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z40" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>90</v>
@@ -13922,7 +14000,7 @@
         <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -13934,31 +14012,31 @@
         <v>125</v>
       </c>
       <c r="I41">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J41">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>70</v>
+      </c>
+      <c r="L41">
+        <v>85</v>
+      </c>
+      <c r="M41">
+        <v>75</v>
+      </c>
+      <c r="N41">
+        <v>45</v>
+      </c>
+      <c r="O41">
         <v>35</v>
       </c>
-      <c r="K41">
-        <v>60</v>
-      </c>
-      <c r="L41">
-        <v>55</v>
-      </c>
-      <c r="M41">
-        <v>55</v>
-      </c>
-      <c r="N41">
+      <c r="P41">
         <v>40</v>
       </c>
-      <c r="O41">
-        <v>33</v>
-      </c>
-      <c r="P41">
-        <v>30</v>
-      </c>
       <c r="Q41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>200</v>
@@ -13967,35 +14045,35 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="X41">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y41">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z41" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>90</v>
@@ -14016,31 +14094,31 @@
         <v>125</v>
       </c>
       <c r="I42">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>67</v>
+      </c>
+      <c r="L42">
+        <v>105</v>
+      </c>
+      <c r="M42">
+        <v>75</v>
+      </c>
+      <c r="N42">
+        <v>45</v>
+      </c>
+      <c r="O42">
         <v>35</v>
       </c>
-      <c r="K42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42">
-        <v>75</v>
-      </c>
-      <c r="M42">
-        <v>45</v>
-      </c>
-      <c r="N42" t="s">
-        <v>76</v>
-      </c>
-      <c r="O42">
-        <v>34</v>
-      </c>
       <c r="P42">
-        <v>25</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
       </c>
       <c r="R42">
         <v>200</v>
@@ -14049,32 +14127,32 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
-      <c r="V42" t="s">
-        <v>76</v>
+      <c r="V42">
+        <v>5</v>
       </c>
       <c r="W42" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="X42">
         <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y42">
         <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z42" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -14082,8 +14160,8 @@
       <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" t="s">
-        <v>76</v>
+      <c r="D43">
+        <v>38000</v>
       </c>
       <c r="E43" t="s">
         <v>76</v>
@@ -14098,31 +14176,31 @@
         <v>125</v>
       </c>
       <c r="I43">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>45</v>
       </c>
       <c r="K43">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M43">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N43">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O43">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P43">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>200</v>
@@ -14140,26 +14218,26 @@
         <v>5</v>
       </c>
       <c r="W43" t="s">
-        <v>25</v>
-      </c>
-      <c r="X43" cm="1">
-        <f t="array" aca="1" ref="X43" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>43</v>
-      </c>
-      <c r="Y43" cm="1">
-        <f t="array" aca="1" ref="Y43" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>121</v>
+      </c>
+      <c r="X43">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W43,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y43">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W43,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
       </c>
       <c r="Z43" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>206</v>
+      <c r="A44" t="s">
+        <v>194</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -14168,7 +14246,7 @@
         <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -14180,31 +14258,31 @@
         <v>125</v>
       </c>
       <c r="I44">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J44">
         <v>45</v>
       </c>
       <c r="K44">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L44">
+        <v>80</v>
+      </c>
+      <c r="M44">
+        <v>70</v>
+      </c>
+      <c r="N44">
         <v>45</v>
       </c>
-      <c r="M44">
-        <v>75</v>
-      </c>
-      <c r="N44">
-        <v>25</v>
-      </c>
       <c r="O44">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P44">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>200</v>
@@ -14222,26 +14300,26 @@
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>25</v>
-      </c>
-      <c r="X44" cm="1">
-        <f t="array" aca="1" ref="X44" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>43</v>
-      </c>
-      <c r="Y44" cm="1">
-        <f t="array" aca="1" ref="Y44" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>121</v>
+      </c>
+      <c r="X44">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W44,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y44">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W44,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
       </c>
       <c r="Z44" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
@@ -14262,31 +14340,31 @@
         <v>125</v>
       </c>
       <c r="I45">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J45">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
+        <v>70</v>
+      </c>
+      <c r="N45">
         <v>50</v>
       </c>
-      <c r="M45">
-        <v>60</v>
-      </c>
-      <c r="N45">
-        <v>35</v>
-      </c>
       <c r="O45">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="P45">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>200</v>
@@ -14304,32 +14382,32 @@
         <v>5</v>
       </c>
       <c r="W45" t="s">
-        <v>19</v>
-      </c>
-      <c r="X45" cm="1">
-        <f t="array" aca="1" ref="X45" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>36</v>
-      </c>
-      <c r="Y45" cm="1">
-        <f t="array" aca="1" ref="Y45" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.3</v>
+        <v>121</v>
+      </c>
+      <c r="X45">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W45,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y45">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W45,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
       </c>
       <c r="Z45" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
-        <v>76</v>
+      <c r="D46">
+        <v>45000</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -14344,31 +14422,31 @@
         <v>125</v>
       </c>
       <c r="I46">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J46">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>65</v>
       </c>
       <c r="L46">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N46">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O46">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="P46">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R46">
         <v>200</v>
@@ -14377,38 +14455,38 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1</v>
       </c>
       <c r="V46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W46" t="s">
-        <v>153</v>
-      </c>
-      <c r="X46" cm="1">
-        <f t="array" aca="1" ref="X46" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
-      </c>
-      <c r="Y46" cm="1">
-        <f t="array" aca="1" ref="Y46" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>28</v>
+      </c>
+      <c r="X46">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W46,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>51</v>
+      </c>
+      <c r="Y46">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W46,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.7</v>
       </c>
       <c r="Z46" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
@@ -14417,40 +14495,40 @@
         <v>76</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
         <v>50</v>
       </c>
-      <c r="H47">
-        <v>125</v>
-      </c>
-      <c r="I47">
-        <v>55</v>
-      </c>
       <c r="J47">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K47">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="L47">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N47">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O47">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R47">
         <v>200</v>
@@ -14468,23 +14546,23 @@
         <v>5</v>
       </c>
       <c r="W47" t="s">
-        <v>153</v>
-      </c>
-      <c r="X47" cm="1">
-        <f t="array" aca="1" ref="X47" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>45</v>
-      </c>
-      <c r="Y47" cm="1">
-        <f t="array" aca="1" ref="Y47" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
-        <v>0.6</v>
+        <v>28</v>
+      </c>
+      <c r="X47">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W47,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>51</v>
+      </c>
+      <c r="Y47">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W47,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.7</v>
       </c>
       <c r="Z47" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>122</v>
       </c>
       <c r="B48">
         <v>23</v>
@@ -14493,7 +14571,7 @@
         <v>90</v>
       </c>
       <c r="D48">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="E48" t="s">
         <v>76</v>
@@ -14508,31 +14586,31 @@
         <v>125</v>
       </c>
       <c r="I48">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L48">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M48">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O48">
+        <v>20</v>
+      </c>
+      <c r="P48">
         <v>30</v>
       </c>
-      <c r="P48">
-        <v>32</v>
-      </c>
       <c r="Q48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R48">
         <v>200</v>
@@ -14552,12 +14630,12 @@
       <c r="W48" t="s">
         <v>121</v>
       </c>
-      <c r="X48" cm="1">
-        <f t="array" aca="1" ref="X48" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X48">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W48,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y48" cm="1">
-        <f t="array" aca="1" ref="Y48" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y48">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W48,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z48" t="s">
@@ -14566,10 +14644,10 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>455</v>
+        <v>123</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>90</v>
@@ -14578,7 +14656,7 @@
         <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -14590,31 +14668,31 @@
         <v>125</v>
       </c>
       <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>75</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
         <v>60</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>40</v>
       </c>
-      <c r="K49">
-        <v>60</v>
-      </c>
-      <c r="L49">
-        <v>90</v>
-      </c>
-      <c r="M49">
-        <v>50</v>
-      </c>
-      <c r="N49">
-        <v>60</v>
-      </c>
       <c r="O49">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q49">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R49">
         <v>200</v>
@@ -14623,35 +14701,35 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U49">
         <v>1</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W49" t="s">
         <v>121</v>
       </c>
-      <c r="X49" cm="1">
-        <f t="array" aca="1" ref="X49" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X49">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W49,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y49" cm="1">
-        <f t="array" aca="1" ref="Y49" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y49">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W49,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z49" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>90</v>
@@ -14660,7 +14738,7 @@
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -14669,34 +14747,34 @@
         <v>50</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I50">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J50">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>55</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N50">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R50">
         <v>200</v>
@@ -14705,23 +14783,23 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W50" t="s">
         <v>121</v>
       </c>
-      <c r="X50" cm="1">
-        <f t="array" aca="1" ref="X50" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="X50">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W50,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>37</v>
       </c>
-      <c r="Y50" cm="1">
-        <f t="array" aca="1" ref="Y50" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y50">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W50,Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z50" t="s">
@@ -14729,12 +14807,176 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X51" t="e" cm="1">
-        <f t="array" aca="1" ref="X51" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>40000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>125</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>40</v>
+      </c>
+      <c r="K51">
+        <v>52</v>
+      </c>
+      <c r="L51">
+        <v>60</v>
+      </c>
+      <c r="M51">
+        <v>65</v>
+      </c>
+      <c r="N51">
+        <v>60</v>
+      </c>
+      <c r="O51">
+        <v>22</v>
+      </c>
+      <c r="P51">
+        <v>32</v>
+      </c>
+      <c r="Q51">
+        <v>12</v>
+      </c>
+      <c r="R51">
+        <v>200</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51" t="s">
+        <v>121</v>
+      </c>
+      <c r="X51">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W51,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y51">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W51,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>125</v>
+      </c>
+      <c r="I52">
+        <v>65</v>
+      </c>
+      <c r="J52">
+        <v>40</v>
+      </c>
+      <c r="K52">
+        <v>52</v>
+      </c>
+      <c r="L52">
+        <v>80</v>
+      </c>
+      <c r="M52">
+        <v>60</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>27</v>
+      </c>
+      <c r="P52">
+        <v>37</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+      <c r="R52">
+        <v>200</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>5</v>
+      </c>
+      <c r="W52" t="s">
+        <v>121</v>
+      </c>
+      <c r="X52">
+        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W52,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y52">
+        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W52,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X53" t="e" cm="1">
+        <f t="array" aca="1" ref="X53" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="Y51" t="e" cm="1">
-        <f t="array" aca="1" ref="Y51" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+      <c r="Y53" t="e" cm="1">
+        <f t="array" aca="1" ref="Y53" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -17072,13 +17314,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -17149,18 +17391,18 @@
         <v>0.6</v>
       </c>
       <c r="Z2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3">
         <v>50000</v>
@@ -17231,18 +17473,18 @@
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4">
         <v>56500</v>
@@ -17302,7 +17544,7 @@
         <v>15</v>
       </c>
       <c r="W4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X4" cm="1">
         <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
@@ -17313,18 +17555,18 @@
         <v>0.7</v>
       </c>
       <c r="Z4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5">
         <v>65000</v>
@@ -17395,18 +17637,18 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6">
         <v>53000</v>
@@ -17477,18 +17719,18 @@
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7">
         <v>54000</v>
@@ -17559,18 +17801,18 @@
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8">
         <v>49000</v>
@@ -17641,7 +17883,7 @@
         <v>0.3</v>
       </c>
       <c r="Z8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -17772,13 +18014,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -17852,18 +18094,18 @@
         <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3">
         <v>61500</v>
@@ -17934,15 +18176,15 @@
         <v>0.2</v>
       </c>
       <c r="Z3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA3" t="s">
         <v>230</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -18019,21 +18261,21 @@
         <v>0.2</v>
       </c>
       <c r="Z4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5">
         <v>87000</v>
@@ -18107,18 +18349,18 @@
         <v>82</v>
       </c>
       <c r="AA5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -18192,12 +18434,12 @@
         <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -18277,7 +18519,7 @@
         <v>82</v>
       </c>
       <c r="AA7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -18393,7 +18635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267CB94-F403-4C06-9DA6-8F4CDE36DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393EE2D0-7BA1-47F4-9F0F-F579633BCC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Units" sheetId="11" r:id="rId11"/>
     <sheet name="Enemy Weapons" sheetId="12" r:id="rId12"/>
     <sheet name="Missions" sheetId="13" r:id="rId13"/>
+    <sheet name="Todo" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="474">
   <si>
     <t>Name</t>
   </si>
@@ -646,9 +647,6 @@
   </si>
   <si>
     <t>Hk416 (MASS)</t>
-  </si>
-  <si>
-    <t>Needs a nerf imo, should not out compete all AP pistol rounds and some rifle rounds -wethan2</t>
   </si>
   <si>
     <t>[2]</t>
@@ -1564,6 +1562,51 @@
   </si>
   <si>
     <t>M14 EBR (Scoped)</t>
+  </si>
+  <si>
+    <t>Incideary shotgun shells</t>
+  </si>
+  <si>
+    <t>Serbu breaching ammo</t>
+  </si>
+  <si>
+    <t>Move over weapons from submod</t>
+  </si>
+  <si>
+    <t>Just a list of things that are planing on being done in no particular order or priority so we don’t forget about them</t>
+  </si>
+  <si>
+    <t>Mp7 sprite(s)</t>
+  </si>
+  <si>
+    <t>RK 62 sprite(s)</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Launched blade</t>
+  </si>
+  <si>
+    <t>Used for balistic knife, which is not in this spreadsheat</t>
+  </si>
+  <si>
+    <t>6.5mm CBJ</t>
+  </si>
+  <si>
+    <t>[30,100]</t>
+  </si>
+  <si>
+    <t>Pistol double tap?</t>
+  </si>
+  <si>
+    <t>Was mentioned at one point, don’t know if we had plans though</t>
+  </si>
+  <si>
+    <t>CBJ-MS SAW</t>
+  </si>
+  <si>
+    <t>CBJ-MS</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1643,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1733,8 +1776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1891,11 +1940,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2010,6 +2068,12 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2088,6 +2152,12 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2622,8 +2692,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I10" totalsRowShown="0" tableBorderDxfId="45">
-  <autoFilter ref="B1:I10" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}" name="Table5" displayName="Table5" ref="B1:I11" totalsRowShown="0" tableBorderDxfId="45">
+  <autoFilter ref="B1:I11" xr:uid="{CA5ADB4B-FA5C-4198-B176-74B13C9070CD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{085F0113-80A5-4D7F-B00C-4888CB135866}" name="Name"/>
     <tableColumn id="2" xr3:uid="{83162986-E3B5-4977-9B14-D30075C4E5BC}" name="Power"/>
@@ -2714,8 +2784,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B11:I22" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="B11:I22" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}" name="Table6" displayName="Table6" ref="B12:I23" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="B12:I23" xr:uid="{A4EBB74B-543A-4247-8D65-0E143A9BEBA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8C7ABBF-D256-4E65-A96F-CB8C79043F13}" name="Name"/>
     <tableColumn id="2" xr3:uid="{FF6CFE34-0508-4CB9-AB47-C96085BF18D3}" name="Power" dataDxfId="42"/>
@@ -2731,8 +2801,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B23:I29" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B23:I29" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B24:I30" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="B24:I30" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="33"/>
@@ -2748,8 +2818,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B30:I41" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B30:I41" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B31:I42" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B31:I42" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
     <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="25"/>
@@ -2805,6 +2875,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:Z14" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z14">
+    <sortCondition descending="1" ref="M1:M14"/>
+  </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{5824021B-BC67-48E1-A206-55414C872ECA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7BB258F7-AFED-4B27-85A4-1E53CEF19717}" name="weight"/>
@@ -3246,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,7 +3522,7 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="83"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3457,16 +3530,13 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
         <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>176</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="11"/>
@@ -3475,9 +3545,9 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="83"/>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -3492,36 +3562,25 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="85"/>
       <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>18</v>
@@ -3540,25 +3599,33 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="A12" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
       <c r="M12" s="14" t="s">
         <v>19</v>
       </c>
@@ -3576,22 +3643,25 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="M13" s="15" t="s">
         <v>20</v>
       </c>
@@ -3611,13 +3681,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3644,13 +3714,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -3677,13 +3747,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -3710,10 +3780,10 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0.6</v>
@@ -3743,13 +3813,13 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -3776,10 +3846,10 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>0.7</v>
@@ -3809,13 +3879,13 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -3842,13 +3912,13 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3875,10 +3945,10 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3891,32 +3961,21 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>33</v>
@@ -3941,29 +4000,33 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
       <c r="M24" s="14" t="s">
         <v>34</v>
       </c>
@@ -3987,28 +4050,29 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>0.7</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="M25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4034,28 +4098,25 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>37</v>
@@ -4082,13 +4143,13 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -4101,6 +4162,9 @@
       </c>
       <c r="H27">
         <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>38</v>
@@ -4127,22 +4191,22 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4172,57 +4236,52 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>100</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>41</v>
@@ -4245,28 +4304,32 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>42</v>
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>43</v>
@@ -4288,27 +4351,28 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>44</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>45</v>
@@ -4333,7 +4397,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -4342,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>47</v>
@@ -4375,25 +4439,25 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>49</v>
@@ -4418,13 +4482,13 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -4433,7 +4497,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>50</v>
@@ -4457,16 +4524,16 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4497,16 +4564,16 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4536,10 +4603,10 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4576,16 +4643,16 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D39">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4596,9 +4663,80 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>140</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>467</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4632,80 +4770,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="54" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="P1" s="52" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="27">
         <v>4</v>
@@ -4731,13 +4869,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>258</v>
-      </c>
       <c r="O3" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P3" s="27">
         <v>0</v>
@@ -4745,7 +4883,7 @@
     </row>
     <row r="4" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="33">
         <v>4</v>
@@ -4775,13 +4913,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="N4" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="O4" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P4" s="33">
         <v>0</v>
@@ -4789,7 +4927,7 @@
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="27">
         <v>30</v>
@@ -4823,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>258</v>
-      </c>
       <c r="O5" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P5" s="27">
         <v>0</v>
@@ -4837,7 +4975,7 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="33">
         <v>30</v>
@@ -4871,13 +5009,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="O6" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P6" s="33">
         <v>0</v>
@@ -4885,7 +5023,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="27">
         <v>30</v>
@@ -4919,13 +5057,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P7" s="27">
         <v>0</v>
@@ -4933,7 +5071,7 @@
     </row>
     <row r="8" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="33">
         <v>30</v>
@@ -4967,13 +5105,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P8" s="33">
         <v>0</v>
@@ -4981,7 +5119,7 @@
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="27">
         <v>30</v>
@@ -5015,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N9" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>266</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>267</v>
       </c>
       <c r="P9" s="27">
         <v>100</v>
@@ -5029,7 +5167,7 @@
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="33">
         <v>30</v>
@@ -5063,13 +5201,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="N10" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="O10" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P10" s="33">
         <v>100</v>
@@ -5077,7 +5215,7 @@
     </row>
     <row r="11" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="33">
         <v>35</v>
@@ -5113,13 +5251,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N11" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="N11" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="O11" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P11" s="33">
         <v>0</v>
@@ -5127,7 +5265,7 @@
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="33">
         <v>35</v>
@@ -5163,13 +5301,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="N12" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="O12" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P12" s="33">
         <v>0</v>
@@ -5177,7 +5315,7 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
@@ -5203,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P13" s="27">
         <v>0</v>
@@ -5217,7 +5355,7 @@
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="33">
         <v>4</v>
@@ -5247,13 +5385,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P14" s="33">
         <v>0</v>
@@ -5261,7 +5399,7 @@
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="27">
         <v>30</v>
@@ -5295,13 +5433,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P15" s="27">
         <v>0</v>
@@ -5309,7 +5447,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="33">
         <v>30</v>
@@ -5343,13 +5481,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P16" s="33">
         <v>0</v>
@@ -5357,7 +5495,7 @@
     </row>
     <row r="17" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="27">
         <v>30</v>
@@ -5391,13 +5529,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P17" s="27">
         <v>0</v>
@@ -5405,7 +5543,7 @@
     </row>
     <row r="18" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="33">
         <v>30</v>
@@ -5439,13 +5577,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P18" s="33">
         <v>0</v>
@@ -5453,7 +5591,7 @@
     </row>
     <row r="19" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B19" s="27">
         <v>30</v>
@@ -5487,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N19" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>266</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>267</v>
       </c>
       <c r="P19" s="27">
         <v>100</v>
@@ -5501,7 +5639,7 @@
     </row>
     <row r="20" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="33">
         <v>30</v>
@@ -5535,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N20" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O20" s="33" t="s">
         <v>266</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>267</v>
       </c>
       <c r="P20" s="33">
         <v>100</v>
@@ -5549,7 +5687,7 @@
     </row>
     <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="27">
         <v>4</v>
@@ -5577,13 +5715,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P21" s="27">
         <v>0</v>
@@ -5591,7 +5729,7 @@
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="33">
         <v>4</v>
@@ -5623,13 +5761,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P22" s="33">
         <v>0</v>
@@ -5637,7 +5775,7 @@
     </row>
     <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="27">
         <v>30</v>
@@ -5673,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P23" s="27">
         <v>0</v>
@@ -5687,7 +5825,7 @@
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="33">
         <v>30</v>
@@ -5723,13 +5861,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P24" s="33">
         <v>0</v>
@@ -5737,7 +5875,7 @@
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="27">
         <v>30</v>
@@ -5773,13 +5911,13 @@
         <v>1</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -5787,7 +5925,7 @@
     </row>
     <row r="26" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="33">
         <v>30</v>
@@ -5823,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P26" s="33">
         <v>100</v>
@@ -5837,7 +5975,7 @@
     </row>
     <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" s="27">
         <v>30</v>
@@ -5873,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P27" s="27">
         <v>100</v>
@@ -5887,7 +6025,7 @@
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" s="33">
         <v>30</v>
@@ -5923,13 +6061,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P28" s="33">
         <v>0</v>
@@ -5937,7 +6075,7 @@
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="27">
         <v>40</v>
@@ -5973,13 +6111,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P29" s="27">
         <v>0</v>
@@ -5987,7 +6125,7 @@
     </row>
     <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30" s="33">
         <v>40</v>
@@ -6023,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P30" s="33">
         <v>0</v>
@@ -6037,7 +6175,7 @@
     </row>
     <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="27">
         <v>40</v>
@@ -6073,13 +6211,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P31" s="27">
         <v>100</v>
@@ -6087,7 +6225,7 @@
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="33">
         <v>30</v>
@@ -6123,13 +6261,13 @@
         <v>0.3</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P32" s="33">
         <v>0</v>
@@ -6169,87 +6307,87 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>299</v>
-      </c>
       <c r="F2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>314</v>
-      </c>
       <c r="K2" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L2" s="33">
         <v>100</v>
@@ -6260,15 +6398,15 @@
         <v>200000</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
-        <v>339</v>
+      <c r="A3" s="61" t="s">
+        <v>338</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="22">
         <v>80</v>
@@ -6301,18 +6439,18 @@
         <v>50</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>316</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>317</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="22">
         <v>70</v>
@@ -6345,18 +6483,18 @@
         <v>40</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="22">
         <v>60</v>
@@ -6389,18 +6527,18 @@
         <v>25</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="22">
         <v>65</v>
@@ -6433,18 +6571,18 @@
         <v>20</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="22">
         <v>75</v>
@@ -6477,18 +6615,18 @@
         <v>20</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" s="22">
         <v>60</v>
@@ -6521,18 +6659,18 @@
         <v>15</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="22">
         <v>60</v>
@@ -6565,18 +6703,18 @@
         <v>30</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="22">
         <v>60</v>
@@ -6609,20 +6747,20 @@
         <v>30</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>328</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>329</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>340</v>
+      <c r="A11" s="61" t="s">
+        <v>339</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -6640,9 +6778,9 @@
       <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="22">
         <v>90</v>
@@ -6675,18 +6813,18 @@
         <v>50</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>331</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="22">
         <v>70</v>
@@ -6719,18 +6857,18 @@
         <v>30</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="22">
         <v>75</v>
@@ -6763,18 +6901,18 @@
         <v>30</v>
       </c>
       <c r="M14" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="22">
         <v>85</v>
@@ -6807,18 +6945,18 @@
         <v>30</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="22">
         <v>75</v>
@@ -6851,18 +6989,18 @@
         <v>30</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="22">
         <v>75</v>
@@ -6895,18 +7033,18 @@
         <v>30</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="22">
         <v>70</v>
@@ -6939,10 +7077,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="N18" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>336</v>
       </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
@@ -6979,63 +7117,63 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="60" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="47" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="47" t="s">
-        <v>351</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>145</v>
@@ -7044,218 +7182,218 @@
         <v>145</v>
       </c>
       <c r="G3" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" s="62"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>301</v>
+      <c r="A5" s="65"/>
+      <c r="B5" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>300</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" s="60" t="s">
+      <c r="F6" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="E9" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="48" t="s">
+      <c r="F10" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="66"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="48" t="s">
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>322</v>
+      <c r="C14" s="64" t="s">
+        <v>321</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>169</v>
@@ -7264,58 +7402,58 @@
         <v>169</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="47" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="47" t="s">
-        <v>351</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="61"/>
+        <v>178</v>
+      </c>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>169</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="62"/>
+        <v>178</v>
+      </c>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>324</v>
+      <c r="A17" s="65"/>
+      <c r="B17" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>323</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>11</v>
@@ -7324,18 +7462,18 @@
         <v>111</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>11</v>
@@ -7344,98 +7482,98 @@
         <v>111</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="H18" s="61"/>
+        <v>356</v>
+      </c>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G19" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="F20" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="H21" s="61"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>327</v>
-      </c>
       <c r="D23" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>149</v>
@@ -7446,34 +7584,34 @@
       <c r="G23" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="60" t="s">
-        <v>360</v>
+      <c r="H23" s="64" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="G24" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="61"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>149</v>
@@ -7484,385 +7622,385 @@
       <c r="G25" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="72"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C29" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D29" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="65"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="80"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="65"/>
+      <c r="B35" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="65"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" s="79" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="65"/>
+      <c r="B38" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="64" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="65"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="66"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
+      <c r="B41" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="67"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="68"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="60" t="s">
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="60" t="s">
+      <c r="E42" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="65"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="79" t="s">
+        <v>386</v>
+      </c>
+      <c r="F43" s="80"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="66"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="74"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>384</v>
-      </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="60" t="s">
+      <c r="E45" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="65"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="66"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="62"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="60" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="61"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>386</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="61"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>387</v>
-      </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="62"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
-      <c r="B44" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E45" s="72" t="s">
+      <c r="E48" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="61"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>389</v>
-      </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="62"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>390</v>
-      </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="61"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="65"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="E49" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="62"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -7950,7 +8088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC8BAE7-4B1E-4B8C-8AF9-C5EAA5B2467F}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -7969,114 +8107,114 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>404</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="C2" s="33">
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <v>0</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="K2" s="50">
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <v>0</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>409</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>410</v>
       </c>
       <c r="O2" s="33">
         <v>300</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="27">
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
@@ -8088,13 +8226,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K3" s="51">
         <v>0</v>
@@ -8103,80 +8241,80 @@
         <v>0</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O3" s="27">
         <v>400</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="K4" s="50">
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="O4" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>416</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>417</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>418</v>
       </c>
       <c r="C5" s="27">
         <v>20</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E5" s="27">
         <v>0</v>
@@ -8185,48 +8323,48 @@
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K5" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>445</v>
-      </c>
       <c r="M5" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>410</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C6" s="33">
         <v>10</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="33">
         <v>0</v>
@@ -8238,13 +8376,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K6" s="50">
         <v>0</v>
@@ -8253,30 +8391,30 @@
         <v>0</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O6" s="33">
         <v>500</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
@@ -8285,132 +8423,132 @@
         <v>2</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>427</v>
-      </c>
       <c r="O8" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="27">
         <v>24</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
       </c>
       <c r="F9" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>432</v>
-      </c>
       <c r="H9" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>436</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N9" s="27">
         <v>999</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -8422,13 +8560,174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FC119D-A7BC-46FE-BE1D-3900F19AB624}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W14" sqref="W14"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8611,7 +8910,7 @@
       </c>
       <c r="X2">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V2,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="s">
         <v>92</v>
@@ -8619,7 +8918,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -8682,7 +8981,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W3" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDEX(Caliber!B2:'Caliber'!C10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B10,0),2)</f>
@@ -8696,7 +8995,7 @@
         <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -9091,7 +9390,7 @@
       </c>
       <c r="X8">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y8" t="s">
         <v>94</v>
@@ -9585,7 +9884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9694,55 +9993,55 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
+      <c r="D2">
+        <v>25000</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>115</v>
       </c>
       <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>35</v>
-      </c>
       <c r="K2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -9768,33 +10067,33 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>456</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>115</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>20</v>
@@ -9803,22 +10102,22 @@
         <v>35</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
         <v>30</v>
@@ -9847,60 +10146,60 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>107</v>
+      <c r="A4" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
       <c r="D4">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>115</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>55</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -9915,29 +10214,32 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="10">
+        <v>15</v>
+      </c>
+      <c r="W4">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X4" s="10">
+        <v>33</v>
+      </c>
+      <c r="X4">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>108</v>
+      <c r="A5" t="s">
+        <v>110</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>18000</v>
@@ -9996,33 +10298,30 @@
       <c r="V5" t="s">
         <v>15</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>33</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V5,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Y5" t="s">
         <v>109</v>
       </c>
-      <c r="Z5" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
       </c>
       <c r="D6">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -10034,31 +10333,31 @@
         <v>115</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>55</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q6">
         <v>35</v>
@@ -10076,71 +10375,71 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W6" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X6" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>15000</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>115</v>
       </c>
       <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
         <v>35</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
       </c>
       <c r="K7">
         <v>50</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -10155,38 +10454,38 @@
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="W7">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X7">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>473</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>115</v>
@@ -10198,28 +10497,28 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M8">
         <v>40</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -10234,71 +10533,71 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="10">
-        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X8" s="10">
-        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="W8" s="10" cm="1">
+        <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="X8" s="10" cm="1">
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>0.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
       <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
       <c r="J9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>50</v>
       </c>
       <c r="L9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -10313,38 +10612,38 @@
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W9">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>115</v>
@@ -10353,31 +10652,31 @@
         <v>25</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
         <v>55</v>
-      </c>
-      <c r="L10">
-        <v>75</v>
       </c>
       <c r="M10">
         <v>40</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -10403,21 +10702,21 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11">
-        <v>23000</v>
+      <c r="D11" t="s">
+        <v>76</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -10429,34 +10728,34 @@
         <v>115</v>
       </c>
       <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
         <v>30</v>
       </c>
-      <c r="I11">
-        <v>25</v>
-      </c>
       <c r="J11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>50</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -10471,32 +10770,32 @@
         <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="W11">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>114</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
       </c>
       <c r="D12">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -10508,80 +10807,80 @@
         <v>115</v>
       </c>
       <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
       <c r="J12">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <v>30</v>
       </c>
       <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
         <v>8</v>
       </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
+      <c r="Q12">
+        <v>40</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>5</v>
-      </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="10">
+        <v>14</v>
+      </c>
+      <c r="W12">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X12" s="10">
+        <v>35</v>
+      </c>
+      <c r="X12">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="D13">
-        <v>18000</v>
+      <c r="D13" t="s">
+        <v>76</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>115</v>
@@ -10590,31 +10889,31 @@
         <v>30</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L13">
         <v>60</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -10631,26 +10930,95 @@
       <c r="V13" t="s">
         <v>12</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W14" s="10" t="e">
+      <c r="A14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>25000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" s="10" t="e">
+        <v>31</v>
+      </c>
+      <c r="X14" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V14,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -10665,7 +11033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10784,7 +11152,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -10853,11 +11221,11 @@
         <v>19</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z2" t="s">
@@ -10935,11 +11303,11 @@
         <v>19</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W3,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W3,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z3" t="s">
@@ -11017,11 +11385,11 @@
         <v>19</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W4,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W4,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z4" t="s">
@@ -11099,11 +11467,11 @@
         <v>25</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W5,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W5,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
@@ -11181,11 +11549,11 @@
         <v>25</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W6,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W6,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z6" t="s">
@@ -11194,7 +11562,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -11263,11 +11631,11 @@
         <v>25</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z7" t="s">
@@ -11276,7 +11644,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -11345,11 +11713,11 @@
         <v>121</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W8,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W8,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z8" t="s">
@@ -11358,7 +11726,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -11427,11 +11795,11 @@
         <v>121</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W9,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W9,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z9" t="s">
@@ -11509,11 +11877,11 @@
         <v>121</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
@@ -11594,11 +11962,11 @@
         <v>121</v>
       </c>
       <c r="X11">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W11,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y11">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W11,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
@@ -11610,7 +11978,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -11679,11 +12047,11 @@
         <v>153</v>
       </c>
       <c r="X12" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y12" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
@@ -11761,11 +12129,11 @@
         <v>121</v>
       </c>
       <c r="X13">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W13,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y13">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W13,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z13" t="s">
@@ -11774,7 +12142,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -11843,11 +12211,11 @@
         <v>121</v>
       </c>
       <c r="X14">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W14,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y14">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W14,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z14" t="s">
@@ -11856,7 +12224,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -11925,11 +12293,11 @@
         <v>18</v>
       </c>
       <c r="X15">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W15,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>35</v>
       </c>
       <c r="Y15">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W15,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z15" t="s">
@@ -11938,7 +12306,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>33</v>
@@ -12007,15 +12375,15 @@
         <v>153</v>
       </c>
       <c r="X16" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y16" cm="1">
-        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -12089,11 +12457,11 @@
         <v>121</v>
       </c>
       <c r="X17">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W17,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y17">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W17,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z17" t="s">
@@ -12171,11 +12539,11 @@
         <v>121</v>
       </c>
       <c r="X18">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W18,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y18">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W18,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z18" t="s">
@@ -12184,7 +12552,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -12253,11 +12621,11 @@
         <v>121</v>
       </c>
       <c r="X19" cm="1">
-        <f t="array" aca="1" ref="X19" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X19" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y19" cm="1">
-        <f t="array" aca="1" ref="Y19" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y19" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z19" t="s">
@@ -12335,11 +12703,11 @@
         <v>121</v>
       </c>
       <c r="X20">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W20,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y20">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W20,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z20" t="s">
@@ -12417,11 +12785,11 @@
         <v>121</v>
       </c>
       <c r="X21">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W21,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y21">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W21,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z21" t="s">
@@ -12499,11 +12867,11 @@
         <v>121</v>
       </c>
       <c r="X22">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W22,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y22">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W22,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
@@ -12581,11 +12949,11 @@
         <v>121</v>
       </c>
       <c r="X23">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W23,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y23">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W23,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z23" t="s">
@@ -12594,7 +12962,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>31</v>
@@ -12663,11 +13031,11 @@
         <v>153</v>
       </c>
       <c r="X24" cm="1">
-        <f t="array" aca="1" ref="X24" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X24" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y24" cm="1">
-        <f t="array" aca="1" ref="Y24" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y24" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z24" t="s">
@@ -12676,7 +13044,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -12745,11 +13113,11 @@
         <v>153</v>
       </c>
       <c r="X25" cm="1">
-        <f t="array" aca="1" ref="X25" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X25" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y25" cm="1">
-        <f t="array" aca="1" ref="Y25" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y25" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z25" t="s">
@@ -12758,7 +13126,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -12827,11 +13195,11 @@
         <v>26</v>
       </c>
       <c r="X26" cm="1">
-        <f t="array" aca="1" ref="X26" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X26" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y26" cm="1">
-        <f t="array" aca="1" ref="Y26" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y26" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z26" t="s">
@@ -12840,7 +13208,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -12909,11 +13277,11 @@
         <v>153</v>
       </c>
       <c r="X27" cm="1">
-        <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y27" cm="1">
-        <f t="array" aca="1" ref="Y27" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y27" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z27" t="s">
@@ -12922,7 +13290,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28">
         <v>22</v>
@@ -12991,11 +13359,11 @@
         <v>121</v>
       </c>
       <c r="X28">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W28,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y28">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W28,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z28" t="s">
@@ -13004,7 +13372,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -13016,7 +13384,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -13073,11 +13441,11 @@
         <v>121</v>
       </c>
       <c r="X29" cm="1">
-        <f t="array" aca="1" ref="X29" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X29" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y29" cm="1">
-        <f t="array" aca="1" ref="Y29" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y29" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z29" t="s">
@@ -13086,7 +13454,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -13155,11 +13523,11 @@
         <v>121</v>
       </c>
       <c r="X30" cm="1">
-        <f t="array" aca="1" ref="X30" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X30" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y30" cm="1">
-        <f t="array" aca="1" ref="Y30" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y30" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z30" t="s">
@@ -13237,11 +13605,11 @@
         <v>121</v>
       </c>
       <c r="X31">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W31,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W31,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y31">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W31,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W31,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z31" t="s">
@@ -13319,11 +13687,11 @@
         <v>121</v>
       </c>
       <c r="X32">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W32,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W32,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y32">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W32,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W32,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z32" t="s">
@@ -13401,11 +13769,11 @@
         <v>121</v>
       </c>
       <c r="X33">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W33,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W33,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y33">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W33,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W33,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z33" t="s">
@@ -13483,11 +13851,11 @@
         <v>121</v>
       </c>
       <c r="X34">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W34,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y34">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W34,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W34,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z34" t="s">
@@ -13565,11 +13933,11 @@
         <v>121</v>
       </c>
       <c r="X35">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W35,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y35">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W35,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W35,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z35" t="s">
@@ -13647,11 +14015,11 @@
         <v>121</v>
       </c>
       <c r="X36">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W36,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y36">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W36,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W36,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z36" t="s">
@@ -13729,11 +14097,11 @@
         <v>121</v>
       </c>
       <c r="X37">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W37,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y37">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W37,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W37,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z37" t="s">
@@ -13811,11 +14179,11 @@
         <v>121</v>
       </c>
       <c r="X38">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W38,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y38">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W38,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W38,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z38" t="s">
@@ -13824,7 +14192,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -13893,11 +14261,11 @@
         <v>25</v>
       </c>
       <c r="X39" cm="1">
-        <f t="array" aca="1" ref="X39" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X39" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y39" cm="1">
-        <f t="array" aca="1" ref="Y39" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y39" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z39" t="s">
@@ -13906,7 +14274,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -13975,11 +14343,11 @@
         <v>153</v>
       </c>
       <c r="X40">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W40,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y40">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W40,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W40,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z40" t="s">
@@ -13988,7 +14356,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -14057,20 +14425,20 @@
         <v>153</v>
       </c>
       <c r="X41">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W41,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y41">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W41,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W41,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -14139,11 +14507,11 @@
         <v>153</v>
       </c>
       <c r="X42">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W42,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y42">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W42,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W42,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z42" t="s">
@@ -14152,7 +14520,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -14221,11 +14589,11 @@
         <v>121</v>
       </c>
       <c r="X43">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W43,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W43,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y43">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W43,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W43,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z43" t="s">
@@ -14234,7 +14602,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44">
         <v>34</v>
@@ -14303,11 +14671,11 @@
         <v>121</v>
       </c>
       <c r="X44">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W44,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W44,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y44">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W44,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W44,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z44" t="s">
@@ -14316,7 +14684,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -14385,11 +14753,11 @@
         <v>121</v>
       </c>
       <c r="X45">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W45,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W45,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y45">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W45,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W45,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z45" t="s">
@@ -14398,7 +14766,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -14467,11 +14835,11 @@
         <v>28</v>
       </c>
       <c r="X46">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W46,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W46,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y46">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W46,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W46,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z46" t="s">
@@ -14480,7 +14848,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -14549,11 +14917,11 @@
         <v>28</v>
       </c>
       <c r="X47">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W47,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W47,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y47">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W47,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W47,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z47" t="s">
@@ -14631,11 +14999,11 @@
         <v>121</v>
       </c>
       <c r="X48">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W48,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W48,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y48">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W48,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W48,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z48" t="s">
@@ -14713,11 +15081,11 @@
         <v>121</v>
       </c>
       <c r="X49">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W49,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W49,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y49">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W49,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W49,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z49" t="s">
@@ -14795,11 +15163,11 @@
         <v>121</v>
       </c>
       <c r="X50">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W50,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W50,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y50">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W50,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W50,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z50" t="s">
@@ -14877,11 +15245,11 @@
         <v>121</v>
       </c>
       <c r="X51">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W51,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W51,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y51">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W51,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W51,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z51" t="s">
@@ -14959,11 +15327,11 @@
         <v>121</v>
       </c>
       <c r="X52">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W52,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W52,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y52">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W52,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W52,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z52" t="s">
@@ -14972,11 +15340,11 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X53" t="e" cm="1">
-        <f t="array" aca="1" ref="X53" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X53" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y53" t="e" cm="1">
-        <f t="array" aca="1" ref="Y53" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y53" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15178,11 +15546,11 @@
         <v>121</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W2,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W2,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W2,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z2" t="s">
@@ -15260,11 +15628,11 @@
         <v>25</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W3,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>43</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W3,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W3,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z3" t="s">
@@ -15342,11 +15710,11 @@
         <v>153</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W4,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W4,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W4,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z4" t="s">
@@ -15424,11 +15792,11 @@
         <v>153</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W5,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W5,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W5,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
@@ -15506,11 +15874,11 @@
         <v>28</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W6,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>51</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W6,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W6,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z6" t="s">
@@ -15588,11 +15956,11 @@
         <v>27</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W7,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>49</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W7,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W7,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z7" t="s">
@@ -15670,11 +16038,11 @@
         <v>31</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W8,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>75</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W8,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W8,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z8" t="s">
@@ -15752,11 +16120,11 @@
         <v>30</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W9,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>61</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W9,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W9,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.8</v>
       </c>
       <c r="Z9" t="s">
@@ -15834,11 +16202,11 @@
         <v>153</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W10,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z10" t="s">
@@ -15916,11 +16284,11 @@
         <v>30</v>
       </c>
       <c r="X11">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W11,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>61</v>
       </c>
       <c r="Y11">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W11,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W11,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.8</v>
       </c>
       <c r="Z11" t="s">
@@ -15998,11 +16366,11 @@
         <v>153</v>
       </c>
       <c r="X12">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W12,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y12">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W12,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W12,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
@@ -16080,11 +16448,11 @@
         <v>29</v>
       </c>
       <c r="X13">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W13,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>70</v>
       </c>
       <c r="Y13">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W13,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W13,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z13" t="s">
@@ -16093,171 +16461,171 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W14,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W14,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W14,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W15,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W15,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W15,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W16,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W16,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W16,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X17" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W17,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y17" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W17,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W17,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X18" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W18,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y18" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W18,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W18,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X19" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W19,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y19" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W19,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W19,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X20" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W20,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y20" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W20,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W20,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X21" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W21,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y21" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W21,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W21,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X22" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W22,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y22" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W22,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W22,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X23" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W23,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y23" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W23,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W23,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X24" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W24,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y24" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W24,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W24,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X25" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W25,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y25" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W25,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W25,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X26" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W26,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y26" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W26,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W26,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X27" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W27,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W27,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y27" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W27,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W27,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X28" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W28,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y28" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W28,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W28,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X29" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W29,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y29" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W29,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W29,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X30" t="e">
-        <f>INDEX(Caliber!B12:'Caliber'!C22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W30,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y30" t="e">
-        <f>INDEX(Caliber!C12:'Caliber'!D22,MATCH(W30,Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f>INDEX(Caliber!C13:'Caliber'!D23,MATCH(W30,Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16462,24 +16830,24 @@
         <v>33</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z2">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W2,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -16548,15 +16916,15 @@
         <v>33</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z3">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W3,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
@@ -16565,7 +16933,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -16634,27 +17002,27 @@
         <v>33</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z4">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W4,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" t="s">
         <v>180</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -16723,27 +17091,27 @@
         <v>33</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z5">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W5,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB5" t="s">
         <v>180</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -16812,27 +17180,27 @@
         <v>37</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>20</v>
       </c>
       <c r="Z6">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W6,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>37</v>
@@ -16901,27 +17269,27 @@
         <v>33</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z7">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W7,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB7" t="s">
         <v>186</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -16990,27 +17358,27 @@
         <v>33</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z8">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W8,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB8" t="s">
         <v>186</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>42</v>
@@ -17079,27 +17447,27 @@
         <v>33</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z9">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W9,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB9" t="s">
         <v>186</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -17168,22 +17536,22 @@
         <v>33</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B24:'Caliber'!C29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!B24:'Caliber'!D29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z10">
-        <f>INDEX(Caliber!B24:'Caliber'!F29,MATCH(W10,Caliber!B24:'Caliber'!B29,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB10" t="s">
         <v>186</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -17196,11 +17564,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0094531B-7BBB-4DD3-8835-99962592A6C6}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17314,13 +17682,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -17383,26 +17751,26 @@
         <v>26</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3">
         <v>50000</v>
@@ -17465,26 +17833,26 @@
         <v>121</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4">
         <v>56500</v>
@@ -17544,29 +17912,29 @@
         <v>15</v>
       </c>
       <c r="W4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>49</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.7</v>
       </c>
       <c r="Z4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>65000</v>
@@ -17629,26 +17997,26 @@
         <v>26</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>45</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>53000</v>
@@ -17711,26 +18079,26 @@
         <v>121</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7">
         <v>54000</v>
@@ -17793,26 +18161,26 @@
         <v>121</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>37</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8">
         <v>49000</v>
@@ -17875,15 +18243,97 @@
         <v>19</v>
       </c>
       <c r="X8" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B12:'Caliber'!C22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>36</v>
       </c>
       <c r="Y8" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C12:'Caliber'!D22,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B12:'Caliber'!B22,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C13:'Caliber'!D23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B13:'Caliber'!B23,0),2)</f>
         <v>0.3</v>
       </c>
       <c r="Z8" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>145</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9" t="s">
+        <v>468</v>
+      </c>
+      <c r="X9" cm="1">
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="Y9" cm="1">
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -18014,13 +18464,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -18083,29 +18533,29 @@
         <v>41</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z2" t="s">
         <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3">
         <v>61500</v>
@@ -18168,23 +18618,23 @@
         <v>41</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA3" t="s">
         <v>229</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -18253,29 +18703,29 @@
         <v>41</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>87000</v>
@@ -18338,29 +18788,29 @@
         <v>49</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>200</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z5" t="s">
         <v>82</v>
       </c>
       <c r="AA5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -18423,23 +18873,23 @@
         <v>51</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>150</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z6" t="s">
         <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -18508,107 +18958,107 @@
         <v>52</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>190</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z7" t="s">
         <v>82</v>
       </c>
       <c r="AA7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X8" t="e" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y8" t="e" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X9" t="e" cm="1">
-        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e" cm="1">
-        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X10" t="e" cm="1">
-        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y10" t="e" cm="1">
-        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X11" t="e" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y11" t="e" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X12" t="e" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y12" t="e" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X13" t="e" cm="1">
-        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e" cm="1">
-        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e" cm="1">
-        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e" cm="1">
-        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e" cm="1">
-        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e" cm="1">
-        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B31:'Caliber'!C39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e" cm="1">
-        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C31:'Caliber'!D39,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B31:'Caliber'!B39,0),2)</f>
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -18635,7 +19085,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393EE2D0-7BA1-47F4-9F0F-F579633BCC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB7E2E-F448-4C29-846D-0EEADFC8CD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="24885" yWindow="2790" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2074,6 +2074,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2107,24 +2109,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2152,12 +2136,27 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3522,7 +3521,7 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>446</v>
       </c>
@@ -3566,7 +3565,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
+      <c r="A11" s="57"/>
       <c r="B11" t="s">
         <v>468</v>
       </c>
@@ -3599,7 +3598,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -4770,43 +4769,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="58" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="21" t="s">
         <v>246</v>
       </c>
@@ -4834,12 +4833,12 @@
       <c r="J2" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -6402,7 +6401,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>338</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -6448,7 +6447,7 @@
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="33" t="s">
         <v>300</v>
       </c>
@@ -6492,7 +6491,7 @@
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="27" t="s">
         <v>317</v>
       </c>
@@ -6536,7 +6535,7 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="33" t="s">
         <v>319</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="27" t="s">
         <v>321</v>
       </c>
@@ -6624,7 +6623,7 @@
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="33" t="s">
         <v>323</v>
       </c>
@@ -6668,7 +6667,7 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="27" t="s">
         <v>325</v>
       </c>
@@ -6712,7 +6711,7 @@
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="33" t="s">
         <v>326</v>
       </c>
@@ -6756,7 +6755,7 @@
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="63" t="s">
         <v>339</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -6778,7 +6777,7 @@
       <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="33" t="s">
         <v>300</v>
       </c>
@@ -6822,7 +6821,7 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="27" t="s">
         <v>331</v>
       </c>
@@ -6866,7 +6865,7 @@
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="33" t="s">
         <v>319</v>
       </c>
@@ -6910,7 +6909,7 @@
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="27" t="s">
         <v>288</v>
       </c>
@@ -6954,7 +6953,7 @@
       <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="33" t="s">
         <v>323</v>
       </c>
@@ -6998,7 +6997,7 @@
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="27" t="s">
         <v>317</v>
       </c>
@@ -7042,7 +7041,7 @@
       <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="33" t="s">
         <v>326</v>
       </c>
@@ -7143,13 +7142,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="66" t="s">
         <v>299</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7164,14 +7163,14 @@
       <c r="G2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="47" t="s">
         <v>350</v>
       </c>
@@ -7184,12 +7183,12 @@
       <c r="G3" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="48" t="s">
         <v>352</v>
       </c>
@@ -7202,14 +7201,14 @@
       <c r="G4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -7224,14 +7223,14 @@
       <c r="G5" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="47" t="s">
         <v>350</v>
       </c>
@@ -7244,12 +7243,12 @@
       <c r="G6" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="48" t="s">
         <v>352</v>
       </c>
@@ -7262,14 +7261,14 @@
       <c r="G7" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="66" t="s">
         <v>317</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -7284,14 +7283,14 @@
       <c r="G8" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="66" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="47" t="s">
         <v>350</v>
       </c>
@@ -7304,12 +7303,12 @@
       <c r="G9" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="48" t="s">
         <v>352</v>
       </c>
@@ -7322,14 +7321,14 @@
       <c r="G10" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -7344,14 +7343,14 @@
       <c r="G11" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="47" t="s">
         <v>350</v>
       </c>
@@ -7364,12 +7363,12 @@
       <c r="G12" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="48" t="s">
         <v>352</v>
       </c>
@@ -7382,14 +7381,14 @@
       <c r="G13" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>321</v>
       </c>
       <c r="D14" s="46" t="s">
@@ -7404,14 +7403,14 @@
       <c r="G14" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="47" t="s">
         <v>350</v>
       </c>
@@ -7424,12 +7423,12 @@
       <c r="G15" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="48" t="s">
         <v>352</v>
       </c>
@@ -7442,14 +7441,14 @@
       <c r="G16" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>323</v>
       </c>
       <c r="D17" s="46" t="s">
@@ -7464,14 +7463,14 @@
       <c r="G17" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="66" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="47" t="s">
         <v>350</v>
       </c>
@@ -7484,12 +7483,12 @@
       <c r="G18" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="48" t="s">
         <v>352</v>
       </c>
@@ -7502,14 +7501,14 @@
       <c r="G19" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="66" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -7524,14 +7523,14 @@
       <c r="G20" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="66" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="47" t="s">
         <v>350</v>
       </c>
@@ -7544,12 +7543,12 @@
       <c r="G21" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="48" t="s">
         <v>352</v>
       </c>
@@ -7562,14 +7561,14 @@
       <c r="G22" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="H22" s="66"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="66" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="46" t="s">
@@ -7584,14 +7583,14 @@
       <c r="G23" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="66" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="47" t="s">
         <v>350</v>
       </c>
@@ -7604,12 +7603,12 @@
       <c r="G24" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="48" t="s">
         <v>352</v>
       </c>
@@ -7622,421 +7621,413 @@
       <c r="G25" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>299</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="71"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="82"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="72"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="66" t="s">
         <v>300</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="64" t="s">
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="65"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="66"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="66" t="s">
         <v>331</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="64" t="s">
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="65"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="66"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="64" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="66" t="s">
         <v>319</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="64" t="s">
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="65"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="66"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="66" t="s">
         <v>288</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="64" t="s">
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="66" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="65"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="79" t="s">
+      <c r="E40" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="66"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="66" t="s">
         <v>323</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="64" t="s">
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="65"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="66"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="64" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>317</v>
       </c>
       <c r="D44" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="64" t="s">
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="65"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="79" t="s">
+      <c r="E46" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="66"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="66" t="s">
         <v>326</v>
       </c>
       <c r="D47" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="64" t="s">
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="66" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="65"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="66"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8053,31 +8044,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8575,24 +8574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -9882,9 +9881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17566,7 +17565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0094531B-7BBB-4DD3-8835-99962592A6C6}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB7E2E-F448-4C29-846D-0EEADFC8CD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B8C7F-214E-4436-BF7D-ECC2BCCA416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24885" yWindow="2790" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>CBJ-MS</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
 </sst>
 </file>
@@ -2109,6 +2112,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2135,24 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2985,8 +2988,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}" name="Table1" displayName="Table1" ref="A1:AB10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:AB10" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}" name="Table1" displayName="Table1" ref="A1:AB11" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:AB11" xr:uid="{AEDA3547-9A13-4490-8F2C-86A75C183266}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{FDEE9766-F3A6-4F13-BA12-421285A2A455}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D410D561-60F9-4F73-9A13-43B6913A0690}" name="weight"/>
@@ -3321,7 +3324,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -4151,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4199,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4268,7 +4271,7 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -7636,10 +7639,10 @@
       <c r="D26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
@@ -7648,10 +7651,10 @@
       <c r="D27" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="82"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
@@ -7660,10 +7663,10 @@
       <c r="D28" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="83"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
@@ -7676,11 +7679,11 @@
       <c r="D29" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="66" t="s">
         <v>349</v>
       </c>
@@ -7692,11 +7695,11 @@
       <c r="D30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7706,11 +7709,11 @@
       <c r="D31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7724,11 +7727,11 @@
       <c r="D32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="66" t="s">
         <v>349</v>
       </c>
@@ -7740,11 +7743,11 @@
       <c r="D33" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7754,11 +7757,11 @@
       <c r="D34" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="81" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7772,11 +7775,11 @@
       <c r="D35" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="66" t="s">
         <v>349</v>
       </c>
@@ -7788,11 +7791,11 @@
       <c r="D36" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7802,11 +7805,11 @@
       <c r="D37" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7820,11 +7823,11 @@
       <c r="D38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="66" t="s">
         <v>384</v>
       </c>
@@ -7836,11 +7839,11 @@
       <c r="D39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7850,11 +7853,11 @@
       <c r="D40" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7868,11 +7871,11 @@
       <c r="D41" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="66" t="s">
         <v>349</v>
       </c>
@@ -7884,11 +7887,11 @@
       <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7898,11 +7901,11 @@
       <c r="D43" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7916,11 +7919,11 @@
       <c r="D44" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="66" t="s">
         <v>349</v>
       </c>
@@ -7932,11 +7935,11 @@
       <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7946,11 +7949,11 @@
       <c r="D46" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7964,11 +7967,11 @@
       <c r="D47" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="66" t="s">
         <v>349</v>
       </c>
@@ -7980,11 +7983,11 @@
       <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,24 +7997,64 @@
       <c r="D49" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8028,55 +8071,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9881,7 +9884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
@@ -11033,10 +11036,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16638,11 +16641,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF758D-66BB-49AA-8233-CCB9E398E093}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16781,7 +16784,7 @@
         <v>115</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>65</v>
@@ -16867,7 +16870,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>60</v>
@@ -16953,7 +16956,7 @@
         <v>115</v>
       </c>
       <c r="H4">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -17042,7 +17045,7 @@
         <v>115</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>55</v>
@@ -17131,7 +17134,7 @@
         <v>115</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>55</v>
@@ -17220,7 +17223,7 @@
         <v>115</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>40</v>
@@ -17309,7 +17312,7 @@
         <v>115</v>
       </c>
       <c r="H8">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>40</v>
@@ -17398,7 +17401,7 @@
         <v>115</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -17487,7 +17490,7 @@
         <v>115</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -17551,6 +17554,95 @@
       </c>
       <c r="AB10" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>21000</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11">
+        <v>110</v>
+      </c>
+      <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" cm="1">
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B25:'Caliber'!C30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B25:'Caliber'!B30,0),2)</f>
+        <v>25</v>
+      </c>
+      <c r="Y11" cm="1">
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!B25:'Caliber'!D30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B25:'Caliber'!B30,0),3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z11" cm="1">
+        <f t="array" aca="1" ref="Z11" ca="1">INDEX(Caliber!B25:'Caliber'!F30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-3)),Caliber!B25:'Caliber'!B30,0),5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B8C7F-214E-4436-BF7D-ECC2BCCA416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119970D-F38C-442C-BA71-1870B2E0C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -2112,24 +2112,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2156,6 +2138,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3025,9 +3025,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3065,7 +3065,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3171,7 +3171,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3313,7 +3313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7639,10 +7639,10 @@
       <c r="D26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
@@ -7651,10 +7651,10 @@
       <c r="D27" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="73"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="82"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
@@ -7663,10 +7663,10 @@
       <c r="D28" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="74"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
@@ -7679,11 +7679,11 @@
       <c r="D29" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="66" t="s">
         <v>349</v>
       </c>
@@ -7695,11 +7695,11 @@
       <c r="D30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7709,11 +7709,11 @@
       <c r="D31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7727,11 +7727,11 @@
       <c r="D32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="66" t="s">
         <v>349</v>
       </c>
@@ -7743,11 +7743,11 @@
       <c r="D33" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7757,11 +7757,11 @@
       <c r="D34" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7775,11 +7775,11 @@
       <c r="D35" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="66" t="s">
         <v>349</v>
       </c>
@@ -7791,11 +7791,11 @@
       <c r="D36" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7805,11 +7805,11 @@
       <c r="D37" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7823,11 +7823,11 @@
       <c r="D38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="66" t="s">
         <v>384</v>
       </c>
@@ -7839,11 +7839,11 @@
       <c r="D39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7853,11 +7853,11 @@
       <c r="D40" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7871,11 +7871,11 @@
       <c r="D41" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="66" t="s">
         <v>349</v>
       </c>
@@ -7887,11 +7887,11 @@
       <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7901,11 +7901,11 @@
       <c r="D43" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7919,11 +7919,11 @@
       <c r="D44" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="66" t="s">
         <v>349</v>
       </c>
@@ -7935,11 +7935,11 @@
       <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7949,11 +7949,11 @@
       <c r="D46" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,11 +7967,11 @@
       <c r="D47" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="66" t="s">
         <v>349</v>
       </c>
@@ -7983,11 +7983,11 @@
       <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7997,48 +7997,40 @@
       <c r="D49" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="83"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8055,31 +8047,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9884,9 +9884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,7 +10478,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>20000</v>
@@ -11036,7 +11036,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Y39" sqref="Y39"/>
@@ -16643,7 +16643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF758D-66BB-49AA-8233-CCB9E398E093}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119970D-F38C-442C-BA71-1870B2E0C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BA872-6057-4B56-883C-2772185146CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -1570,9 +1570,6 @@
     <t>Serbu breaching ammo</t>
   </si>
   <si>
-    <t>Move over weapons from submod</t>
-  </si>
-  <si>
     <t>Just a list of things that are planing on being done in no particular order or priority so we don’t forget about them</t>
   </si>
   <si>
@@ -1610,6 +1607,9 @@
   </si>
   <si>
     <t>M3</t>
+  </si>
+  <si>
+    <t>Hand, floor, &amp; mag sprites</t>
   </si>
 </sst>
 </file>
@@ -2112,6 +2112,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2138,24 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,7 +3570,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -4722,7 +4722,7 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C44">
         <v>40</v>
@@ -4737,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7639,10 +7639,10 @@
       <c r="D26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
@@ -7651,10 +7651,10 @@
       <c r="D27" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="82"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
@@ -7663,10 +7663,10 @@
       <c r="D28" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="83"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
@@ -7679,11 +7679,11 @@
       <c r="D29" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="66" t="s">
         <v>349</v>
       </c>
@@ -7695,11 +7695,11 @@
       <c r="D30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7709,11 +7709,11 @@
       <c r="D31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7727,11 +7727,11 @@
       <c r="D32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="66" t="s">
         <v>349</v>
       </c>
@@ -7743,11 +7743,11 @@
       <c r="D33" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7757,11 +7757,11 @@
       <c r="D34" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="81" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7775,11 +7775,11 @@
       <c r="D35" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="66" t="s">
         <v>349</v>
       </c>
@@ -7791,11 +7791,11 @@
       <c r="D36" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7805,11 +7805,11 @@
       <c r="D37" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7823,11 +7823,11 @@
       <c r="D38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="66" t="s">
         <v>384</v>
       </c>
@@ -7839,11 +7839,11 @@
       <c r="D39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7853,11 +7853,11 @@
       <c r="D40" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7871,11 +7871,11 @@
       <c r="D41" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="66" t="s">
         <v>349</v>
       </c>
@@ -7887,11 +7887,11 @@
       <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7901,11 +7901,11 @@
       <c r="D43" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7919,11 +7919,11 @@
       <c r="D44" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="66" t="s">
         <v>349</v>
       </c>
@@ -7935,11 +7935,11 @@
       <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7949,11 +7949,11 @@
       <c r="D46" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,11 +7967,11 @@
       <c r="D47" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="66" t="s">
         <v>349</v>
       </c>
@@ -7983,11 +7983,11 @@
       <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7997,24 +7997,64 @@
       <c r="D49" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8031,55 +8071,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8567,7 +8567,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8578,7 +8578,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="52"/>
@@ -8613,28 +8613,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>461</v>
-      </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>470</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9884,9 +9883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,7 +10158,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>18000</v>
@@ -10472,7 +10471,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -10535,7 +10534,7 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W8" s="10" cm="1">
         <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -10546,7 +10545,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -17558,7 +17557,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -18347,7 +18346,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -18413,7 +18412,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X9" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -18424,7 +18423,7 @@
         <v>0.35</v>
       </c>
       <c r="Z9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BA872-6057-4B56-883C-2772185146CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F21D9-561B-4CB6-8FAA-2C3669571EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -2112,24 +2112,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2156,6 +2138,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,10 +7639,10 @@
       <c r="D26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
@@ -7651,10 +7651,10 @@
       <c r="D27" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="73"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="82"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
@@ -7663,10 +7663,10 @@
       <c r="D28" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="74"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
@@ -7679,11 +7679,11 @@
       <c r="D29" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="66" t="s">
         <v>349</v>
       </c>
@@ -7695,11 +7695,11 @@
       <c r="D30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7709,11 +7709,11 @@
       <c r="D31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7727,11 +7727,11 @@
       <c r="D32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="66" t="s">
         <v>349</v>
       </c>
@@ -7743,11 +7743,11 @@
       <c r="D33" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7757,11 +7757,11 @@
       <c r="D34" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7775,11 +7775,11 @@
       <c r="D35" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="66" t="s">
         <v>349</v>
       </c>
@@ -7791,11 +7791,11 @@
       <c r="D36" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7805,11 +7805,11 @@
       <c r="D37" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7823,11 +7823,11 @@
       <c r="D38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="66" t="s">
         <v>384</v>
       </c>
@@ -7839,11 +7839,11 @@
       <c r="D39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7853,11 +7853,11 @@
       <c r="D40" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7871,11 +7871,11 @@
       <c r="D41" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="66" t="s">
         <v>349</v>
       </c>
@@ -7887,11 +7887,11 @@
       <c r="D42" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7901,11 +7901,11 @@
       <c r="D43" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7919,11 +7919,11 @@
       <c r="D44" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="66" t="s">
         <v>349</v>
       </c>
@@ -7935,11 +7935,11 @@
       <c r="D45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7949,11 +7949,11 @@
       <c r="D46" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,11 +7967,11 @@
       <c r="D47" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="66" t="s">
         <v>349</v>
       </c>
@@ -7983,11 +7983,11 @@
       <c r="D48" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7997,48 +7997,40 @@
       <c r="D49" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="83"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8055,31 +8047,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9883,9 +9883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10215,18 +10215,18 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W4">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V4,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Z4" t="s">
         <v>120</v>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F21D9-561B-4CB6-8FAA-2C3669571EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63DFC7-025D-44AE-BA82-AB9436178875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="474">
   <si>
     <t>Name</t>
   </si>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>[20,30]</t>
-  </si>
-  <si>
-    <t>Needs stats, just a p90 rn</t>
   </si>
   <si>
     <t>5.56mm</t>
@@ -1564,24 +1561,15 @@
     <t>M14 EBR (Scoped)</t>
   </si>
   <si>
-    <t>Incideary shotgun shells</t>
-  </si>
-  <si>
     <t>Serbu breaching ammo</t>
   </si>
   <si>
     <t>Just a list of things that are planing on being done in no particular order or priority so we don’t forget about them</t>
   </si>
   <si>
-    <t>Mp7 sprite(s)</t>
-  </si>
-  <si>
     <t>RK 62 sprite(s)</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Launched blade</t>
   </si>
   <si>
@@ -1609,7 +1597,16 @@
     <t>M3</t>
   </si>
   <si>
-    <t>Hand, floor, &amp; mag sprites</t>
+    <t>Add MP7 &amp; Inc shotgun ammo to drawio file</t>
+  </si>
+  <si>
+    <t>12G Incendiary</t>
+  </si>
+  <si>
+    <t>Sets things on fire</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1643,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,6 +1779,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,7 +1959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2079,6 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,6 +2116,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2138,24 +2160,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2803,8 +2807,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B24:I30" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B24:I30" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B24:I31" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="B24:I31" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="33"/>
@@ -2820,8 +2824,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B31:I42" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B31:I42" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B32:I43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B32:I43" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
     <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="25"/>
@@ -3321,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3553,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -3564,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -3716,7 +3720,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>37</v>
@@ -4193,13 +4197,13 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4212,6 +4216,9 @@
       </c>
       <c r="H28">
         <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>472</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>39</v>
@@ -4238,22 +4245,22 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4262,28 +4269,25 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>36</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>41</v>
@@ -4306,32 +4310,30 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>56</v>
+      <c r="A31" s="7"/>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>43</v>
@@ -4353,28 +4355,32 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>42</v>
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>45</v>
@@ -4397,27 +4403,28 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>44</v>
+      <c r="A33" s="8"/>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>47</v>
@@ -4441,7 +4448,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -4450,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>49</v>
@@ -4484,25 +4491,25 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>50</v>
@@ -4526,13 +4533,13 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -4541,7 +4548,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>51</v>
@@ -4566,16 +4576,16 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4605,16 +4615,16 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4645,10 +4655,10 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4666,16 +4676,16 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D40">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4686,58 +4696,79 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>140</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>464</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>56</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>57</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45">
         <v>40</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>6</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>7</v>
       </c>
-      <c r="I44" t="s">
-        <v>466</v>
+      <c r="I45" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4787,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4772,80 +4803,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="58" t="s">
+      <c r="L1" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="O1" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="P1" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="58" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="27">
         <v>4</v>
@@ -4871,13 +4902,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>257</v>
-      </c>
       <c r="O3" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P3" s="27">
         <v>0</v>
@@ -4885,7 +4916,7 @@
     </row>
     <row r="4" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="33">
         <v>4</v>
@@ -4915,13 +4946,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N4" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="O4" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P4" s="33">
         <v>0</v>
@@ -4929,7 +4960,7 @@
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="27">
         <v>30</v>
@@ -4963,13 +4994,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>257</v>
-      </c>
       <c r="O5" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P5" s="27">
         <v>0</v>
@@ -4977,7 +5008,7 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="33">
         <v>30</v>
@@ -5011,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="O6" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P6" s="33">
         <v>0</v>
@@ -5025,7 +5056,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="27">
         <v>30</v>
@@ -5059,13 +5090,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P7" s="27">
         <v>0</v>
@@ -5073,7 +5104,7 @@
     </row>
     <row r="8" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="33">
         <v>30</v>
@@ -5107,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P8" s="33">
         <v>0</v>
@@ -5121,7 +5152,7 @@
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="27">
         <v>30</v>
@@ -5155,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N9" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>265</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>266</v>
       </c>
       <c r="P9" s="27">
         <v>100</v>
@@ -5169,7 +5200,7 @@
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="33">
         <v>30</v>
@@ -5203,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N10" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="O10" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P10" s="33">
         <v>100</v>
@@ -5217,7 +5248,7 @@
     </row>
     <row r="11" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="33">
         <v>35</v>
@@ -5253,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N11" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="O11" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P11" s="33">
         <v>0</v>
@@ -5267,7 +5298,7 @@
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="33">
         <v>35</v>
@@ -5303,13 +5334,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N12" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="O12" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P12" s="33">
         <v>0</v>
@@ -5317,7 +5348,7 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
@@ -5343,13 +5374,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P13" s="27">
         <v>0</v>
@@ -5357,7 +5388,7 @@
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="33">
         <v>4</v>
@@ -5387,13 +5418,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P14" s="33">
         <v>0</v>
@@ -5401,7 +5432,7 @@
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="27">
         <v>30</v>
@@ -5435,13 +5466,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P15" s="27">
         <v>0</v>
@@ -5449,7 +5480,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="33">
         <v>30</v>
@@ -5483,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P16" s="33">
         <v>0</v>
@@ -5497,7 +5528,7 @@
     </row>
     <row r="17" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" s="27">
         <v>30</v>
@@ -5531,13 +5562,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P17" s="27">
         <v>0</v>
@@ -5545,7 +5576,7 @@
     </row>
     <row r="18" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="33">
         <v>30</v>
@@ -5579,13 +5610,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P18" s="33">
         <v>0</v>
@@ -5593,7 +5624,7 @@
     </row>
     <row r="19" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="27">
         <v>30</v>
@@ -5627,13 +5658,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N19" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>265</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>266</v>
       </c>
       <c r="P19" s="27">
         <v>100</v>
@@ -5641,7 +5672,7 @@
     </row>
     <row r="20" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="33">
         <v>30</v>
@@ -5675,13 +5706,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N20" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O20" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>266</v>
       </c>
       <c r="P20" s="33">
         <v>100</v>
@@ -5689,7 +5720,7 @@
     </row>
     <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="27">
         <v>4</v>
@@ -5717,13 +5748,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P21" s="27">
         <v>0</v>
@@ -5731,7 +5762,7 @@
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="33">
         <v>4</v>
@@ -5763,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P22" s="33">
         <v>0</v>
@@ -5777,7 +5808,7 @@
     </row>
     <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="27">
         <v>30</v>
@@ -5813,13 +5844,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P23" s="27">
         <v>0</v>
@@ -5827,7 +5858,7 @@
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="33">
         <v>30</v>
@@ -5863,13 +5894,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P24" s="33">
         <v>0</v>
@@ -5877,7 +5908,7 @@
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="27">
         <v>30</v>
@@ -5913,13 +5944,13 @@
         <v>1</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -5927,7 +5958,7 @@
     </row>
     <row r="26" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="33">
         <v>30</v>
@@ -5963,13 +5994,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P26" s="33">
         <v>100</v>
@@ -5977,7 +6008,7 @@
     </row>
     <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="27">
         <v>30</v>
@@ -6013,13 +6044,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P27" s="27">
         <v>100</v>
@@ -6027,7 +6058,7 @@
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="33">
         <v>30</v>
@@ -6063,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P28" s="33">
         <v>0</v>
@@ -6077,7 +6108,7 @@
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" s="27">
         <v>40</v>
@@ -6113,13 +6144,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P29" s="27">
         <v>0</v>
@@ -6127,7 +6158,7 @@
     </row>
     <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="33">
         <v>40</v>
@@ -6163,13 +6194,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P30" s="33">
         <v>0</v>
@@ -6177,7 +6208,7 @@
     </row>
     <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="27">
         <v>40</v>
@@ -6213,13 +6244,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P31" s="27">
         <v>100</v>
@@ -6227,7 +6258,7 @@
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="33">
         <v>30</v>
@@ -6263,13 +6294,13 @@
         <v>0.3</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P32" s="33">
         <v>0</v>
@@ -6309,87 +6340,87 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>298</v>
-      </c>
       <c r="F2" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>313</v>
-      </c>
       <c r="K2" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L2" s="33">
         <v>100</v>
@@ -6400,15 +6431,15 @@
         <v>200000</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>338</v>
+      <c r="A3" s="64" t="s">
+        <v>337</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="22">
         <v>80</v>
@@ -6441,18 +6472,18 @@
         <v>50</v>
       </c>
       <c r="M3" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>315</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>316</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="22">
         <v>70</v>
@@ -6485,18 +6516,18 @@
         <v>40</v>
       </c>
       <c r="M4" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="22">
         <v>60</v>
@@ -6529,18 +6560,18 @@
         <v>25</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="22">
         <v>65</v>
@@ -6573,18 +6604,18 @@
         <v>20</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="22">
         <v>75</v>
@@ -6617,18 +6648,18 @@
         <v>20</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" s="22">
         <v>60</v>
@@ -6661,18 +6692,18 @@
         <v>15</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" s="22">
         <v>60</v>
@@ -6705,18 +6736,18 @@
         <v>30</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="22">
         <v>60</v>
@@ -6749,20 +6780,20 @@
         <v>30</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>327</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>328</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
-        <v>339</v>
+      <c r="A11" s="64" t="s">
+        <v>338</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -6780,9 +6811,9 @@
       <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" s="22">
         <v>90</v>
@@ -6815,18 +6846,18 @@
         <v>50</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>329</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>330</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="22">
         <v>70</v>
@@ -6859,18 +6890,18 @@
         <v>30</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" s="22">
         <v>75</v>
@@ -6903,18 +6934,18 @@
         <v>30</v>
       </c>
       <c r="M14" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" s="22">
         <v>85</v>
@@ -6947,18 +6978,18 @@
         <v>30</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="22">
         <v>75</v>
@@ -6991,18 +7022,18 @@
         <v>30</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="22">
         <v>75</v>
@@ -7035,18 +7066,18 @@
         <v>30</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="22">
         <v>70</v>
@@ -7079,10 +7110,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="N18" s="33" t="s">
         <v>334</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>335</v>
       </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
@@ -7101,7 +7132,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7119,343 +7150,343 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="66" t="s">
+      <c r="E2" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="H3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="H4" s="68"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>300</v>
-      </c>
       <c r="D5" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" s="66" t="s">
+      <c r="F6" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="47" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="E9" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="H6" s="67"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="48" t="s">
+      <c r="F10" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="67"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" s="67"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="48" t="s">
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>321</v>
+      <c r="C14" s="67" t="s">
+        <v>320</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="47" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="47" t="s">
-        <v>350</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="67"/>
+        <v>177</v>
+      </c>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="68"/>
+        <v>177</v>
+      </c>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>323</v>
+      <c r="A17" s="68"/>
+      <c r="B17" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>322</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>11</v>
@@ -7464,18 +7495,18 @@
         <v>111</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>359</v>
+        <v>366</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>11</v>
@@ -7484,537 +7515,577 @@
         <v>111</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="H18" s="67"/>
+        <v>355</v>
+      </c>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G19" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="H19" s="68"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="66" t="s">
+      <c r="C20" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="F20" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="H22" s="69"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D23" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="69"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
+      <c r="B29" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="68"/>
+      <c r="B32" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="83"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="69"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="68"/>
+      <c r="B35" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="69"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="68"/>
+      <c r="B38" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="68"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="68"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="69"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" s="48" t="s">
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="68"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="82" t="s">
+        <v>385</v>
+      </c>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="69"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="68"/>
+      <c r="B44" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>387</v>
+      </c>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="68"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" s="83"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="69"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="68"/>
+      <c r="B47" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="H22" s="68"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="68"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="82"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="83"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="66" t="s">
+      <c r="C47" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="67"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>383</v>
-      </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="68"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="66" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="67"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="68"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
-      <c r="B41" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="67"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>386</v>
-      </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="68"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
-      <c r="B44" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E45" s="72" t="s">
+      <c r="E48" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="67"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="68"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>389</v>
-      </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="67"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="68"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="68"/>
+        <v>351</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="83"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8031,55 +8102,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8109,114 +8140,114 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>405</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>406</v>
       </c>
       <c r="C2" s="33">
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <v>0</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="50">
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <v>0</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>408</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>409</v>
       </c>
       <c r="O2" s="33">
         <v>300</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="27">
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
@@ -8228,13 +8259,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K3" s="51">
         <v>0</v>
@@ -8243,80 +8274,80 @@
         <v>0</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O3" s="27">
         <v>400</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="K4" s="50">
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="O4" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>415</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>416</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>417</v>
       </c>
       <c r="C5" s="27">
         <v>20</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5" s="27">
         <v>0</v>
@@ -8325,48 +8356,48 @@
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K5" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>444</v>
-      </c>
       <c r="M5" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>409</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="33">
         <v>10</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E6" s="33">
         <v>0</v>
@@ -8378,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K6" s="50">
         <v>0</v>
@@ -8393,30 +8424,30 @@
         <v>0</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O6" s="33">
         <v>500</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>422</v>
-      </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
@@ -8425,132 +8456,132 @@
         <v>2</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>426</v>
-      </c>
       <c r="O8" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="27">
         <v>24</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
       </c>
       <c r="F9" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>431</v>
-      </c>
       <c r="H9" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>435</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N9" s="27">
         <v>999</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -8566,8 +8597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8577,51 +8608,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="84"/>
+      <c r="A1" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="85"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>459</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>474</v>
-      </c>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B7" s="14"/>
     </row>
@@ -8630,13 +8654,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8727,7 +8754,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -8919,7 +8946,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -8982,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W3" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDEX(Caliber!B2:'Caliber'!C10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B10,0),2)</f>
@@ -8996,7 +9023,7 @@
         <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -9883,9 +9910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W22" sqref="W22"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10073,7 +10100,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -10151,56 +10178,56 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>115</v>
       </c>
       <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>70</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
         <v>30</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>55</v>
-      </c>
-      <c r="L4">
-        <v>60</v>
-      </c>
-      <c r="M4">
-        <v>45</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>35</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10228,9 +10255,6 @@
       <c r="Y4" t="s">
         <v>113</v>
       </c>
-      <c r="Z4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -10471,7 +10495,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -10534,7 +10558,7 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W8" s="10" cm="1">
         <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -10545,7 +10569,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -10945,7 +10969,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -11019,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -11082,7 +11106,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>60</v>
@@ -11153,7 +11177,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -11230,12 +11254,12 @@
         <v>0.3</v>
       </c>
       <c r="Z2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -11312,12 +11336,12 @@
         <v>0.3</v>
       </c>
       <c r="Z3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -11394,12 +11418,12 @@
         <v>0.3</v>
       </c>
       <c r="Z4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -11476,12 +11500,12 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -11558,12 +11582,12 @@
         <v>0.6</v>
       </c>
       <c r="Z6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -11640,12 +11664,12 @@
         <v>0.6</v>
       </c>
       <c r="Z7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -11711,7 +11735,7 @@
         <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X8">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W8,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -11727,7 +11751,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -11793,7 +11817,7 @@
         <v>76</v>
       </c>
       <c r="W9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X9">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W9,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -11809,7 +11833,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -11875,7 +11899,7 @@
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -11886,15 +11910,15 @@
         <v>0.4</v>
       </c>
       <c r="Z10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -11960,7 +11984,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X11">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W11,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -11971,15 +11995,15 @@
         <v>0.4</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -12045,7 +12069,7 @@
         <v>3</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X12" cm="1">
         <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12061,7 +12085,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -12127,7 +12151,7 @@
         <v>5</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X13">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W13,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12143,7 +12167,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -12209,7 +12233,7 @@
         <v>5</v>
       </c>
       <c r="W14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X14">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W14,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12225,7 +12249,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -12307,7 +12331,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16">
         <v>33</v>
@@ -12373,7 +12397,7 @@
         <v>5</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X16" cm="1">
         <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12384,12 +12408,12 @@
         <v>0.6</v>
       </c>
       <c r="Z16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>27</v>
@@ -12455,7 +12479,7 @@
         <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X17">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W17,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12466,12 +12490,12 @@
         <v>0.4</v>
       </c>
       <c r="Z17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>37</v>
@@ -12483,7 +12507,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -12537,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X18">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W18,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12548,12 +12572,12 @@
         <v>0.4</v>
       </c>
       <c r="Z18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -12619,7 +12643,7 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X19" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12635,7 +12659,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -12701,7 +12725,7 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X20">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W20,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12717,7 +12741,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>37</v>
@@ -12729,7 +12753,7 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -12783,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X21">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W21,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12794,12 +12818,12 @@
         <v>0.4</v>
       </c>
       <c r="Z21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -12811,7 +12835,7 @@
         <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -12865,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X22">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W22,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12876,12 +12900,12 @@
         <v>0.4</v>
       </c>
       <c r="Z22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -12947,7 +12971,7 @@
         <v>5</v>
       </c>
       <c r="W23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X23">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W23,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -12963,7 +12987,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24">
         <v>31</v>
@@ -13029,7 +13053,7 @@
         <v>5</v>
       </c>
       <c r="W24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X24" cm="1">
         <f t="array" aca="1" ref="X24" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13045,7 +13069,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25">
         <v>33</v>
@@ -13111,7 +13135,7 @@
         <v>5</v>
       </c>
       <c r="W25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X25" cm="1">
         <f t="array" aca="1" ref="X25" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13127,7 +13151,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -13209,7 +13233,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -13275,7 +13299,7 @@
         <v>3</v>
       </c>
       <c r="W27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X27" cm="1">
         <f t="array" aca="1" ref="X27" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13291,7 +13315,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28">
         <v>22</v>
@@ -13357,7 +13381,7 @@
         <v>3</v>
       </c>
       <c r="W28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X28">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W28,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13373,7 +13397,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -13385,7 +13409,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -13439,7 +13463,7 @@
         <v>3</v>
       </c>
       <c r="W29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X29" cm="1">
         <f t="array" aca="1" ref="X29" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13455,7 +13479,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -13521,7 +13545,7 @@
         <v>3</v>
       </c>
       <c r="W30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X30" cm="1">
         <f t="array" aca="1" ref="X30" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13537,7 +13561,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -13603,7 +13627,7 @@
         <v>5</v>
       </c>
       <c r="W31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X31">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W31,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13619,7 +13643,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -13631,7 +13655,7 @@
         <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -13685,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X32">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W32,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13696,12 +13720,12 @@
         <v>0.4</v>
       </c>
       <c r="Z32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -13713,7 +13737,7 @@
         <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -13767,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X33">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W33,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13778,12 +13802,12 @@
         <v>0.4</v>
       </c>
       <c r="Z33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>26</v>
@@ -13849,7 +13873,7 @@
         <v>5</v>
       </c>
       <c r="W34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X34">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W34,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13865,7 +13889,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -13931,7 +13955,7 @@
         <v>5</v>
       </c>
       <c r="W35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X35">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W35,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -13947,7 +13971,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -13959,7 +13983,7 @@
         <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -14013,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X36">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W36,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14024,12 +14048,12 @@
         <v>0.4</v>
       </c>
       <c r="Z36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37">
         <v>33</v>
@@ -14041,7 +14065,7 @@
         <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -14095,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X37">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W37,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14106,12 +14130,12 @@
         <v>0.4</v>
       </c>
       <c r="Z37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -14177,7 +14201,7 @@
         <v>5</v>
       </c>
       <c r="W38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X38">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W38,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14193,7 +14217,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -14270,12 +14294,12 @@
         <v>0.6</v>
       </c>
       <c r="Z39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -14341,7 +14365,7 @@
         <v>5</v>
       </c>
       <c r="W40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X40">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W40,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14357,7 +14381,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -14369,7 +14393,7 @@
         <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -14423,7 +14447,7 @@
         <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X41">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W41,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14434,12 +14458,12 @@
         <v>0.6</v>
       </c>
       <c r="Z41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -14505,7 +14529,7 @@
         <v>5</v>
       </c>
       <c r="W42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X42">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W42,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14521,7 +14545,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -14587,7 +14611,7 @@
         <v>5</v>
       </c>
       <c r="W43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X43">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W43,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14603,7 +14627,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44">
         <v>34</v>
@@ -14615,7 +14639,7 @@
         <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -14669,7 +14693,7 @@
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X44">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W44,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14680,12 +14704,12 @@
         <v>0.4</v>
       </c>
       <c r="Z44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -14751,7 +14775,7 @@
         <v>5</v>
       </c>
       <c r="W45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X45">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W45,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -14767,7 +14791,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -14849,7 +14873,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -14931,7 +14955,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>23</v>
@@ -14997,7 +15021,7 @@
         <v>5</v>
       </c>
       <c r="W48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X48">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W48,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15013,7 +15037,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>31</v>
@@ -15025,7 +15049,7 @@
         <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -15079,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X49">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W49,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15090,12 +15114,12 @@
         <v>0.4</v>
       </c>
       <c r="Z49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -15161,7 +15185,7 @@
         <v>5</v>
       </c>
       <c r="W50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X50">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W50,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15177,7 +15201,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -15243,7 +15267,7 @@
         <v>5</v>
       </c>
       <c r="W51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X51">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W51,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15259,7 +15283,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52">
         <v>26</v>
@@ -15325,7 +15349,7 @@
         <v>5</v>
       </c>
       <c r="W52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X52">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W52,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15410,13 +15434,13 @@
         <v>60</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>63</v>
@@ -15478,7 +15502,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -15544,7 +15568,7 @@
         <v>76</v>
       </c>
       <c r="W2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X2">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W2,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15560,7 +15584,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -15642,7 +15666,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -15708,7 +15732,7 @@
         <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X4">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W4,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15719,12 +15743,12 @@
         <v>0.6</v>
       </c>
       <c r="Z4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -15790,7 +15814,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X5">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W5,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -15801,12 +15825,12 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -15888,7 +15912,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -15970,7 +15994,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>65</v>
@@ -16047,12 +16071,12 @@
         <v>1</v>
       </c>
       <c r="Z8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -16129,12 +16153,12 @@
         <v>0.8</v>
       </c>
       <c r="Z9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>47</v>
@@ -16200,7 +16224,7 @@
         <v>76</v>
       </c>
       <c r="W10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X10">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W10,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -16216,7 +16240,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>47</v>
@@ -16293,12 +16317,12 @@
         <v>0.8</v>
       </c>
       <c r="Z11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -16364,7 +16388,7 @@
         <v>76</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!B13:'Caliber'!C23,MATCH(W12,Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -16375,12 +16399,12 @@
         <v>0.6</v>
       </c>
       <c r="Z12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13">
         <v>70</v>
@@ -16457,7 +16481,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -16643,8 +16667,8 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16694,10 +16718,10 @@
         <v>61</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>63</v>
@@ -16762,7 +16786,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -16831,24 +16855,24 @@
         <v>33</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z2">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W2,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -16917,24 +16941,24 @@
         <v>33</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z3">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W3,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -17003,27 +17027,27 @@
         <v>33</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z4">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W4,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB4" t="s">
         <v>179</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -17092,27 +17116,27 @@
         <v>33</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z5">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W5,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB5" t="s">
         <v>179</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -17181,27 +17205,27 @@
         <v>37</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>20</v>
       </c>
       <c r="Z6">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W6,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>37</v>
@@ -17270,27 +17294,27 @@
         <v>33</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z7">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W7,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB7" t="s">
         <v>185</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -17359,27 +17383,27 @@
         <v>33</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z8">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W8,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB8" t="s">
         <v>185</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>42</v>
@@ -17448,27 +17472,27 @@
         <v>33</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z9">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W9,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB9" t="s">
         <v>185</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -17537,27 +17561,27 @@
         <v>33</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B25:'Caliber'!C30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!B25:'Caliber'!D30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z10">
-        <f>INDEX(Caliber!B25:'Caliber'!F30,MATCH(W10,Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB10" t="s">
         <v>185</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -17626,22 +17650,22 @@
         <v>33</v>
       </c>
       <c r="X11" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B25:'Caliber'!C30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B25:'Caliber'!B30,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B25:'Caliber'!C31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B25:'Caliber'!B31,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y11" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!B25:'Caliber'!D30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B25:'Caliber'!B30,0),3)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!B25:'Caliber'!D31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B25:'Caliber'!B31,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z11" cm="1">
-        <f t="array" aca="1" ref="Z11" ca="1">INDEX(Caliber!B25:'Caliber'!F30,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-3)),Caliber!B25:'Caliber'!B30,0),5)</f>
+        <f t="array" aca="1" ref="Z11" ca="1">INDEX(Caliber!B25:'Caliber'!F31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-3)),Caliber!B25:'Caliber'!B31,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB11" t="s">
         <v>179</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -17704,13 +17728,13 @@
         <v>60</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>63</v>
@@ -17772,13 +17796,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -17849,18 +17873,18 @@
         <v>0.6</v>
       </c>
       <c r="Z2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3">
         <v>50000</v>
@@ -17920,7 +17944,7 @@
         <v>15</v>
       </c>
       <c r="W3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X3" cm="1">
         <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -17931,18 +17955,18 @@
         <v>0.4</v>
       </c>
       <c r="Z3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>56500</v>
@@ -18002,7 +18026,7 @@
         <v>15</v>
       </c>
       <c r="W4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X4" cm="1">
         <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -18013,18 +18037,18 @@
         <v>0.7</v>
       </c>
       <c r="Z4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5">
         <v>65000</v>
@@ -18095,18 +18119,18 @@
         <v>0.6</v>
       </c>
       <c r="Z5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6">
         <v>53000</v>
@@ -18166,7 +18190,7 @@
         <v>15</v>
       </c>
       <c r="W6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X6" cm="1">
         <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -18177,18 +18201,18 @@
         <v>0.4</v>
       </c>
       <c r="Z6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7">
         <v>54000</v>
@@ -18248,7 +18272,7 @@
         <v>15</v>
       </c>
       <c r="W7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X7" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B13:'Caliber'!C23,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B13:'Caliber'!B23,0),2)</f>
@@ -18259,18 +18283,18 @@
         <v>0.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8">
         <v>49000</v>
@@ -18341,18 +18365,18 @@
         <v>0.3</v>
       </c>
       <c r="Z8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B9">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -18412,7 +18436,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="X9" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -18423,7 +18447,7 @@
         <v>0.35</v>
       </c>
       <c r="Z9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -18440,7 +18464,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
@@ -18486,13 +18510,13 @@
         <v>60</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>63</v>
@@ -18554,13 +18578,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -18623,29 +18647,29 @@
         <v>41</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z2" t="s">
         <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3">
         <v>61500</v>
@@ -18708,23 +18732,23 @@
         <v>41</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA3" t="s">
         <v>228</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -18793,29 +18817,29 @@
         <v>41</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5">
         <v>87000</v>
@@ -18878,29 +18902,29 @@
         <v>49</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>200</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z5" t="s">
         <v>82</v>
       </c>
       <c r="AA5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -18963,23 +18987,23 @@
         <v>51</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>150</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z6" t="s">
         <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -19048,107 +19072,107 @@
         <v>52</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>190</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z7" t="s">
         <v>82</v>
       </c>
       <c r="AA7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X8" t="e" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y8" t="e" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X9" t="e" cm="1">
-        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e" cm="1">
-        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X10" t="e" cm="1">
-        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y10" t="e" cm="1">
-        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X11" t="e" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y11" t="e" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X12" t="e" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y12" t="e" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X13" t="e" cm="1">
-        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e" cm="1">
-        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e" cm="1">
-        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e" cm="1">
-        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e" cm="1">
-        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e" cm="1">
-        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B32:'Caliber'!C40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e" cm="1">
-        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C32:'Caliber'!D40,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B32:'Caliber'!B40,0),2)</f>
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -19175,7 +19199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63DFC7-025D-44AE-BA82-AB9436178875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7CBD3-9A73-4A2F-A905-21E5DF5229FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="477">
   <si>
     <t>Name</t>
   </si>
@@ -1561,9 +1561,6 @@
     <t>M14 EBR (Scoped)</t>
   </si>
   <si>
-    <t>Serbu breaching ammo</t>
-  </si>
-  <si>
     <t>Just a list of things that are planing on being done in no particular order or priority so we don’t forget about them</t>
   </si>
   <si>
@@ -1607,6 +1604,18 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>12G Breaching</t>
+  </si>
+  <si>
+    <t>3x ToTile Damage</t>
+  </si>
+  <si>
+    <t>Breach ammo</t>
+  </si>
+  <si>
+    <t>NL, Slug &amp; Inc ammo</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2116,24 +2125,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2161,9 +2152,28 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2807,8 +2817,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B24:I31" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B24:I31" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}" name="Table7" displayName="Table7" ref="B24:I32" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="B24:I32" xr:uid="{664A7A36-F4CD-41BE-9150-5714BC53B38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B572F9F5-F31A-42DA-93B6-64F0EE8AB069}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7722C74B-D75C-4FB4-B0CE-8B2513EB63AB}" name="Power" dataDxfId="33"/>
@@ -2824,8 +2834,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B32:I43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B32:I43" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}" name="Table8" displayName="Table8" ref="B33:I44" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B33:I44" xr:uid="{04AB2E62-598B-4666-8BAF-7BB7165BB6E6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B4CC4C1E-3374-4B26-96BC-04C93FD2A144}" name="Name"/>
     <tableColumn id="2" xr3:uid="{C06185A8-6720-4F80-8AB3-39A31D26270F}" name="Power" dataDxfId="25"/>
@@ -3325,10 +3335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,7 +3584,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -4197,7 +4207,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -4218,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>39</v>
@@ -4245,46 +4255,49 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
+        <v>473</v>
+      </c>
+      <c r="C29" s="86">
+        <v>10</v>
+      </c>
+      <c r="D29" s="86">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>25</v>
       </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="F29" s="86">
+        <v>0</v>
+      </c>
+      <c r="G29" s="86">
+        <v>1</v>
+      </c>
+      <c r="H29" s="86">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -4312,28 +4325,25 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>43</v>
@@ -4355,32 +4365,30 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>56</v>
+      <c r="A32" s="7"/>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>45</v>
@@ -4403,28 +4411,32 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="1">
-        <v>50</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>42</v>
+      <c r="A33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>47</v>
@@ -4446,27 +4458,28 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>44</v>
+      <c r="A34" s="8"/>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>49</v>
@@ -4491,7 +4504,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -4500,16 +4513,16 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>50</v>
@@ -4533,25 +4546,25 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>51</v>
@@ -4576,13 +4589,13 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -4591,7 +4604,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>52</v>
@@ -4615,16 +4631,16 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4655,16 +4671,16 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4676,10 +4692,10 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4697,16 +4713,16 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4717,58 +4733,79 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>7</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>56</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>57</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="14" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
         <v>461</v>
-      </c>
-      <c r="C45">
-        <v>40</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>7</v>
-      </c>
-      <c r="I45" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7670,10 +7707,10 @@
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="68"/>
@@ -7682,10 +7719,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="74"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="68"/>
@@ -7694,10 +7731,10 @@
       <c r="D28" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="75"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="68"/>
@@ -7710,11 +7747,11 @@
       <c r="D29" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="67" t="s">
         <v>348</v>
       </c>
@@ -7726,11 +7763,11 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="68"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7740,11 +7777,11 @@
       <c r="D31" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7758,11 +7795,11 @@
       <c r="D32" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="67" t="s">
         <v>348</v>
       </c>
@@ -7774,11 +7811,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7788,11 +7825,11 @@
       <c r="D34" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7806,11 +7843,11 @@
       <c r="D35" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="67" t="s">
         <v>348</v>
       </c>
@@ -7822,11 +7859,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7836,11 +7873,11 @@
       <c r="D37" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7854,11 +7891,11 @@
       <c r="D38" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="78"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="67" t="s">
         <v>383</v>
       </c>
@@ -7870,11 +7907,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="68"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7884,11 +7921,11 @@
       <c r="D40" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7902,11 +7939,11 @@
       <c r="D41" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="67" t="s">
         <v>348</v>
       </c>
@@ -7918,11 +7955,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="79" t="s">
+      <c r="E42" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="68"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7932,11 +7969,11 @@
       <c r="D43" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="84"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7950,11 +7987,11 @@
       <c r="D44" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="67" t="s">
         <v>348</v>
       </c>
@@ -7966,11 +8003,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="73" t="s">
         <v>387</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="68"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7980,11 +8017,11 @@
       <c r="D46" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
       <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7998,11 +8035,11 @@
       <c r="D47" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="78"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="67" t="s">
         <v>348</v>
       </c>
@@ -8014,11 +8051,11 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="79" t="s">
+      <c r="E48" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="68"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8028,48 +8065,40 @@
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8086,31 +8115,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8598,7 +8635,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8609,7 +8646,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="52"/>
@@ -8635,9 +8672,6 @@
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>458</v>
-      </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8645,7 +8679,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" s="14"/>
     </row>
@@ -8654,15 +8688,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" s="14"/>
     </row>
@@ -10495,7 +10529,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -10558,7 +10592,7 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W8" s="10" cm="1">
         <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -10569,7 +10603,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -16667,8 +16701,8 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16855,15 +16889,15 @@
         <v>33</v>
       </c>
       <c r="X2">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W2,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y2">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W2,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z2">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W2,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W2,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA2" t="s">
@@ -16941,19 +16975,22 @@
         <v>33</v>
       </c>
       <c r="X3">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W3,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y3">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W3,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z3">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W3,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W3,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
         <v>160</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -17027,22 +17064,22 @@
         <v>33</v>
       </c>
       <c r="X4">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W4,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y4">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W4,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z4">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W4,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W4,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>178</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -17116,22 +17153,22 @@
         <v>33</v>
       </c>
       <c r="X5">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W5,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y5">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W5,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z5">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W5,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W5,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -17205,15 +17242,15 @@
         <v>37</v>
       </c>
       <c r="X6">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W6,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y6">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W6,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>20</v>
       </c>
       <c r="Z6">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W6,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W6,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA6" t="s">
@@ -17294,15 +17331,15 @@
         <v>33</v>
       </c>
       <c r="X7">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W7,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y7">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W7,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z7">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W7,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W7,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA7" t="s">
@@ -17383,15 +17420,15 @@
         <v>33</v>
       </c>
       <c r="X8">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W8,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y8">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W8,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z8">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W8,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W8,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA8" t="s">
@@ -17472,15 +17509,15 @@
         <v>33</v>
       </c>
       <c r="X9">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W9,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y9">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W9,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z9">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W9,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W9,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA9" t="s">
@@ -17561,15 +17598,15 @@
         <v>33</v>
       </c>
       <c r="X10">
-        <f>INDEX(Caliber!B25:'Caliber'!C31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!C32,MATCH(W10,Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y10">
-        <f>INDEX(Caliber!B25:'Caliber'!D31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!D32,MATCH(W10,Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z10">
-        <f>INDEX(Caliber!B25:'Caliber'!F31,MATCH(W10,Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f>INDEX(Caliber!B25:'Caliber'!F32,MATCH(W10,Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA10" t="s">
@@ -17581,7 +17618,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -17650,22 +17687,22 @@
         <v>33</v>
       </c>
       <c r="X11" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B25:'Caliber'!C31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B25:'Caliber'!B31,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B25:'Caliber'!C32,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B25:'Caliber'!B32,0),2)</f>
         <v>25</v>
       </c>
       <c r="Y11" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!B25:'Caliber'!D31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B25:'Caliber'!B31,0),3)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!B25:'Caliber'!D32,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B25:'Caliber'!B32,0),3)</f>
         <v>10</v>
       </c>
       <c r="Z11" cm="1">
-        <f t="array" aca="1" ref="Z11" ca="1">INDEX(Caliber!B25:'Caliber'!F31,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-3)),Caliber!B25:'Caliber'!B31,0),5)</f>
+        <f t="array" aca="1" ref="Z11" ca="1">INDEX(Caliber!B25:'Caliber'!F32,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-3)),Caliber!B25:'Caliber'!B32,0),5)</f>
         <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>178</v>
       </c>
       <c r="AB11" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -18370,7 +18407,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -18436,7 +18473,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X9" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -18447,7 +18484,7 @@
         <v>0.35</v>
       </c>
       <c r="Z9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -18647,11 +18684,11 @@
         <v>41</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X2" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y2" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z2" t="s">
@@ -18732,11 +18769,11 @@
         <v>41</v>
       </c>
       <c r="X3" cm="1">
-        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X3" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y3" cm="1">
-        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y3" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z3" t="s">
@@ -18817,11 +18854,11 @@
         <v>41</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X4" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>50</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y4" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>0.2</v>
       </c>
       <c r="Z4" t="s">
@@ -18902,11 +18939,11 @@
         <v>49</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X5" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>200</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y5" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z5" t="s">
@@ -18987,11 +19024,11 @@
         <v>51</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>150</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y6" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z6" t="s">
@@ -19072,11 +19109,11 @@
         <v>52</v>
       </c>
       <c r="X7" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X7" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>190</v>
       </c>
       <c r="Y7" cm="1">
-        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y7" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>1</v>
       </c>
       <c r="Z7" t="s">
@@ -19088,91 +19125,91 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X8" t="e" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y8" t="e" cm="1">
-        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y8" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X9" t="e" cm="1">
-        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e" cm="1">
-        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y9" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X10" t="e" cm="1">
-        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X10" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y10" t="e" cm="1">
-        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y10" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X11" t="e" cm="1">
-        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X11" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y11" t="e" cm="1">
-        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y11" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X12" t="e" cm="1">
-        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X12" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y12" t="e" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y12" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X13" t="e" cm="1">
-        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X13" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e" cm="1">
-        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y13" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X14" t="e" cm="1">
-        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X14" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e" cm="1">
-        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y14" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X15" t="e" cm="1">
-        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X15" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e" cm="1">
-        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y15" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X16" t="e" cm="1">
-        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B33:'Caliber'!C41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="X16" ca="1">INDEX(Caliber!B34:'Caliber'!C42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
       <c r="Y16" t="e" cm="1">
-        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C33:'Caliber'!D41,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B33:'Caliber'!B41,0),2)</f>
+        <f t="array" aca="1" ref="Y16" ca="1">INDEX(Caliber!C34:'Caliber'!D42,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B34:'Caliber'!B42,0),2)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7CBD3-9A73-4A2F-A905-21E5DF5229FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9711C4-44BD-42E3-9BD9-7A58D366F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1579,12 +1579,6 @@
     <t>[30,100]</t>
   </si>
   <si>
-    <t>Pistol double tap?</t>
-  </si>
-  <si>
-    <t>Was mentioned at one point, don’t know if we had plans though</t>
-  </si>
-  <si>
     <t>CBJ-MS SAW</t>
   </si>
   <si>
@@ -1594,9 +1588,6 @@
     <t>M3</t>
   </si>
   <si>
-    <t>Add MP7 &amp; Inc shotgun ammo to drawio file</t>
-  </si>
-  <si>
     <t>12G Incendiary</t>
   </si>
   <si>
@@ -1616,6 +1607,9 @@
   </si>
   <si>
     <t>NL, Slug &amp; Inc ammo</t>
+  </si>
+  <si>
+    <t>Add MP7 &amp; Inc shotgun ammo to drawio file, needs an update in general</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2173,7 +2167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4207,7 +4200,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -4228,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>39</v>
@@ -4255,28 +4248,28 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>473</v>
-      </c>
-      <c r="C29" s="86">
+        <v>470</v>
+      </c>
+      <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
         <v>25</v>
       </c>
-      <c r="F29" s="86">
-        <v>0</v>
-      </c>
-      <c r="G29" s="86">
-        <v>1</v>
-      </c>
-      <c r="H29" s="86">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4760,7 +4753,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -8635,7 +8628,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8687,16 +8680,11 @@
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>465</v>
-      </c>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B10" s="14"/>
     </row>
@@ -8789,7 +8777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X3" sqref="X3"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -9037,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>3</v>
@@ -9119,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -9280,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -9359,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -9438,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -9517,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -9675,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -9912,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -10529,7 +10517,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -16990,7 +16978,7 @@
         <v>160</v>
       </c>
       <c r="AB3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -17079,7 +17067,7 @@
         <v>178</v>
       </c>
       <c r="AB4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -17168,7 +17156,7 @@
         <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -17618,7 +17606,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -17702,7 +17690,7 @@
         <v>178</v>
       </c>
       <c r="AB11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -18407,7 +18395,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B9">
         <v>24</v>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9711C4-44BD-42E3-9BD9-7A58D366F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA5476-6EBA-49E4-B037-F16092165484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3285" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1300,9 +1300,6 @@
     <t>AK-15</t>
   </si>
   <si>
-    <t>M4A1 SOPMOD</t>
-  </si>
-  <si>
     <t>Ballistic Shield + SR-3 Vikhr</t>
   </si>
   <si>
@@ -1610,6 +1607,18 @@
   </si>
   <si>
     <t>Add MP7 &amp; Inc shotgun ammo to drawio file, needs an update in general</t>
+  </si>
+  <si>
+    <t>SR-3</t>
+  </si>
+  <si>
+    <t>HK416 SOPMOD</t>
+  </si>
+  <si>
+    <t>Golden Deagle</t>
+  </si>
+  <si>
+    <t>Mk 18 Mod 0 SOPMOD</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1958,11 +1967,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2119,14 +2320,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2146,26 +2353,71 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3556,7 +3808,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -3571,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -4200,7 +4452,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -4221,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>39</v>
@@ -4248,7 +4500,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4269,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4753,7 +5005,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -4783,7 +5035,7 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -4798,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7161,9 +7413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C18DE-CCD8-4ABA-9B3B-CCD73CA8C93E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7249,45 +7501,45 @@
       </c>
       <c r="H3" s="68"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7309,45 +7561,45 @@
       </c>
       <c r="H6" s="68"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="95" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7369,45 +7621,45 @@
       </c>
       <c r="H9" s="68"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="48" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="95" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7429,45 +7681,45 @@
       </c>
       <c r="H12" s="68"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7489,45 +7741,45 @@
       </c>
       <c r="H15" s="68"/>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="95" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7549,45 +7801,45 @@
       </c>
       <c r="H18" s="68"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="87" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="69"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="96" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="96" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="95" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7611,40 +7863,40 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="91" t="s">
         <v>374</v>
       </c>
       <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="95" t="s">
         <v>375</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="96" t="s">
         <v>157</v>
       </c>
       <c r="H23" s="67" t="s">
@@ -7700,10 +7952,10 @@
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="68"/>
@@ -7712,40 +7964,40 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="83"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="84"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="68"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="67" t="s">
+      <c r="E29" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7756,44 +8008,44 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="E30" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="68"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="69"/>
+      <c r="E31" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="86"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68"/>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="67" t="s">
+      <c r="E32" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="68" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7804,44 +8056,44 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="100" t="s">
         <v>381</v>
       </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="68"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="E34" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="69"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="68"/>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="97" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="67" t="s">
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7852,45 +8104,45 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
+      <c r="E36" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="F36" s="76"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="68"/>
     </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="69"/>
+      <c r="E37" s="100" t="s">
+        <v>477</v>
+      </c>
+      <c r="F37" s="101"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="68"/>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="67" t="s">
-        <v>383</v>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="95" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7900,44 +8152,44 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="77"/>
       <c r="H39" s="68"/>
     </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="69"/>
+      <c r="E40" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="101"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="68"/>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="97" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="67" t="s">
+      <c r="F41" s="98"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7948,44 +8200,44 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="68"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="68"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="E43" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="69"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="68"/>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="70" t="s">
-        <v>386</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="67" t="s">
+      <c r="E44" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7996,44 +8248,44 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="73" t="s">
-        <v>387</v>
-      </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="E45" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="68"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="69"/>
+      <c r="E46" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="68"/>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="95" t="s">
         <v>375</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="67" t="s">
+      <c r="F47" s="98"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="95" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8044,11 +8296,11 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="73" t="s">
-        <v>388</v>
-      </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
+      <c r="E48" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="76"/>
+      <c r="G48" s="77"/>
       <c r="H48" s="68"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8058,24 +8310,64 @@
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8092,55 +8384,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8173,111 +8425,111 @@
         <v>236</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>402</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>404</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>405</v>
       </c>
       <c r="C2" s="33">
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <v>0</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="K2" s="50">
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <v>0</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>407</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>408</v>
       </c>
       <c r="O2" s="33">
         <v>300</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="27">
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
@@ -8289,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K3" s="51">
         <v>0</v>
@@ -8304,80 +8556,80 @@
         <v>0</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O3" s="27">
         <v>400</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="K4" s="50">
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="O4" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>414</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>415</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>416</v>
       </c>
       <c r="C5" s="27">
         <v>20</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E5" s="27">
         <v>0</v>
@@ -8386,48 +8638,48 @@
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K5" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>443</v>
-      </c>
       <c r="M5" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>408</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C6" s="33">
         <v>10</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="33">
         <v>0</v>
@@ -8439,13 +8691,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K6" s="50">
         <v>0</v>
@@ -8454,30 +8706,30 @@
         <v>0</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O6" s="33">
         <v>500</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>421</v>
-      </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
@@ -8486,132 +8738,132 @@
         <v>2</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>425</v>
-      </c>
       <c r="O8" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="27">
         <v>24</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
       </c>
       <c r="F9" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>430</v>
-      </c>
       <c r="H9" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>434</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N9" s="27">
         <v>999</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -8627,7 +8879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -8638,24 +8890,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="85"/>
+      <c r="A1" s="81" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="81"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -8672,7 +8924,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="14"/>
     </row>
@@ -8684,7 +8936,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B10" s="14"/>
     </row>
@@ -8968,7 +9220,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -9031,7 +9283,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W3" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDEX(Caliber!B2:'Caliber'!C10,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B10,0),2)</f>
@@ -9045,7 +9297,7 @@
         <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -10122,7 +10374,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -10517,7 +10769,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -10580,7 +10832,7 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W8" s="10" cm="1">
         <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -10591,7 +10843,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -10991,7 +11243,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -11065,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -11081,10 +11333,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y39" sqref="Y39"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12599,7 +12851,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -13173,7 +13425,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -13255,7 +13507,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -13419,7 +13671,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -13431,7 +13683,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -13501,7 +13753,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -16689,7 +16941,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -16978,7 +17230,7 @@
         <v>160</v>
       </c>
       <c r="AB3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -17067,7 +17319,7 @@
         <v>178</v>
       </c>
       <c r="AB4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -17156,7 +17408,7 @@
         <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -17606,7 +17858,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -17690,7 +17942,7 @@
         <v>178</v>
       </c>
       <c r="AB11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -17706,8 +17958,8 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18395,7 +18647,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -18461,7 +18713,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X9" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
@@ -18472,7 +18724,7 @@
         <v>0.35</v>
       </c>
       <c r="Z9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -19224,7 +19476,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA5476-6EBA-49E4-B037-F16092165484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524502F-078B-4F59-9AD0-0B46F28B6368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="480">
   <si>
     <t>Name</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>Mk 18 Mod 0 SOPMOD</t>
+  </si>
+  <si>
+    <t>Set up campaign tech tree with new weapons</t>
+  </si>
+  <si>
+    <t>P90 (Sopmod)</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2287,6 +2293,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,7 +2329,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2320,20 +2338,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2353,11 +2365,53 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2368,57 +2422,10 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3134,10 +3141,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z14" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:Z14" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z14">
-    <sortCondition descending="1" ref="M1:M14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}" name="Table10" displayName="Table10" ref="A1:Z15" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:Z15" xr:uid="{EB47442F-754D-45A1-BC57-BBE7964D0858}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z15">
+    <sortCondition descending="1" ref="M1:M15"/>
   </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{5824021B-BC67-48E1-A206-55414C872ECA}" name="Name"/>
@@ -5069,7 +5076,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5085,43 +5092,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="59" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="63" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="21" t="s">
         <v>245</v>
       </c>
@@ -5149,12 +5156,12 @@
       <c r="J2" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -6717,7 +6724,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>337</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -6763,7 +6770,7 @@
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="33" t="s">
         <v>299</v>
       </c>
@@ -6807,7 +6814,7 @@
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="27" t="s">
         <v>316</v>
       </c>
@@ -6851,7 +6858,7 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="33" t="s">
         <v>318</v>
       </c>
@@ -6895,7 +6902,7 @@
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="27" t="s">
         <v>320</v>
       </c>
@@ -6939,7 +6946,7 @@
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="33" t="s">
         <v>322</v>
       </c>
@@ -6983,7 +6990,7 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="27" t="s">
         <v>324</v>
       </c>
@@ -7027,7 +7034,7 @@
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="33" t="s">
         <v>325</v>
       </c>
@@ -7071,7 +7078,7 @@
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>338</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -7093,7 +7100,7 @@
       <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="33" t="s">
         <v>299</v>
       </c>
@@ -7137,7 +7144,7 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="27" t="s">
         <v>330</v>
       </c>
@@ -7181,7 +7188,7 @@
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="33" t="s">
         <v>318</v>
       </c>
@@ -7225,7 +7232,7 @@
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="27" t="s">
         <v>287</v>
       </c>
@@ -7269,7 +7276,7 @@
       <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="33" t="s">
         <v>322</v>
       </c>
@@ -7313,7 +7320,7 @@
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="27" t="s">
         <v>316</v>
       </c>
@@ -7357,7 +7364,7 @@
       <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="33" t="s">
         <v>325</v>
       </c>
@@ -7413,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C18DE-CCD8-4ABA-9B3B-CCD73CA8C93E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7458,13 +7465,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7479,14 +7486,14 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="86" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="47" t="s">
         <v>349</v>
       </c>
@@ -7499,54 +7506,54 @@
       <c r="G3" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="H3" s="68"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="91" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="47" t="s">
         <v>349</v>
       </c>
@@ -7559,54 +7566,54 @@
       <c r="G6" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="86"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="71" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="47" t="s">
         <v>349</v>
       </c>
@@ -7619,54 +7626,54 @@
       <c r="G9" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="86"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="71" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="47" t="s">
         <v>349</v>
       </c>
@@ -7679,54 +7686,54 @@
       <c r="G12" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="91" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="47" t="s">
         <v>349</v>
       </c>
@@ -7739,54 +7746,54 @@
       <c r="G15" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="86"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="95" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="71" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="47" t="s">
         <v>349</v>
       </c>
@@ -7799,54 +7806,54 @@
       <c r="G18" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="68"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="71" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="47" t="s">
         <v>349</v>
       </c>
@@ -7859,54 +7866,54 @@
       <c r="G21" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="91" t="s">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="69"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="72"/>
+      <c r="B23" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="96" t="s">
+      <c r="F23" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="96" t="s">
+      <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="86" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="47" t="s">
         <v>349</v>
       </c>
@@ -7919,12 +7926,12 @@
       <c r="G24" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="68"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7937,421 +7944,413 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="74"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="91" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="74"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="95" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="F29" s="98"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="95" t="s">
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="68"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="E31" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="86"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="68" t="s">
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="68"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="91" t="s">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="68"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="95" t="s">
+      <c r="A35" s="72"/>
+      <c r="B35" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="95" t="s">
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="68"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="91" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="100" t="s">
+      <c r="E37" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="68"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
-      <c r="B38" s="95" t="s">
+      <c r="A38" s="72"/>
+      <c r="B38" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="95" t="s">
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="68"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="91" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="68"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="95" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="98"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="95" t="s">
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="75" t="s">
+      <c r="E42" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="68"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="91" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="100" t="s">
+      <c r="E43" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="95" t="s">
+      <c r="A44" s="72"/>
+      <c r="B44" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="97" t="s">
+      <c r="E44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="95" t="s">
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="68"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="91" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="100" t="s">
+      <c r="E46" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="68"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="95" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="98"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="95" t="s">
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="68"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="69"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8368,31 +8367,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8880,7 +8887,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,24 +8897,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -8917,6 +8924,9 @@
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9028,7 +9038,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -10182,16 +10192,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -10611,7 +10621,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -10619,8 +10629,8 @@
       <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>17000</v>
+      <c r="D6" t="s">
+        <v>76</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -10632,34 +10642,34 @@
         <v>115</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
         <v>9</v>
       </c>
-      <c r="O6">
-        <v>11</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
       <c r="Q6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -10674,32 +10684,32 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="10">
-        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X6" s="10">
-        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V6,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="W6" s="103" cm="1">
+        <f t="array" aca="1" ref="W6" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>33</v>
+      </c>
+      <c r="X6" s="103" cm="1">
+        <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>0.4</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -10714,31 +10724,31 @@
         <v>25</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7">
         <v>40</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7">
         <v>6</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -10755,30 +10765,30 @@
       <c r="V7" t="s">
         <v>12</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>31</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V7,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>106</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -10796,10 +10806,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
         <v>70</v>
@@ -10808,13 +10818,13 @@
         <v>40</v>
       </c>
       <c r="N8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>30</v>
@@ -10832,71 +10842,71 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>461</v>
-      </c>
-      <c r="W8" s="10" cm="1">
-        <f t="array" aca="1" ref="W8" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="X8" s="10" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
-        <v>0.35</v>
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>31</v>
+      </c>
+      <c r="X8">
+        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V8,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>462</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>464</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M9">
         <v>40</v>
       </c>
       <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
       <c r="Q9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -10911,32 +10921,32 @@
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9">
-        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>34</v>
-      </c>
-      <c r="X9">
-        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V9,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.4</v>
+        <v>461</v>
+      </c>
+      <c r="W9" s="10" cm="1">
+        <f t="array" aca="1" ref="W9" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="X9" s="10" cm="1">
+        <f t="array" aca="1" ref="X9" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
+        <v>0.35</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -10948,34 +10958,34 @@
         <v>115</v>
       </c>
       <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
         <v>25</v>
       </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
       <c r="J10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M10">
         <v>40</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -10990,32 +11000,32 @@
         <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="10">
+        <v>16</v>
+      </c>
+      <c r="W10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X10" s="10">
+        <v>34</v>
+      </c>
+      <c r="X10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V10,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>76</v>
+      <c r="D11">
+        <v>14000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -11027,25 +11037,25 @@
         <v>115</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11">
         <v>40</v>
       </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <v>60</v>
-      </c>
-      <c r="M11">
-        <v>35</v>
-      </c>
       <c r="N11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -11069,47 +11079,47 @@
         <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
-      </c>
-      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="W11" s="10">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>29</v>
-      </c>
-      <c r="X11">
+        <v>31</v>
+      </c>
+      <c r="X11" s="10">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V11,Caliber!B2:'Caliber'!B9,0),2)</f>
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <v>19000</v>
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>115</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>40</v>
@@ -11118,22 +11128,22 @@
         <v>50</v>
       </c>
       <c r="L12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -11148,32 +11158,32 @@
         <v>7</v>
       </c>
       <c r="V12" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W12">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X12">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V12,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>19000</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -11185,34 +11195,34 @@
         <v>115</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <v>30</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -11227,32 +11237,32 @@
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="10">
+        <v>14</v>
+      </c>
+      <c r="W13">
         <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X13" s="10">
+        <v>35</v>
+      </c>
+      <c r="X13">
         <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V13,Caliber!B2:'Caliber'!B9,0),2)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>25000</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -11264,31 +11274,31 @@
         <v>115</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M14">
         <v>30</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14">
         <v>10</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14">
         <v>20</v>
@@ -11297,13 +11307,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V14" t="s">
         <v>12</v>
@@ -11317,6 +11327,85 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>25000</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>115</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="10">
+        <f>INDEX(Caliber!B2:'Caliber'!C9,MATCH(V15,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>31</v>
+      </c>
+      <c r="X15" s="10">
+        <f>INDEX(Caliber!C2:'Caliber'!D9,MATCH(V15,Caliber!B2:'Caliber'!B9,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11333,10 +11422,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A31:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524502F-078B-4F59-9AD0-0B46F28B6368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AC1F6-CE38-4C01-9CA6-F91FDF247CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1606,9 +1606,6 @@
     <t>NL, Slug &amp; Inc ammo</t>
   </si>
   <si>
-    <t>Add MP7 &amp; Inc shotgun ammo to drawio file, needs an update in general</t>
-  </si>
-  <si>
     <t>SR-3</t>
   </si>
   <si>
@@ -1619,9 +1616,6 @@
   </si>
   <si>
     <t>Mk 18 Mod 0 SOPMOD</t>
-  </si>
-  <si>
-    <t>Set up campaign tech tree with new weapons</t>
   </si>
   <si>
     <t>P90 (Sopmod)</t>
@@ -2169,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2335,49 +2329,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2404,6 +2362,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2422,10 +2398,27 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7421,7 +7414,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7465,13 +7458,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7486,7 +7479,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="74" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7570,8 +7563,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7584,7 +7577,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7630,8 +7623,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7644,7 +7637,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7750,8 +7743,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7764,7 +7757,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7810,8 +7803,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7824,7 +7817,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7884,7 +7877,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7906,7 +7899,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="74" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7929,9 +7922,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7944,25 +7937,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7971,10 +7964,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="92"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7983,10 +7976,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -7999,11 +7992,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="E29" s="84" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8015,26 +8008,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="87"/>
+      <c r="E31" s="90" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="91"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8047,11 +8040,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8063,11 +8056,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,11 +8070,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="96" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8095,11 +8088,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8111,11 +8104,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="77" t="s">
-        <v>475</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
+      <c r="E36" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8125,11 +8118,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="E37" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8143,11 +8136,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8159,11 +8152,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8173,11 +8166,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8191,11 +8184,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8207,11 +8200,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8221,11 +8214,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8239,11 +8232,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8255,11 +8248,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,11 +8262,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8287,11 +8280,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8303,38 +8296,78 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="73"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8351,55 +8384,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8886,8 +8879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,9 +8917,6 @@
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>478</v>
-      </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8945,9 +8935,6 @@
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>473</v>
-      </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10194,7 +10181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
@@ -10621,7 +10608,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -10686,11 +10673,11 @@
       <c r="V6" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="103" cm="1">
+      <c r="W6" s="10" cm="1">
         <f t="array" aca="1" ref="W6" ca="1">INDEX(Caliber!B2:'Caliber'!C11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-1)),Caliber!B2:'Caliber'!B11,0),2)</f>
         <v>33</v>
       </c>
-      <c r="X6" s="103" cm="1">
+      <c r="X6" s="10" cm="1">
         <f t="array" aca="1" ref="X6" ca="1">INDEX(Caliber!C2:'Caliber'!D11,MATCH(INDIRECT(ADDRESS(ROW(),COLUMN()-2)),Caliber!B2:'Caliber'!B11,0),2)</f>
         <v>0.4</v>
       </c>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AC1F6-CE38-4C01-9CA6-F91FDF247CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCCC03-E05D-4406-9A95-9AA362534C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="479">
   <si>
     <t>Name</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>P90 (Sopmod)</t>
+  </si>
+  <si>
+    <t>Prison cell sprite</t>
   </si>
 </sst>
 </file>
@@ -8879,8 +8882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8913,7 +8916,9 @@
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10181,9 +10186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10462,7 +10467,7 @@
         <v>17500</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -11409,7 +11414,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A34" sqref="A31:XFD34"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCCC03-E05D-4406-9A95-9AA362534C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED4794-3141-4109-9D54-16B336904B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="2" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="481">
   <si>
     <t>Name</t>
   </si>
@@ -1622,6 +1622,12 @@
   </si>
   <si>
     <t>Prison cell sprite</t>
+  </si>
+  <si>
+    <t>Uniform w/ NVGs &amp; Adv. NVGs</t>
+  </si>
+  <si>
+    <t>RPG-7 hand sprite fix</t>
   </si>
 </sst>
 </file>
@@ -8882,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8922,9 +8928,15 @@
       <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9030,8 +9042,8 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9884,7 +9896,7 @@
         <v>45</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>50</v>
@@ -10186,9 +10198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941F1AF2-A8AA-477B-ABE7-7C87546ECF29}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED4794-3141-4109-9D54-16B336904B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47498B-0870-4824-A0AE-744A4C6BB907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="482">
   <si>
     <t>Name</t>
   </si>
@@ -1628,6 +1628,9 @@
   </si>
   <si>
     <t>RPG-7 hand sprite fix</t>
+  </si>
+  <si>
+    <t>Quick weapon attachment researches when you get a weapon that can use them (ie get m4 from enemy + have sopmod unlocked -&gt; research -&gt; can apply sopmod despite not doing m4 acquisition).</t>
   </si>
 </sst>
 </file>
@@ -2338,13 +2341,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2371,24 +2410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2405,24 +2426,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7467,13 +7470,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7488,7 +7491,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="86" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7572,8 +7575,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7586,7 +7589,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7632,8 +7635,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7646,7 +7649,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7752,8 +7755,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7766,7 +7769,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7812,8 +7815,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7826,7 +7829,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7886,7 +7889,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7908,7 +7911,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="86" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7931,9 +7934,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7946,25 +7949,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7973,10 +7976,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="80"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7985,10 +7988,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="80"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8001,11 +8004,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8017,26 +8020,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="73"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8049,11 +8052,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8065,11 +8068,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8079,11 +8082,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8097,11 +8100,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8113,11 +8116,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8127,11 +8130,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8145,11 +8148,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8161,11 +8164,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8175,11 +8178,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8193,11 +8196,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8209,11 +8212,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8223,11 +8226,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8241,11 +8244,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8257,11 +8260,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,11 +8274,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8289,11 +8292,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8305,62 +8308,54 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="75"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8377,31 +8372,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8888,8 +8891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8946,6 +8949,9 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9041,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FC119D-A7BC-46FE-BE1D-3900F19AB624}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47498B-0870-4824-A0AE-744A4C6BB907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0EFFBA-8C50-47EB-B93F-2260AAD2D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
@@ -2341,49 +2341,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2410,6 +2374,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2426,6 +2408,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7470,13 +7470,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7491,7 +7491,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="74" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7575,8 +7575,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7589,7 +7589,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7635,8 +7635,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7755,8 +7755,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7815,8 +7815,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7889,7 +7889,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7911,7 +7911,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="74" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7934,9 +7934,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7949,25 +7949,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7976,10 +7976,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="92"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7988,10 +7988,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8004,11 +8004,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8020,26 +8020,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="87"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8052,11 +8052,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8068,11 +8068,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,11 +8082,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="96" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8100,11 +8100,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8116,11 +8116,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,11 +8130,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8148,11 +8148,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8164,11 +8164,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8178,11 +8178,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8196,11 +8196,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8212,11 +8212,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8226,11 +8226,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8244,11 +8244,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8260,11 +8260,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8274,11 +8274,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8292,11 +8292,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8308,38 +8308,78 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="73"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8356,55 +8396,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9048,8 +9048,8 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9507,7 +9507,7 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -9586,7 +9586,7 @@
         <v>50</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>60</v>
@@ -9665,7 +9665,7 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>65</v>
@@ -9902,7 +9902,7 @@
         <v>45</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>50</v>
@@ -10139,7 +10139,7 @@
         <v>40</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J14">
         <v>45</v>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0EFFBA-8C50-47EB-B93F-2260AAD2D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5554D76-2549-4EAB-83AA-4D6494DFD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="483">
   <si>
     <t>Name</t>
   </si>
@@ -1631,6 +1631,9 @@
   </si>
   <si>
     <t>Quick weapon attachment researches when you get a weapon that can use them (ie get m4 from enemy + have sopmod unlocked -&gt; research -&gt; can apply sopmod despite not doing m4 acquisition).</t>
+  </si>
+  <si>
+    <t>add manufacturing to swap out NVGs for adv. NVGs on armor</t>
   </si>
 </sst>
 </file>
@@ -2341,13 +2344,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,24 +2413,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2408,24 +2429,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7470,13 +7473,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7491,7 +7494,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="86" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7575,8 +7578,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7589,7 +7592,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7635,8 +7638,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7649,7 +7652,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7755,8 +7758,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7769,7 +7772,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7815,8 +7818,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7829,7 +7832,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7889,7 +7892,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7911,7 +7914,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="86" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7934,9 +7937,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7949,25 +7952,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7976,10 +7979,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="80"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7988,10 +7991,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="80"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8004,11 +8007,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8020,26 +8023,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="73"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8052,11 +8055,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8068,11 +8071,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,11 +8085,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8100,11 +8103,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8116,11 +8119,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,11 +8133,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8148,11 +8151,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8164,11 +8167,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8178,11 +8181,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8196,11 +8199,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8212,11 +8215,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8226,11 +8229,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8244,11 +8247,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8260,11 +8263,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8274,11 +8277,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8292,11 +8295,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8308,62 +8311,54 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="75"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8380,31 +8375,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8892,7 +8895,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8955,6 +8958,9 @@
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>482</v>
+      </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9047,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FC119D-A7BC-46FE-BE1D-3900F19AB624}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
@@ -11431,11 +11437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A31:XFD34"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13138,7 +13144,7 @@
         <v>125</v>
       </c>
       <c r="I21">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>32</v>
@@ -13220,7 +13226,7 @@
         <v>125</v>
       </c>
       <c r="I22">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J22">
         <v>32</v>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5554D76-2549-4EAB-83AA-4D6494DFD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68813F7-6DC7-40DE-AF4F-A025E7A03F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="6" activeTab="11" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -2344,49 +2344,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,6 +2377,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2429,6 +2411,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3597,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695E0F0-C0B0-45B8-AA00-1AE0F467FE87}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7428,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C18DE-CCD8-4ABA-9B3B-CCD73CA8C93E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7473,13 +7473,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7494,7 +7494,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="74" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7578,8 +7578,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7638,8 +7638,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7758,8 +7758,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7818,8 +7818,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7892,7 +7892,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7914,7 +7914,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="74" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7937,9 +7937,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7952,25 +7952,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7979,10 +7979,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="92"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7991,10 +7991,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8007,11 +8007,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8023,26 +8023,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="87"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8055,11 +8055,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8071,11 +8071,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,11 +8085,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="96" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8103,11 +8103,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8119,11 +8119,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,11 +8133,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8151,11 +8151,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8167,11 +8167,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,11 +8181,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8199,11 +8199,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8215,11 +8215,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8229,11 +8229,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8247,11 +8247,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8263,11 +8263,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,11 +8277,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8295,11 +8295,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8311,38 +8311,78 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="73"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8359,55 +8399,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10211,8 +10211,8 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10983,22 +10983,22 @@
         <v>35</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M10">
         <v>40</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>25</v>
@@ -11437,8 +11437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K21" sqref="K21"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68813F7-6DC7-40DE-AF4F-A025E7A03F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836745D3-B0C1-4EF1-A028-21388FFF7633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="6" activeTab="11" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -2344,13 +2344,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2377,24 +2413,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2411,24 +2429,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7428,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C18DE-CCD8-4ABA-9B3B-CCD73CA8C93E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7473,13 +7473,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7494,7 +7494,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="86" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7578,8 +7578,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7638,8 +7638,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7758,8 +7758,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7818,8 +7818,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7892,7 +7892,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7914,7 +7914,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="86" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7937,9 +7937,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7952,25 +7952,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7979,10 +7979,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="80"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7991,10 +7991,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="80"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8007,11 +8007,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8023,26 +8023,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="73"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8055,11 +8055,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8071,11 +8071,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,11 +8085,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8103,11 +8103,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8119,11 +8119,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,11 +8133,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8151,11 +8151,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8167,11 +8167,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,11 +8181,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8199,11 +8199,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8215,11 +8215,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8229,11 +8229,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8247,11 +8247,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8263,11 +8263,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,11 +8277,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8295,11 +8295,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8311,62 +8311,54 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="75"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -8383,31 +8375,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11437,11 +11437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836745D3-B0C1-4EF1-A028-21388FFF7633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6451AE-E063-4A84-B211-5377C837D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="3" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="482">
   <si>
     <t>Name</t>
   </si>
@@ -1625,9 +1625,6 @@
   </si>
   <si>
     <t>Uniform w/ NVGs &amp; Adv. NVGs</t>
-  </si>
-  <si>
-    <t>RPG-7 hand sprite fix</t>
   </si>
   <si>
     <t>Quick weapon attachment researches when you get a weapon that can use them (ie get m4 from enemy + have sopmod unlocked -&gt; research -&gt; can apply sopmod despite not doing m4 acquisition).</t>
@@ -2344,49 +2341,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,6 +2374,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2429,6 +2408,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7473,13 +7470,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7494,7 +7491,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="74" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7578,8 +7575,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7592,7 +7589,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7638,8 +7635,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7652,7 +7649,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7758,8 +7755,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7772,7 +7769,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7818,8 +7815,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7832,7 +7829,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7892,7 +7889,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7914,7 +7911,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="74" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7937,9 +7934,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7952,25 +7949,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="74" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7979,10 +7976,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="92"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7991,10 +7988,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8007,11 +8004,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8023,26 +8020,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="87"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8055,11 +8052,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8071,11 +8068,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,11 +8082,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="96" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8103,11 +8100,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8119,11 +8116,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,11 +8130,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8151,11 +8148,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8167,11 +8164,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,11 +8178,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8199,11 +8196,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8215,11 +8212,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8229,11 +8226,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8247,11 +8244,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8263,11 +8260,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,11 +8274,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="85"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8295,11 +8292,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8311,38 +8308,78 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="73"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -8359,55 +8396,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8894,8 +8891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FEC12-ED84-4F38-9B1C-DC3BDC099D3A}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8940,9 +8937,6 @@
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>480</v>
-      </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8953,13 +8947,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="14"/>
     </row>
@@ -11437,7 +11431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308052D-1B88-4699-843E-12AA607B59B8}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/CTO Wepon stat spreadsheet.xlsx
+++ b/CTO Wepon stat spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\OpenXcom\mods\IDT_Counter_Terrorist_Operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6451AE-E063-4A84-B211-5377C837D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBA5C65-D374-496D-8FC3-132989EFA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" firstSheet="7" activeTab="13" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{5CCF0F11-6EA0-4BA3-9FDA-51D6C50FE267}"/>
   </bookViews>
   <sheets>
     <sheet name="Caliber" sheetId="1" r:id="rId1"/>
@@ -2341,13 +2341,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,24 +2410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2408,24 +2426,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7470,13 +7470,13 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -7491,7 +7491,7 @@
       <c r="G2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="86" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7575,8 +7575,8 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="60" t="s">
         <v>351</v>
       </c>
@@ -7589,7 +7589,7 @@
       <c r="G7" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -7635,8 +7635,8 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="60" t="s">
         <v>351</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="G10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
@@ -7755,8 +7755,8 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="60" t="s">
         <v>351</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="G16" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -7815,8 +7815,8 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="60" t="s">
         <v>351</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="G19" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
@@ -7889,7 +7889,7 @@
       <c r="G22" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72"/>
@@ -7911,7 +7911,7 @@
       <c r="G23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="86" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7934,9 +7934,9 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="48" t="s">
         <v>351</v>
       </c>
@@ -7949,25 +7949,25 @@
       <c r="G25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="86" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72"/>
@@ -7976,10 +7976,10 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="80"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -7988,10 +7988,10 @@
       <c r="D28" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="80"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72"/>
@@ -8004,11 +8004,11 @@
       <c r="D29" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="71" t="s">
         <v>348</v>
       </c>
@@ -8020,26 +8020,26 @@
       <c r="D30" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="73"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72"/>
@@ -8052,11 +8052,11 @@
       <c r="D32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="72" t="s">
         <v>348</v>
       </c>
@@ -8068,11 +8068,11 @@
       <c r="D33" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,11 +8082,11 @@
       <c r="D34" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8100,11 +8100,11 @@
       <c r="D35" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="71" t="s">
         <v>348</v>
       </c>
@@ -8116,11 +8116,11 @@
       <c r="D36" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,11 +8130,11 @@
       <c r="D37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8148,11 +8148,11 @@
       <c r="D38" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="71" t="s">
         <v>382</v>
       </c>
@@ -8164,11 +8164,11 @@
       <c r="D39" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8178,11 +8178,11 @@
       <c r="D40" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8196,11 +8196,11 @@
       <c r="D41" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="71" t="s">
         <v>348</v>
       </c>
@@ -8212,11 +8212,11 @@
       <c r="D42" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8226,11 +8226,11 @@
       <c r="D43" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8244,11 +8244,11 @@
       <c r="D44" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="71" t="s">
         <v>348</v>
       </c>
@@ -8260,11 +8260,11 @@
       <c r="D45" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8274,11 +8274,11 @@
       <c r="D46" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8292,11 +8292,11 @@
       <c r="D47" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="71" t="s">
         <v>348</v>
       </c>
@@ -8308,62 +8308,54 @@
       <c r="D48" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="75"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E45:G45"/>
- 